--- a/tests/regression_data_linux/performance_analysis_ainley_mathieson_linux.xlsx
+++ b/tests/regression_data_linux/performance_analysis_ainley_mathieson_linux.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.014631289919139</v>
+        <v>2.014631287454866</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999597821</v>
+        <v>2.299999999946504</v>
       </c>
       <c r="D2" t="n">
-        <v>2.755593460029665</v>
+        <v>2.755593455632281</v>
       </c>
       <c r="E2" t="n">
-        <v>92.53908662985427</v>
+        <v>92.5390866895431</v>
       </c>
       <c r="F2" t="n">
-        <v>79.02962761892832</v>
+        <v>79.0296275326412</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1459865177291217</v>
+        <v>0.1459865192124104</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.17561413665744</v>
+        <v>-78.17561405185361</v>
       </c>
       <c r="I2" t="n">
-        <v>136846.6799077761</v>
+        <v>136846.6795399821</v>
       </c>
       <c r="J2" t="n">
-        <v>84.10982170115312</v>
+        <v>84.10982147509658</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-23.83042547168711</v>
+        <v>-23.83042633935677</v>
       </c>
       <c r="M2" t="n">
-        <v>135.4521692682213</v>
+        <v>135.4521699563488</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R2" t="n">
-        <v>372123.0126345397</v>
+        <v>372123.0126887617</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.717995537476261</v>
+        <v>0.7179955369033715</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.068915659845952</v>
+        <v>2.068915665886094</v>
       </c>
       <c r="C3" t="n">
-        <v>2.400000000923677</v>
+        <v>2.399999999958711</v>
       </c>
       <c r="D3" t="n">
-        <v>2.758758057962302</v>
+        <v>2.758758065584426</v>
       </c>
       <c r="E3" t="n">
-        <v>92.50770121220273</v>
+        <v>92.50770108381727</v>
       </c>
       <c r="F3" t="n">
-        <v>78.15611110941805</v>
+        <v>78.15611131993596</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1551394090948567</v>
+        <v>0.1551394056466493</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.31125051851291</v>
+        <v>-77.31125072558261</v>
       </c>
       <c r="I3" t="n">
-        <v>141581.7566734163</v>
+        <v>141581.7574459485</v>
       </c>
       <c r="J3" t="n">
-        <v>87.020133173581</v>
+        <v>87.02013364840106</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.28469508760003</v>
+        <v>-26.28469348078263</v>
       </c>
       <c r="M3" t="n">
-        <v>142.7386005216144</v>
+        <v>142.738598935324</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R3" t="n">
-        <v>370463.5998671693</v>
+        <v>370463.5997289338</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7057278907611935</v>
+        <v>0.7057278917361149</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>81.10933463012741</v>
+        <v>81.10933449738998</v>
       </c>
       <c r="D2" t="n">
-        <v>81.10933463012741</v>
+        <v>81.10933449738998</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>81.10933463012741</v>
+        <v>81.10933449738998</v>
       </c>
       <c r="H2" t="n">
-        <v>81.10933463012741</v>
+        <v>81.10933449738998</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3264,97 +3264,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.3202568618133</v>
+        <v>292.3202568723488</v>
       </c>
       <c r="L2" t="n">
-        <v>132721.3593121596</v>
+        <v>132721.3593288802</v>
       </c>
       <c r="M2" t="n">
-        <v>1.582500525743685</v>
+        <v>1.582500525885901</v>
       </c>
       <c r="N2" t="n">
-        <v>334626.9393262531</v>
+        <v>334626.9393337899</v>
       </c>
       <c r="O2" t="n">
-        <v>418495.0690065185</v>
+        <v>418495.0690170842</v>
       </c>
       <c r="P2" t="n">
         <v>3782.91734771824</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687328.3017654869</v>
+        <v>-687328.301794776</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7114519088906</v>
+        <v>717.7114519093672</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.645971641192</v>
+        <v>1006.645971641745</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402577552530093</v>
+        <v>1.402577552529933</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994977397643227</v>
+        <v>0.9994977397643962</v>
       </c>
       <c r="V2" t="n">
-        <v>342.8893146415078</v>
+        <v>342.8893146476925</v>
       </c>
       <c r="W2" t="n">
-        <v>186059.464229154</v>
+        <v>186059.4642525867</v>
       </c>
       <c r="X2" t="n">
-        <v>5.374625817305284e-06</v>
+        <v>5.374625816628392e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132655.3842912454</v>
+        <v>132655.3843079675</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.538329524601101e-06</v>
+        <v>7.538329523650843e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003433837587851354</v>
+        <v>0.003433837587727796</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.816983436485087e-05</v>
+        <v>1.816983436536639e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582187936415425</v>
+        <v>0.0258218793649483</v>
       </c>
       <c r="AD2" t="n">
-        <v>132721.3593121596</v>
+        <v>132721.3593288802</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.582500525743685</v>
+        <v>1.582500525885901</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.582500525743685</v>
+        <v>1.582500525885901</v>
       </c>
       <c r="AG2" t="n">
-        <v>334626.9393262531</v>
+        <v>334626.9393337899</v>
       </c>
       <c r="AH2" t="n">
-        <v>418495.0690065185</v>
+        <v>418495.0690170842</v>
       </c>
       <c r="AI2" t="n">
         <v>3782.91734771824</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7114519088906</v>
+        <v>717.7114519093672</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.645971641192</v>
+        <v>1006.645971641745</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.8893146415078</v>
+        <v>342.8893146476925</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994977397643227</v>
+        <v>0.9994977397643962</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.816983436485087e-05</v>
+        <v>1.816983436536639e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582187936415425</v>
+        <v>0.0258218793649483</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3567,16 +3567,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.2365466964607152</v>
+        <v>0.2365466960693341</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.2365466964607152</v>
+        <v>0.2365466960693341</v>
       </c>
       <c r="DH2" t="n">
-        <v>184799.7898601685</v>
+        <v>184799.7895691035</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.755593459895342</v>
+        <v>2.755593455633385</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3625,121 +3625,121 @@
         <v>0</v>
       </c>
       <c r="DT2" t="n">
-        <v>269.8464657770164</v>
+        <v>269.8464631054403</v>
       </c>
       <c r="DU2" t="n">
-        <v>111.5748425537788</v>
+        <v>111.5748415630287</v>
       </c>
       <c r="DV2" t="n">
-        <v>245.6993479874254</v>
+        <v>245.6993455031999</v>
       </c>
       <c r="DW2" t="n">
-        <v>65.57666586022275</v>
+        <v>65.5766658336664</v>
       </c>
       <c r="DX2" t="n">
-        <v>269.8464657770164</v>
+        <v>269.8464631054403</v>
       </c>
       <c r="DY2" t="n">
-        <v>111.5748425537788</v>
+        <v>111.5748415630287</v>
       </c>
       <c r="DZ2" t="n">
-        <v>245.6993479874254</v>
+        <v>245.6993455031999</v>
       </c>
       <c r="EA2" t="n">
-        <v>65.57666586022276</v>
+        <v>65.5766658336664</v>
       </c>
       <c r="EB2" t="n">
-        <v>259.2686897306433</v>
+        <v>259.2686904505314</v>
       </c>
       <c r="EC2" t="n">
-        <v>85557.98694902922</v>
+        <v>85557.98781235945</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.150398797438947</v>
+        <v>1.150398805849627</v>
       </c>
       <c r="EE2" t="n">
-        <v>311003.414930912</v>
+        <v>311003.4154452039</v>
       </c>
       <c r="EF2" t="n">
-        <v>385375.8735422224</v>
+        <v>385375.8742632315</v>
       </c>
       <c r="EG2" t="n">
-        <v>3788.643751917196</v>
+        <v>3788.643751803598</v>
       </c>
       <c r="EH2" t="n">
-        <v>-596900.8278735378</v>
+        <v>-596900.8298504754</v>
       </c>
       <c r="EI2" t="n">
-        <v>716.5291678339369</v>
+        <v>716.5291678532822</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1005.194266558183</v>
+        <v>1005.194266583153</v>
       </c>
       <c r="EK2" t="n">
-        <v>1.402865803212001</v>
+        <v>1.402865803208975</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.9993228910401171</v>
+        <v>0.9993228910429919</v>
       </c>
       <c r="EM2" t="n">
-        <v>322.8996792399159</v>
+        <v>322.8996796887869</v>
       </c>
       <c r="EN2" t="n">
-        <v>119945.4135782984</v>
+        <v>119945.4147887095</v>
       </c>
       <c r="EO2" t="n">
-        <v>8.337125782197722e-06</v>
+        <v>8.337125698064872e-06</v>
       </c>
       <c r="EP2" t="n">
-        <v>85500.27615162575</v>
+        <v>85500.27701462335</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.169586865692229e-05</v>
+        <v>1.169586853886996e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.003870459732842824</v>
+        <v>0.003870459722122562</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.651329323947016e-05</v>
+        <v>1.651329327643504e-05</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.02328364188455161</v>
+        <v>0.02328364194088834</v>
       </c>
       <c r="EU2" t="n">
-        <v>85557.98694902922</v>
+        <v>85557.98781235945</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.150398797438947</v>
+        <v>1.150398805849627</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.150398797438947</v>
+        <v>1.150398805849627</v>
       </c>
       <c r="EX2" t="n">
-        <v>311003.414930912</v>
+        <v>311003.4154452039</v>
       </c>
       <c r="EY2" t="n">
-        <v>385375.8735422224</v>
+        <v>385375.8742632315</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3788.643751917196</v>
+        <v>3788.643751803598</v>
       </c>
       <c r="FA2" t="n">
-        <v>716.5291678339369</v>
+        <v>716.5291678532822</v>
       </c>
       <c r="FB2" t="n">
-        <v>1005.194266558183</v>
+        <v>1005.194266583153</v>
       </c>
       <c r="FC2" t="n">
-        <v>322.8996792399159</v>
+        <v>322.8996796887869</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.9993228910401171</v>
+        <v>0.9993228910429919</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.651329323947016e-05</v>
+        <v>1.651329327643504e-05</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.02328364188455161</v>
+        <v>0.02328364194088834</v>
       </c>
       <c r="FG2" t="inlineStr">
         <is>
@@ -3750,97 +3750,97 @@
         <v>1</v>
       </c>
       <c r="FI2" t="n">
-        <v>295.5936773104668</v>
+        <v>295.5936773104751</v>
       </c>
       <c r="FJ2" t="n">
-        <v>135273.0064023968</v>
+        <v>135273.0064489659</v>
       </c>
       <c r="FK2" t="n">
-        <v>1.595011389080808</v>
+        <v>1.595011389630117</v>
       </c>
       <c r="FL2" t="n">
-        <v>336974.37435256</v>
+        <v>336974.374352471</v>
       </c>
       <c r="FM2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="FN2" t="n">
-        <v>3788.643751915154</v>
+        <v>3788.643751816042</v>
       </c>
       <c r="FO2" t="n">
-        <v>-698114.707559435</v>
+        <v>-698114.7075302699</v>
       </c>
       <c r="FP2" t="n">
-        <v>717.8561334257649</v>
+        <v>717.8561334258819</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1006.776809795169</v>
+        <v>1006.776809795931</v>
       </c>
       <c r="FR2" t="n">
-        <v>1.402477130049182</v>
+        <v>1.402477130050014</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.9995303445649658</v>
+        <v>0.9995303445648061</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.8027368044536</v>
+        <v>344.8027368045064</v>
       </c>
       <c r="FU2" t="n">
-        <v>189629.1930916072</v>
+        <v>189629.193156972</v>
       </c>
       <c r="FV2" t="n">
-        <v>5.273449639776266e-06</v>
+        <v>5.273449637958519e-06</v>
       </c>
       <c r="FW2" t="n">
-        <v>135210.1856270251</v>
+        <v>135210.1856735514</v>
       </c>
       <c r="FX2" t="n">
-        <v>7.395892516252307e-06</v>
+        <v>7.395892513707351e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.003395618812310818</v>
+        <v>0.003395618812315048</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.832925162828889e-05</v>
+        <v>1.832925162829602e-05</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.02606728822300978</v>
+        <v>0.02606728822302534</v>
       </c>
       <c r="GB2" t="n">
-        <v>135273.0064023968</v>
+        <v>135273.0064489659</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.595011389080808</v>
+        <v>1.595011389630117</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.595011389080808</v>
+        <v>1.595011389630117</v>
       </c>
       <c r="GE2" t="n">
-        <v>336974.37435256</v>
+        <v>336974.374352471</v>
       </c>
       <c r="GF2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="GG2" t="n">
-        <v>3788.643751915154</v>
+        <v>3788.643751816042</v>
       </c>
       <c r="GH2" t="n">
-        <v>717.8561334257649</v>
+        <v>717.8561334258819</v>
       </c>
       <c r="GI2" t="n">
-        <v>1006.776809795169</v>
+        <v>1006.776809795931</v>
       </c>
       <c r="GJ2" t="n">
-        <v>344.8027368044536</v>
+        <v>344.8027368045064</v>
       </c>
       <c r="GK2" t="n">
-        <v>0.9995303445649658</v>
+        <v>0.9995303445648061</v>
       </c>
       <c r="GL2" t="n">
-        <v>1.832925162828889e-05</v>
+        <v>1.832925162829602e-05</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.02606728822300978</v>
+        <v>0.02606728822302534</v>
       </c>
       <c r="GN2" t="inlineStr">
         <is>
@@ -3851,97 +3851,97 @@
         <v>1</v>
       </c>
       <c r="GP2" t="n">
-        <v>295.5936773104668</v>
+        <v>295.5936773104751</v>
       </c>
       <c r="GQ2" t="n">
-        <v>135273.0064023968</v>
+        <v>135273.0064489659</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.595011389080808</v>
+        <v>1.595011389630117</v>
       </c>
       <c r="GS2" t="n">
-        <v>336974.37435256</v>
+        <v>336974.374352471</v>
       </c>
       <c r="GT2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="GU2" t="n">
-        <v>3788.643751915154</v>
+        <v>3788.643751816042</v>
       </c>
       <c r="GV2" t="n">
-        <v>-698114.707559435</v>
+        <v>-698114.7075302699</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.8561334257649</v>
+        <v>717.8561334258819</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.776809795169</v>
+        <v>1006.776809795931</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.402477130049182</v>
+        <v>1.402477130050014</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9995303445649658</v>
+        <v>0.9995303445648061</v>
       </c>
       <c r="HA2" t="n">
-        <v>344.8027368044536</v>
+        <v>344.8027368045064</v>
       </c>
       <c r="HB2" t="n">
-        <v>189629.1930916072</v>
+        <v>189629.193156972</v>
       </c>
       <c r="HC2" t="n">
-        <v>5.273449639776266e-06</v>
+        <v>5.273449637958519e-06</v>
       </c>
       <c r="HD2" t="n">
-        <v>135210.1856270251</v>
+        <v>135210.1856735514</v>
       </c>
       <c r="HE2" t="n">
-        <v>7.395892516252307e-06</v>
+        <v>7.395892513707351e-06</v>
       </c>
       <c r="HF2" t="n">
-        <v>0.003395618812310818</v>
+        <v>0.003395618812315048</v>
       </c>
       <c r="HG2" t="n">
-        <v>1.832925162828889e-05</v>
+        <v>1.832925162829602e-05</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.02606728822300978</v>
+        <v>0.02606728822302534</v>
       </c>
       <c r="HI2" t="n">
-        <v>135273.0064023968</v>
+        <v>135273.0064489659</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.595011389080808</v>
+        <v>1.595011389630117</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.595011389080808</v>
+        <v>1.595011389630117</v>
       </c>
       <c r="HL2" t="n">
-        <v>336974.37435256</v>
+        <v>336974.374352471</v>
       </c>
       <c r="HM2" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="HN2" t="n">
-        <v>3788.643751915154</v>
+        <v>3788.643751816042</v>
       </c>
       <c r="HO2" t="n">
-        <v>717.8561334257649</v>
+        <v>717.8561334258819</v>
       </c>
       <c r="HP2" t="n">
-        <v>1006.776809795169</v>
+        <v>1006.776809795931</v>
       </c>
       <c r="HQ2" t="n">
-        <v>344.8027368044536</v>
+        <v>344.8027368045064</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.9995303445649658</v>
+        <v>0.9995303445648061</v>
       </c>
       <c r="HS2" t="n">
-        <v>1.832925162828889e-05</v>
+        <v>1.832925162829602e-05</v>
       </c>
       <c r="HT2" t="n">
-        <v>0.02606728822300978</v>
+        <v>0.02606728822302534</v>
       </c>
       <c r="HU2" t="inlineStr">
         <is>
@@ -3952,40 +3952,40 @@
         <v>1</v>
       </c>
       <c r="HW2" t="n">
-        <v>0.8356975343308387</v>
+        <v>0.8356975248954113</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8356975343308387</v>
+        <v>0.8356975248954113</v>
       </c>
       <c r="HY2" t="n">
-        <v>491778.1173620713</v>
+        <v>491778.1149878897</v>
       </c>
       <c r="HZ2" t="n">
-        <v>2.755593459968545</v>
+        <v>2.755593455646146</v>
       </c>
       <c r="IA2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB2" t="n">
-        <v>0.01582685405816626</v>
+        <v>0.01582685403055726</v>
       </c>
       <c r="IC2" t="n">
-        <v>-1.792061512888708e-07</v>
+        <v>-1.792061504519643e-07</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.01378707802105247</v>
+        <v>0.01378707802016186</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.02523875692079876</v>
+        <v>0.02523875693314274</v>
       </c>
       <c r="IF2" t="n">
         <v>0</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.0548525097938662</v>
+        <v>0.05485250977771142</v>
       </c>
       <c r="IH2" t="n">
-        <v>7.717249062011433e-11</v>
+        <v>7.237731247666801e-12</v>
       </c>
       <c r="II2" t="n">
         <v>0</v>
@@ -3994,121 +3994,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK2" t="n">
-        <v>269.8464657770164</v>
+        <v>269.8464631054403</v>
       </c>
       <c r="IL2" t="n">
-        <v>111.5748425537788</v>
+        <v>111.5748415630287</v>
       </c>
       <c r="IM2" t="n">
-        <v>245.6993479874254</v>
+        <v>245.6993455031999</v>
       </c>
       <c r="IN2" t="n">
-        <v>65.57666586022275</v>
+        <v>65.5766658336664</v>
       </c>
       <c r="IO2" t="n">
-        <v>137.5226748653346</v>
+        <v>137.5226726092343</v>
       </c>
       <c r="IP2" t="n">
-        <v>111.5748425537788</v>
+        <v>111.5748415630287</v>
       </c>
       <c r="IQ2" t="n">
-        <v>80.39614798742542</v>
+        <v>80.3961455031999</v>
       </c>
       <c r="IR2" t="n">
-        <v>35.77493830419674</v>
+        <v>35.77493770579179</v>
       </c>
       <c r="IS2" t="n">
-        <v>259.2686897308369</v>
+        <v>259.2686904505319</v>
       </c>
       <c r="IT2" t="n">
-        <v>85557.9869491756</v>
+        <v>85557.98781244176</v>
       </c>
       <c r="IU2" t="n">
-        <v>1.150398797440055</v>
+        <v>1.150398805850732</v>
       </c>
       <c r="IV2" t="n">
-        <v>311003.4149310504</v>
+        <v>311003.415445204</v>
       </c>
       <c r="IW2" t="n">
-        <v>385375.8735424163</v>
+        <v>385375.8742632316</v>
       </c>
       <c r="IX2" t="n">
-        <v>3788.643751917455</v>
+        <v>3788.643751803323</v>
       </c>
       <c r="IY2" t="n">
-        <v>-596900.827874144</v>
+        <v>-596900.8298504058</v>
       </c>
       <c r="IZ2" t="n">
-        <v>716.5291678339416</v>
+        <v>716.5291678532823</v>
       </c>
       <c r="JA2" t="n">
-        <v>1005.194266558187</v>
+        <v>1005.194266583155</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.402865803211998</v>
+        <v>1.402865803208978</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.9993228910401185</v>
+        <v>0.9993228910429912</v>
       </c>
       <c r="JD2" t="n">
-        <v>322.8996792400366</v>
+        <v>322.8996796887873</v>
       </c>
       <c r="JE2" t="n">
-        <v>119945.4135785035</v>
+        <v>119945.414788825</v>
       </c>
       <c r="JF2" t="n">
-        <v>8.337125782183461e-06</v>
+        <v>8.337125698056838e-06</v>
       </c>
       <c r="JG2" t="n">
-        <v>85500.27615177215</v>
+        <v>85500.27701470554</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.169586865690226e-05</v>
+        <v>1.169586853885872e-05</v>
       </c>
       <c r="JI2" t="n">
-        <v>0.003870459732839928</v>
+        <v>0.003870459722122567</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.651329323948009e-05</v>
+        <v>1.651329327643508e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.02328364188456672</v>
+        <v>0.02328364194088841</v>
       </c>
       <c r="JL2" t="n">
-        <v>85557.9869491756</v>
+        <v>85557.98781244176</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.150398797440055</v>
+        <v>1.150398805850732</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.150398797440055</v>
+        <v>1.150398805850732</v>
       </c>
       <c r="JO2" t="n">
-        <v>311003.4149310504</v>
+        <v>311003.415445204</v>
       </c>
       <c r="JP2" t="n">
-        <v>385375.8735424163</v>
+        <v>385375.8742632316</v>
       </c>
       <c r="JQ2" t="n">
-        <v>3788.643751917455</v>
+        <v>3788.643751803323</v>
       </c>
       <c r="JR2" t="n">
-        <v>716.5291678339416</v>
+        <v>716.5291678532823</v>
       </c>
       <c r="JS2" t="n">
-        <v>1005.194266558187</v>
+        <v>1005.194266583155</v>
       </c>
       <c r="JT2" t="n">
-        <v>322.8996792400366</v>
+        <v>322.8996796887873</v>
       </c>
       <c r="JU2" t="n">
-        <v>0.9993228910401185</v>
+        <v>0.9993228910429912</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.651329323948009e-05</v>
+        <v>1.651329327643508e-05</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.02328364188456672</v>
+        <v>0.02328364194088841</v>
       </c>
       <c r="JX2" t="inlineStr">
         <is>
@@ -4119,97 +4119,97 @@
         <v>1</v>
       </c>
       <c r="JZ2" t="n">
-        <v>295.5936773105589</v>
+        <v>295.5936773103833</v>
       </c>
       <c r="KA2" t="n">
-        <v>135273.0063990206</v>
+        <v>135273.0064523499</v>
       </c>
       <c r="KB2" t="n">
-        <v>1.595011389040483</v>
+        <v>1.595011389670534</v>
       </c>
       <c r="KC2" t="n">
-        <v>336974.3743526332</v>
+        <v>336974.3743523977</v>
       </c>
       <c r="KD2" t="n">
-        <v>421784.43108859</v>
+        <v>421784.4310882885</v>
       </c>
       <c r="KE2" t="n">
-        <v>3788.643751922656</v>
+        <v>3788.643751808524</v>
       </c>
       <c r="KF2" t="n">
-        <v>-698114.7075619005</v>
+        <v>-698114.7075278002</v>
       </c>
       <c r="KG2" t="n">
-        <v>717.8561334257605</v>
+        <v>717.8561334258864</v>
       </c>
       <c r="KH2" t="n">
-        <v>1006.776809795117</v>
+        <v>1006.776809795984</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.402477130049117</v>
+        <v>1.402477130050079</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.9995303445649786</v>
+        <v>0.9995303445647933</v>
       </c>
       <c r="KK2" t="n">
-        <v>344.8027368045038</v>
+        <v>344.8027368044564</v>
       </c>
       <c r="KL2" t="n">
-        <v>189629.1930868681</v>
+        <v>189629.1931617221</v>
       </c>
       <c r="KM2" t="n">
-        <v>5.273449639908057e-06</v>
+        <v>5.273449637826421e-06</v>
       </c>
       <c r="KN2" t="n">
-        <v>135210.1856236522</v>
+        <v>135210.1856769322</v>
       </c>
       <c r="KO2" t="n">
-        <v>7.395892516436801e-06</v>
+        <v>7.395892513522429e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>0.003395618812309434</v>
+        <v>0.00339561881231643</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1.832925162829287e-05</v>
+        <v>1.832925162829207e-05</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.02606728822301557</v>
+        <v>0.02606728822301958</v>
       </c>
       <c r="KS2" t="n">
-        <v>135273.0063990206</v>
+        <v>135273.0064523499</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.595011389040483</v>
+        <v>1.595011389670534</v>
       </c>
       <c r="KU2" t="n">
-        <v>1.595011389040483</v>
+        <v>1.595011389670534</v>
       </c>
       <c r="KV2" t="n">
-        <v>336974.3743526332</v>
+        <v>336974.3743523977</v>
       </c>
       <c r="KW2" t="n">
-        <v>421784.43108859</v>
+        <v>421784.4310882885</v>
       </c>
       <c r="KX2" t="n">
-        <v>3788.643751922656</v>
+        <v>3788.643751808524</v>
       </c>
       <c r="KY2" t="n">
-        <v>717.8561334257605</v>
+        <v>717.8561334258864</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1006.776809795117</v>
+        <v>1006.776809795984</v>
       </c>
       <c r="LA2" t="n">
-        <v>344.8027368045038</v>
+        <v>344.8027368044564</v>
       </c>
       <c r="LB2" t="n">
-        <v>0.9995303445649786</v>
+        <v>0.9995303445647933</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.832925162829287e-05</v>
+        <v>1.832925162829207e-05</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.02606728822301557</v>
+        <v>0.02606728822301958</v>
       </c>
       <c r="LE2" t="inlineStr">
         <is>
@@ -4220,97 +4220,97 @@
         <v>1</v>
       </c>
       <c r="LG2" t="n">
-        <v>268.7076603077355</v>
+        <v>268.7076607175937</v>
       </c>
       <c r="LH2" t="n">
-        <v>96938.70668703385</v>
+        <v>96938.70724414077</v>
       </c>
       <c r="LI2" t="n">
-        <v>1.257580531111958</v>
+        <v>1.257580536418822</v>
       </c>
       <c r="LJ2" t="n">
-        <v>317748.6183292954</v>
+        <v>317748.6186221313</v>
       </c>
       <c r="LK2" t="n">
-        <v>394832.1165934744</v>
+        <v>394832.1170040246</v>
       </c>
       <c r="LL2" t="n">
-        <v>3788.643751917455</v>
+        <v>3788.643751796696</v>
       </c>
       <c r="LM2" t="n">
-        <v>-623205.4817237854</v>
+        <v>-623205.4828335932</v>
       </c>
       <c r="LN2" t="n">
-        <v>716.8035512893897</v>
+        <v>716.8035513024317</v>
       </c>
       <c r="LO2" t="n">
-        <v>1005.534329686231</v>
+        <v>1005.534329702844</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.402803219762892</v>
+        <v>1.402803219760544</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.9993673080051053</v>
+        <v>0.9993673080069115</v>
       </c>
       <c r="LR2" t="n">
-        <v>328.7322731981203</v>
+        <v>328.732273449151</v>
       </c>
       <c r="LS2" t="n">
-        <v>135900.3236954795</v>
+        <v>135900.3244765211</v>
       </c>
       <c r="LT2" t="n">
-        <v>7.358334202652554e-06</v>
+        <v>7.358334160362989e-06</v>
       </c>
       <c r="LU2" t="n">
-        <v>96877.68161699116</v>
+        <v>96877.68217392531</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.032229491157241e-05</v>
+        <v>1.032229485223121e-05</v>
       </c>
       <c r="LW2" t="n">
-        <v>0.003734758730918984</v>
+        <v>0.003734758725238667</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.69944725220677e-05</v>
+        <v>1.699447254282073e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.02401806440605945</v>
+        <v>0.02401806443778899</v>
       </c>
       <c r="LZ2" t="n">
-        <v>96938.70668703385</v>
+        <v>96938.70724414077</v>
       </c>
       <c r="MA2" t="n">
-        <v>1.257580531111958</v>
+        <v>1.257580536418822</v>
       </c>
       <c r="MB2" t="n">
-        <v>1.257580531111958</v>
+        <v>1.257580536418822</v>
       </c>
       <c r="MC2" t="n">
-        <v>317748.6183292954</v>
+        <v>317748.6186221313</v>
       </c>
       <c r="MD2" t="n">
-        <v>394832.1165934744</v>
+        <v>394832.1170040246</v>
       </c>
       <c r="ME2" t="n">
-        <v>3788.643751917455</v>
+        <v>3788.643751796696</v>
       </c>
       <c r="MF2" t="n">
-        <v>716.8035512893897</v>
+        <v>716.8035513024317</v>
       </c>
       <c r="MG2" t="n">
-        <v>1005.534329686231</v>
+        <v>1005.534329702844</v>
       </c>
       <c r="MH2" t="n">
-        <v>328.7322731981203</v>
+        <v>328.732273449151</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.9993673080051053</v>
+        <v>0.9993673080069115</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.69944725220677e-05</v>
+        <v>1.699447254282073e-05</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.02401806440605945</v>
+        <v>0.02401806443778899</v>
       </c>
       <c r="ML2" t="inlineStr">
         <is>
@@ -4321,139 +4321,139 @@
         <v>1</v>
       </c>
       <c r="MN2" t="n">
-        <v>0.8356975343305264</v>
+        <v>0.8356975248954103</v>
       </c>
       <c r="MO2" t="n">
-        <v>0.4258990754930519</v>
+        <v>0.425899067914157</v>
       </c>
       <c r="MP2" t="n">
-        <v>249668.3253805217</v>
+        <v>249668.322551257</v>
       </c>
       <c r="MQ2" t="n">
-        <v>2.755593459971199</v>
+        <v>2.755593455648794</v>
       </c>
       <c r="MR2" t="n">
-        <v>381169.5426282544</v>
+        <v>381169.5430388045</v>
       </c>
       <c r="MS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT2" t="n">
-        <v>135.4521692682213</v>
+        <v>135.4521699563488</v>
       </c>
       <c r="MU2" t="n">
-        <v>123.9042279464024</v>
+        <v>123.9042277470965</v>
       </c>
       <c r="MV2" t="n">
-        <v>-54.72688970216402</v>
+        <v>-54.72689185655642</v>
       </c>
       <c r="MW2" t="n">
-        <v>-23.83042547168711</v>
+        <v>-23.83042633935677</v>
       </c>
       <c r="MX2" t="n">
-        <v>252.5183123603838</v>
+        <v>252.5183141398046</v>
       </c>
       <c r="MY2" t="n">
-        <v>123.9042279464024</v>
+        <v>123.9042277470965</v>
       </c>
       <c r="MZ2" t="n">
-        <v>-220.030089702164</v>
+        <v>-220.0300918565564</v>
       </c>
       <c r="NA2" t="n">
-        <v>-60.61509374524459</v>
+        <v>-60.61509402450292</v>
       </c>
       <c r="NB2" t="n">
-        <v>236.8660758636881</v>
+        <v>236.8660758248572</v>
       </c>
       <c r="NC2" t="n">
-        <v>60000.00000949229</v>
+        <v>60000.00000039619</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.8830970531955836</v>
+        <v>0.8830970532068384</v>
       </c>
       <c r="NE2" t="n">
-        <v>295006.6654561163</v>
+        <v>295006.6654283101</v>
       </c>
       <c r="NF2" t="n">
-        <v>362949.3675547991</v>
+        <v>362949.3675158268</v>
       </c>
       <c r="NG2" t="n">
-        <v>3799.964942718425</v>
+        <v>3799.964942597376</v>
       </c>
       <c r="NH2" t="n">
-        <v>-537133.4168464983</v>
+        <v>-537133.4167092422</v>
       </c>
       <c r="NI2" t="n">
-        <v>716.0326650666641</v>
+        <v>716.0326650661199</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1004.487919715039</v>
+        <v>1004.487919714835</v>
       </c>
       <c r="NK2" t="n">
-        <v>1.402852088628552</v>
+        <v>1.402852088629334</v>
       </c>
       <c r="NL2" t="n">
-        <v>0.9992720026207664</v>
+        <v>0.9992720026203563</v>
       </c>
       <c r="NM2" t="n">
-        <v>308.6167575239624</v>
+        <v>308.616757498625</v>
       </c>
       <c r="NN2" t="n">
-        <v>84109.96333469519</v>
+        <v>84109.96332195628</v>
       </c>
       <c r="NO2" t="n">
-        <v>1.188919790656361e-05</v>
+        <v>1.188919790836429e-05</v>
       </c>
       <c r="NP2" t="n">
-        <v>59956.40168802272</v>
+        <v>59956.4016789086</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.667878611534098e-05</v>
+        <v>1.667878611787637e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.004235203006461653</v>
+        <v>0.004235203007160195</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.534260009314685e-05</v>
+        <v>1.534260009108663e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.02150588320952957</v>
+        <v>0.02150588320641765</v>
       </c>
       <c r="NU2" t="n">
-        <v>60000.00000949229</v>
+        <v>60000.00000039619</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.8830970531955836</v>
+        <v>0.8830970532068384</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.8830970531955836</v>
+        <v>0.8830970532068384</v>
       </c>
       <c r="NX2" t="n">
-        <v>295006.6654561163</v>
+        <v>295006.6654283101</v>
       </c>
       <c r="NY2" t="n">
-        <v>362949.3675547991</v>
+        <v>362949.3675158268</v>
       </c>
       <c r="NZ2" t="n">
-        <v>3799.964942718425</v>
+        <v>3799.964942597376</v>
       </c>
       <c r="OA2" t="n">
-        <v>716.0326650666641</v>
+        <v>716.0326650661199</v>
       </c>
       <c r="OB2" t="n">
-        <v>1004.487919715039</v>
+        <v>1004.487919714835</v>
       </c>
       <c r="OC2" t="n">
-        <v>308.6167575239624</v>
+        <v>308.616757498625</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.9992720026207664</v>
+        <v>0.9992720026203563</v>
       </c>
       <c r="OE2" t="n">
-        <v>1.534260009314685e-05</v>
+        <v>1.534260009108663e-05</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.02150588320952957</v>
+        <v>0.02150588320641765</v>
       </c>
       <c r="OG2" t="inlineStr">
         <is>
@@ -4464,97 +4464,97 @@
         <v>1</v>
       </c>
       <c r="OI2" t="n">
-        <v>246.0270583166942</v>
+        <v>246.0270583709408</v>
       </c>
       <c r="OJ2" t="n">
-        <v>68498.88646534445</v>
+        <v>68498.88654913145</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.9706189928637459</v>
+        <v>0.9706189938371171</v>
       </c>
       <c r="OL2" t="n">
-        <v>301550.6387484249</v>
+        <v>301550.6387870961</v>
       </c>
       <c r="OM2" t="n">
-        <v>372123.0126345397</v>
+        <v>372123.0126887617</v>
       </c>
       <c r="ON2" t="n">
-        <v>3799.964942726993</v>
+        <v>3799.964942596514</v>
       </c>
       <c r="OO2" t="n">
-        <v>-562771.1839311476</v>
+        <v>-562771.1840509598</v>
       </c>
       <c r="OP2" t="n">
-        <v>716.2049467641339</v>
+        <v>716.2049467653832</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1004.720021907809</v>
+        <v>1004.72002191008</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.402838707617431</v>
+        <v>1.402838707618156</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.9992993900864408</v>
+        <v>0.9992993900863025</v>
       </c>
       <c r="OT2" t="n">
-        <v>314.5353217237821</v>
+        <v>314.5353217584964</v>
       </c>
       <c r="OU2" t="n">
-        <v>96025.73304559012</v>
+        <v>96025.7331630843</v>
       </c>
       <c r="OV2" t="n">
-        <v>1.041387520077801e-05</v>
+        <v>1.04138751880359e-05</v>
       </c>
       <c r="OW2" t="n">
-        <v>68451.01473474408</v>
+        <v>68451.01481846333</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.460898722794863e-05</v>
+        <v>1.460898721008106e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>0.00407781261944015</v>
+        <v>0.00407781261854881</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.5826072834761e-05</v>
+        <v>1.582607283760814e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.02223825931201269</v>
+        <v>0.02223825931633695</v>
       </c>
       <c r="PB2" t="n">
-        <v>68498.88646534445</v>
+        <v>68498.88654913145</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.9706189928637459</v>
+        <v>0.9706189938371171</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9706189928637459</v>
+        <v>0.9706189938371171</v>
       </c>
       <c r="PE2" t="n">
-        <v>301550.6387484249</v>
+        <v>301550.6387870961</v>
       </c>
       <c r="PF2" t="n">
-        <v>372123.0126345397</v>
+        <v>372123.0126887617</v>
       </c>
       <c r="PG2" t="n">
-        <v>3799.964942726993</v>
+        <v>3799.964942596514</v>
       </c>
       <c r="PH2" t="n">
-        <v>716.2049467641339</v>
+        <v>716.2049467653832</v>
       </c>
       <c r="PI2" t="n">
-        <v>1004.720021907809</v>
+        <v>1004.72002191008</v>
       </c>
       <c r="PJ2" t="n">
-        <v>314.5353217237821</v>
+        <v>314.5353217584964</v>
       </c>
       <c r="PK2" t="n">
-        <v>0.9992993900864408</v>
+        <v>0.9992993900863025</v>
       </c>
       <c r="PL2" t="n">
-        <v>1.5826072834761e-05</v>
+        <v>1.582607283760814e-05</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.02223825931201269</v>
+        <v>0.02223825931633695</v>
       </c>
       <c r="PN2" t="inlineStr">
         <is>
@@ -4565,97 +4565,97 @@
         <v>1</v>
       </c>
       <c r="PP2" t="n">
-        <v>268.6971039855868</v>
+        <v>268.6971043956128</v>
       </c>
       <c r="PQ2" t="n">
-        <v>93187.5840562097</v>
+        <v>93187.58459738178</v>
       </c>
       <c r="PR2" t="n">
-        <v>1.208935606221908</v>
+        <v>1.208935611395742</v>
       </c>
       <c r="PS2" t="n">
-        <v>317749.7777353602</v>
+        <v>317749.7780283351</v>
       </c>
       <c r="PT2" t="n">
-        <v>394832.1165932866</v>
+        <v>394832.1170040186</v>
       </c>
       <c r="PU2" t="n">
-        <v>3799.964942725317</v>
+        <v>3799.964942587945</v>
       </c>
       <c r="PV2" t="n">
-        <v>-626207.4587637621</v>
+        <v>-626207.4598742033</v>
       </c>
       <c r="PW2" t="n">
-        <v>716.7911972257324</v>
+        <v>716.7911972387756</v>
       </c>
       <c r="PX2" t="n">
-        <v>1005.456956003552</v>
+        <v>1005.456956020123</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.402719452882612</v>
+        <v>1.402719452880206</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.9993915382312213</v>
+        <v>0.9993915382329221</v>
       </c>
       <c r="QA2" t="n">
-        <v>328.723931490534</v>
+        <v>328.7239317416289</v>
       </c>
       <c r="QB2" t="n">
-        <v>130636.8842152092</v>
+        <v>130636.8849738639</v>
       </c>
       <c r="QC2" t="n">
-        <v>7.654805960869487e-06</v>
+        <v>7.65480591641531e-06</v>
       </c>
       <c r="QD2" t="n">
-        <v>93131.15601751166</v>
+        <v>93131.15655851712</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.07375452293534e-05</v>
+        <v>1.073754516697825e-05</v>
       </c>
       <c r="QF2" t="n">
-        <v>0.003734394806659207</v>
+        <v>0.003734394800977015</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.699336982970786e-05</v>
+        <v>1.699336985046771e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.02401592207520773</v>
+        <v>0.02401592210694707</v>
       </c>
       <c r="QI2" t="n">
-        <v>93187.5840562097</v>
+        <v>93187.58459738178</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.208935606221908</v>
+        <v>1.208935611395742</v>
       </c>
       <c r="QK2" t="n">
-        <v>1.208935606221908</v>
+        <v>1.208935611395742</v>
       </c>
       <c r="QL2" t="n">
-        <v>317749.7777353602</v>
+        <v>317749.7780283351</v>
       </c>
       <c r="QM2" t="n">
-        <v>394832.1165932866</v>
+        <v>394832.1170040186</v>
       </c>
       <c r="QN2" t="n">
-        <v>3799.964942725317</v>
+        <v>3799.964942587945</v>
       </c>
       <c r="QO2" t="n">
-        <v>716.7911972257324</v>
+        <v>716.7911972387756</v>
       </c>
       <c r="QP2" t="n">
-        <v>1005.456956003552</v>
+        <v>1005.456956020123</v>
       </c>
       <c r="QQ2" t="n">
-        <v>328.723931490534</v>
+        <v>328.7239317416289</v>
       </c>
       <c r="QR2" t="n">
-        <v>0.9993915382312213</v>
+        <v>0.9993915382329221</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.699336982970786e-05</v>
+        <v>1.699336985046771e-05</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.02401592207520773</v>
+        <v>0.02401592210694707</v>
       </c>
       <c r="QU2" t="inlineStr">
         <is>
@@ -4666,40 +4666,40 @@
         <v>1</v>
       </c>
       <c r="QW2" t="n">
-        <v>0.438900889099336</v>
+        <v>0.438900891365085</v>
       </c>
       <c r="QX2" t="n">
-        <v>0.8182261857273813</v>
+        <v>0.8182261915603519</v>
       </c>
       <c r="QY2" t="n">
-        <v>378771.0343082576</v>
+        <v>378771.0370330323</v>
       </c>
       <c r="QZ2" t="n">
-        <v>2.755593460029665</v>
+        <v>2.755593455632281</v>
       </c>
       <c r="RA2" t="n">
-        <v>381169.5426282544</v>
+        <v>381169.5430388045</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.02482484701997537</v>
+        <v>0.02482484639254469</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.001940659459068788</v>
+        <v>0.001940659122844845</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.0118683399406798</v>
+        <v>0.01186833998954747</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.03210800795510122</v>
+        <v>0.03210800759504185</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.0422860365255418</v>
+        <v>0.04228603625695607</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.113027890900367</v>
+        <v>0.1130278893569349</v>
       </c>
       <c r="RH2" t="n">
-        <v>5.860656404621523e-11</v>
+        <v>2.081194938607922e-10</v>
       </c>
       <c r="RI2" t="n">
         <v>0</v>
@@ -4713,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>81.20801433150504</v>
+        <v>81.20801454579453</v>
       </c>
       <c r="D3" t="n">
-        <v>81.20801433150504</v>
+        <v>81.20801454579453</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4725,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>81.20801433150504</v>
+        <v>81.20801454579453</v>
       </c>
       <c r="H3" t="n">
-        <v>81.20801433150504</v>
+        <v>81.20801454579453</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4737,97 +4737,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.3122709455021</v>
+        <v>292.3122709281496</v>
       </c>
       <c r="L3" t="n">
-        <v>132708.6859500651</v>
+        <v>132708.6859225283</v>
       </c>
       <c r="M3" t="n">
-        <v>1.582392732912684</v>
+        <v>1.582392732678467</v>
       </c>
       <c r="N3" t="n">
-        <v>334621.2264894185</v>
+        <v>334621.2264770053</v>
       </c>
       <c r="O3" t="n">
-        <v>418487.0602927567</v>
+        <v>418487.0602753547</v>
       </c>
       <c r="P3" t="n">
         <v>3782.91734771824</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687306.1004178975</v>
+        <v>-687306.1003696566</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7110906413466</v>
+        <v>717.7110906405616</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.645552419067</v>
+        <v>1006.645552418156</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402577674422627</v>
+        <v>1.402577674422892</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994976840130112</v>
+        <v>0.9994976840128901</v>
       </c>
       <c r="V3" t="n">
-        <v>342.8846265512249</v>
+        <v>342.8846265410381</v>
       </c>
       <c r="W3" t="n">
-        <v>186041.7033483836</v>
+        <v>186041.7033097925</v>
       </c>
       <c r="X3" t="n">
-        <v>5.375138917790867e-06</v>
+        <v>5.375138918905844e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132642.7097343951</v>
+        <v>132642.7097068557</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.539049843013673e-06</v>
+        <v>7.539049844578939e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003433931248043004</v>
+        <v>0.003433931248246523</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.816944359757466e-05</v>
+        <v>1.816944359672556e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582127746846467</v>
+        <v>0.02582127746715682</v>
       </c>
       <c r="AD3" t="n">
-        <v>132708.6859500651</v>
+        <v>132708.6859225283</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.582392732912684</v>
+        <v>1.582392732678467</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582392732912684</v>
+        <v>1.582392732678467</v>
       </c>
       <c r="AG3" t="n">
-        <v>334621.2264894185</v>
+        <v>334621.2264770053</v>
       </c>
       <c r="AH3" t="n">
-        <v>418487.0602927567</v>
+        <v>418487.0602753547</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.91734771824</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7110906413466</v>
+        <v>717.7110906405616</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.645552419067</v>
+        <v>1006.645552418156</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.8846265512249</v>
+        <v>342.8846265410381</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994976840130112</v>
+        <v>0.9994976840128901</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.816944359757466e-05</v>
+        <v>1.816944359672556e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582127746846467</v>
+        <v>0.02582127746715682</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5040,16 +5040,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2368377233715757</v>
+        <v>0.2368377240035728</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2368377233715757</v>
+        <v>0.2368377240035728</v>
       </c>
       <c r="DH3" t="n">
-        <v>185015.9980115972</v>
+        <v>185015.9984810735</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.75875805871557</v>
+        <v>2.758758065586969</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5098,121 +5098,121 @@
         <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>271.5285862468883</v>
+        <v>271.5285917824548</v>
       </c>
       <c r="DU3" t="n">
-        <v>112.2159150897266</v>
+        <v>112.2159171855227</v>
       </c>
       <c r="DV3" t="n">
-        <v>247.2556602988274</v>
+        <v>247.2556654266488</v>
       </c>
       <c r="DW3" t="n">
-        <v>65.58928232556161</v>
+        <v>65.5892823700332</v>
       </c>
       <c r="DX3" t="n">
-        <v>271.5285862468883</v>
+        <v>271.5285917824548</v>
       </c>
       <c r="DY3" t="n">
-        <v>112.2159150897266</v>
+        <v>112.2159171855227</v>
       </c>
       <c r="DZ3" t="n">
-        <v>247.2556602988274</v>
+        <v>247.2556654266488</v>
       </c>
       <c r="EA3" t="n">
-        <v>65.58928232556161</v>
+        <v>65.5892823700332</v>
       </c>
       <c r="EB3" t="n">
-        <v>258.8140762571365</v>
+        <v>258.8140747564025</v>
       </c>
       <c r="EC3" t="n">
-        <v>85017.41129199155</v>
+        <v>85017.40950188559</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.145140344009916</v>
+        <v>1.145140326545038</v>
       </c>
       <c r="EE3" t="n">
-        <v>310678.6302047668</v>
+        <v>310678.6291326424</v>
       </c>
       <c r="EF3" t="n">
-        <v>384920.5445139663</v>
+        <v>384920.5430109079</v>
       </c>
       <c r="EG3" t="n">
-        <v>3788.70416982458</v>
+        <v>3788.704170057029</v>
       </c>
       <c r="EH3" t="n">
-        <v>-595649.4254107437</v>
+        <v>-595649.4212881258</v>
       </c>
       <c r="EI3" t="n">
-        <v>716.5170134831372</v>
+        <v>716.5170134431455</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1005.178624660734</v>
+        <v>1005.178624609048</v>
       </c>
       <c r="EK3" t="n">
-        <v>1.402867769704941</v>
+        <v>1.402867769711106</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.9993210569106494</v>
+        <v>0.9993210569046982</v>
       </c>
       <c r="EM3" t="n">
-        <v>322.6160911414697</v>
+        <v>322.6160902048977</v>
       </c>
       <c r="EN3" t="n">
-        <v>119187.5150564561</v>
+        <v>119187.512546676</v>
       </c>
       <c r="EO3" t="n">
-        <v>8.390140523748021e-06</v>
+        <v>8.390140700422637e-06</v>
       </c>
       <c r="EP3" t="n">
-        <v>84959.90686386952</v>
+        <v>84959.90507446068</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.177025772406143e-05</v>
+        <v>1.177025797196429e-05</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.003877242040712223</v>
+        <v>0.003877242063139156</v>
       </c>
       <c r="ES3" t="n">
-        <v>1.648994219123172e-05</v>
+        <v>1.648994211411903e-05</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.02324805658717344</v>
+        <v>0.02324805646966685</v>
       </c>
       <c r="EU3" t="n">
-        <v>85017.41129199155</v>
+        <v>85017.40950188559</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.145140344009916</v>
+        <v>1.145140326545038</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.145140344009916</v>
+        <v>1.145140326545038</v>
       </c>
       <c r="EX3" t="n">
-        <v>310678.6302047668</v>
+        <v>310678.6291326424</v>
       </c>
       <c r="EY3" t="n">
-        <v>384920.5445139663</v>
+        <v>384920.5430109079</v>
       </c>
       <c r="EZ3" t="n">
-        <v>3788.70416982458</v>
+        <v>3788.704170057029</v>
       </c>
       <c r="FA3" t="n">
-        <v>716.5170134831372</v>
+        <v>716.5170134431455</v>
       </c>
       <c r="FB3" t="n">
-        <v>1005.178624660734</v>
+        <v>1005.178624609048</v>
       </c>
       <c r="FC3" t="n">
-        <v>322.6160911414697</v>
+        <v>322.6160902048977</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.9993210569106494</v>
+        <v>0.9993210569046982</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.648994219123172e-05</v>
+        <v>1.648994211411903e-05</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02324805658717344</v>
+        <v>0.02324805646966685</v>
       </c>
       <c r="FG3" t="inlineStr">
         <is>
@@ -5223,97 +5223,97 @@
         <v>1</v>
       </c>
       <c r="FI3" t="n">
-        <v>295.593611267392</v>
+        <v>295.5936112671459</v>
       </c>
       <c r="FJ3" t="n">
-        <v>135244.5238496187</v>
+        <v>135244.5237434773</v>
       </c>
       <c r="FK3" t="n">
-        <v>1.594675751362445</v>
+        <v>1.594675750111676</v>
       </c>
       <c r="FL3" t="n">
-        <v>336974.3850751166</v>
+        <v>336974.3850751565</v>
       </c>
       <c r="FM3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="FN3" t="n">
-        <v>3788.704169829781</v>
+        <v>3788.704170054955</v>
       </c>
       <c r="FO3" t="n">
-        <v>-698132.3164952217</v>
+        <v>-698132.3165608494</v>
       </c>
       <c r="FP3" t="n">
-        <v>717.8560592371019</v>
+        <v>717.8560592368254</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1006.776342141929</v>
+        <v>1006.776342140187</v>
       </c>
       <c r="FR3" t="n">
-        <v>1.40247662353352</v>
+        <v>1.402476623531633</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.9995304415155617</v>
+        <v>0.9995304415159231</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.8026690862302</v>
+        <v>344.8026690859779</v>
       </c>
       <c r="FU3" t="n">
-        <v>189589.2150137785</v>
+        <v>189589.2148647986</v>
       </c>
       <c r="FV3" t="n">
-        <v>5.274561635414358e-06</v>
+        <v>5.274561639559129e-06</v>
       </c>
       <c r="FW3" t="n">
-        <v>135181.7291158202</v>
+        <v>135181.7290097758</v>
       </c>
       <c r="FX3" t="n">
-        <v>7.397449393055372e-06</v>
+        <v>7.397449398858361e-06</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.003395616933205554</v>
+        <v>0.003395616933198551</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.832924431624159e-05</v>
+        <v>1.832924431621434e-05</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.02606727416599074</v>
+        <v>0.02606727416593837</v>
       </c>
       <c r="GB3" t="n">
-        <v>135244.5238496187</v>
+        <v>135244.5237434773</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.594675751362445</v>
+        <v>1.594675750111676</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.594675751362445</v>
+        <v>1.594675750111676</v>
       </c>
       <c r="GE3" t="n">
-        <v>336974.3850751166</v>
+        <v>336974.3850751565</v>
       </c>
       <c r="GF3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GG3" t="n">
-        <v>3788.704169829781</v>
+        <v>3788.704170054955</v>
       </c>
       <c r="GH3" t="n">
-        <v>717.8560592371019</v>
+        <v>717.8560592368254</v>
       </c>
       <c r="GI3" t="n">
-        <v>1006.776342141929</v>
+        <v>1006.776342140187</v>
       </c>
       <c r="GJ3" t="n">
-        <v>344.8026690862302</v>
+        <v>344.8026690859779</v>
       </c>
       <c r="GK3" t="n">
-        <v>0.9995304415155617</v>
+        <v>0.9995304415159231</v>
       </c>
       <c r="GL3" t="n">
-        <v>1.832924431624159e-05</v>
+        <v>1.832924431621434e-05</v>
       </c>
       <c r="GM3" t="n">
-        <v>0.02606727416599074</v>
+        <v>0.02606727416593837</v>
       </c>
       <c r="GN3" t="inlineStr">
         <is>
@@ -5324,97 +5324,97 @@
         <v>1</v>
       </c>
       <c r="GP3" t="n">
-        <v>295.593611267392</v>
+        <v>295.5936112671459</v>
       </c>
       <c r="GQ3" t="n">
-        <v>135244.5238496187</v>
+        <v>135244.5237434773</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.594675751362445</v>
+        <v>1.594675750111676</v>
       </c>
       <c r="GS3" t="n">
-        <v>336974.3850751166</v>
+        <v>336974.3850751565</v>
       </c>
       <c r="GT3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GU3" t="n">
-        <v>3788.704169829781</v>
+        <v>3788.704170054955</v>
       </c>
       <c r="GV3" t="n">
-        <v>-698132.3164952217</v>
+        <v>-698132.3165608494</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8560592371019</v>
+        <v>717.8560592368254</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.776342141929</v>
+        <v>1006.776342140187</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.40247662353352</v>
+        <v>1.402476623531633</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995304415155617</v>
+        <v>0.9995304415159231</v>
       </c>
       <c r="HA3" t="n">
-        <v>344.8026690862302</v>
+        <v>344.8026690859779</v>
       </c>
       <c r="HB3" t="n">
-        <v>189589.2150137785</v>
+        <v>189589.2148647986</v>
       </c>
       <c r="HC3" t="n">
-        <v>5.274561635414358e-06</v>
+        <v>5.274561639559129e-06</v>
       </c>
       <c r="HD3" t="n">
-        <v>135181.7291158202</v>
+        <v>135181.7290097758</v>
       </c>
       <c r="HE3" t="n">
-        <v>7.397449393055372e-06</v>
+        <v>7.397449398858361e-06</v>
       </c>
       <c r="HF3" t="n">
-        <v>0.003395616933205554</v>
+        <v>0.003395616933198551</v>
       </c>
       <c r="HG3" t="n">
-        <v>1.832924431624159e-05</v>
+        <v>1.832924431621434e-05</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.02606727416599074</v>
+        <v>0.02606727416593837</v>
       </c>
       <c r="HI3" t="n">
-        <v>135244.5238496187</v>
+        <v>135244.5237434773</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.594675751362445</v>
+        <v>1.594675750111676</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.594675751362445</v>
+        <v>1.594675750111676</v>
       </c>
       <c r="HL3" t="n">
-        <v>336974.3850751166</v>
+        <v>336974.3850751565</v>
       </c>
       <c r="HM3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="HN3" t="n">
-        <v>3788.704169829781</v>
+        <v>3788.704170054955</v>
       </c>
       <c r="HO3" t="n">
-        <v>717.8560592371019</v>
+        <v>717.8560592368254</v>
       </c>
       <c r="HP3" t="n">
-        <v>1006.776342141929</v>
+        <v>1006.776342140187</v>
       </c>
       <c r="HQ3" t="n">
-        <v>344.8026690862302</v>
+        <v>344.8026690859779</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9995304415155617</v>
+        <v>0.9995304415159231</v>
       </c>
       <c r="HS3" t="n">
-        <v>1.832924431624159e-05</v>
+        <v>1.832924431621434e-05</v>
       </c>
       <c r="HT3" t="n">
-        <v>0.02606727416599074</v>
+        <v>0.02606727416593837</v>
       </c>
       <c r="HU3" t="inlineStr">
         <is>
@@ -5425,40 +5425,40 @@
         <v>1</v>
       </c>
       <c r="HW3" t="n">
-        <v>0.8416461351514573</v>
+        <v>0.8416461547531726</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8416461351514573</v>
+        <v>0.8416461547531726</v>
       </c>
       <c r="HY3" t="n">
-        <v>493279.2877683234</v>
+        <v>493279.2926082455</v>
       </c>
       <c r="HZ3" t="n">
-        <v>2.758758056070537</v>
+        <v>2.758758065519728</v>
       </c>
       <c r="IA3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IB3" t="n">
-        <v>0.0158403131961693</v>
+        <v>0.01584031324593087</v>
       </c>
       <c r="IC3" t="n">
-        <v>-1.798815493384994e-07</v>
+        <v>-1.798815523621178e-07</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.01378750972732912</v>
+        <v>0.01378750972882027</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.02523269070175217</v>
+        <v>0.02523269068112233</v>
       </c>
       <c r="IF3" t="n">
         <v>0</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.05486033374370125</v>
+        <v>0.05486033377432111</v>
       </c>
       <c r="IH3" t="n">
-        <v>-1.953350883820981e-10</v>
+        <v>-2.052802372531914e-12</v>
       </c>
       <c r="II3" t="n">
         <v>0</v>
@@ -5467,121 +5467,121 @@
         <v>165.3032</v>
       </c>
       <c r="IK3" t="n">
-        <v>271.5285862468883</v>
+        <v>271.5285917824548</v>
       </c>
       <c r="IL3" t="n">
-        <v>112.2159150897266</v>
+        <v>112.2159171855227</v>
       </c>
       <c r="IM3" t="n">
-        <v>247.2556602988274</v>
+        <v>247.2556654266488</v>
       </c>
       <c r="IN3" t="n">
-        <v>65.58928232556161</v>
+        <v>65.5892823700332</v>
       </c>
       <c r="IO3" t="n">
-        <v>138.9554509490563</v>
+        <v>138.9554556658146</v>
       </c>
       <c r="IP3" t="n">
-        <v>112.2159150897266</v>
+        <v>112.2159171855227</v>
       </c>
       <c r="IQ3" t="n">
-        <v>81.95246029882736</v>
+        <v>81.95246542664876</v>
       </c>
       <c r="IR3" t="n">
-        <v>36.14104784995208</v>
+        <v>36.14104904778226</v>
       </c>
       <c r="IS3" t="n">
-        <v>258.8140762571429</v>
+        <v>258.8140747563025</v>
       </c>
       <c r="IT3" t="n">
-        <v>85017.41129199362</v>
+        <v>85017.40950177018</v>
       </c>
       <c r="IU3" t="n">
-        <v>1.145140344009916</v>
+        <v>1.145140326543926</v>
       </c>
       <c r="IV3" t="n">
-        <v>310678.6302047714</v>
+        <v>310678.629132571</v>
       </c>
       <c r="IW3" t="n">
-        <v>384920.5445139728</v>
+        <v>384920.5430108079</v>
       </c>
       <c r="IX3" t="n">
-        <v>3788.704169824598</v>
+        <v>3788.704170057032</v>
       </c>
       <c r="IY3" t="n">
-        <v>-595649.425410766</v>
+        <v>-595649.4212878476</v>
       </c>
       <c r="IZ3" t="n">
-        <v>716.5170134831377</v>
+        <v>716.5170134431427</v>
       </c>
       <c r="JA3" t="n">
-        <v>1005.178624660734</v>
+        <v>1005.178624609045</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.402867769704941</v>
+        <v>1.402867769711107</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.9993210569106495</v>
+        <v>0.9993210569046977</v>
       </c>
       <c r="JD3" t="n">
-        <v>322.6160911414736</v>
+        <v>322.6160902048353</v>
       </c>
       <c r="JE3" t="n">
-        <v>119187.515056459</v>
+        <v>119187.5125465142</v>
       </c>
       <c r="JF3" t="n">
-        <v>8.390140523747818e-06</v>
+        <v>8.390140700434025e-06</v>
       </c>
       <c r="JG3" t="n">
-        <v>84959.90686387163</v>
+        <v>84959.90507434531</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.177025772406114e-05</v>
+        <v>1.177025797198027e-05</v>
       </c>
       <c r="JI3" t="n">
-        <v>0.003877242040712127</v>
+        <v>0.003877242063140651</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.648994219123204e-05</v>
+        <v>1.648994211411389e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.02324805658717393</v>
+        <v>0.02324805646965902</v>
       </c>
       <c r="JL3" t="n">
-        <v>85017.41129199362</v>
+        <v>85017.40950177018</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.145140344009916</v>
+        <v>1.145140326543926</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.145140344009916</v>
+        <v>1.145140326543926</v>
       </c>
       <c r="JO3" t="n">
-        <v>310678.6302047714</v>
+        <v>310678.629132571</v>
       </c>
       <c r="JP3" t="n">
-        <v>384920.5445139728</v>
+        <v>384920.5430108079</v>
       </c>
       <c r="JQ3" t="n">
-        <v>3788.704169824598</v>
+        <v>3788.704170057032</v>
       </c>
       <c r="JR3" t="n">
-        <v>716.5170134831377</v>
+        <v>716.5170134431427</v>
       </c>
       <c r="JS3" t="n">
-        <v>1005.178624660734</v>
+        <v>1005.178624609045</v>
       </c>
       <c r="JT3" t="n">
-        <v>322.6160911414736</v>
+        <v>322.6160902048353</v>
       </c>
       <c r="JU3" t="n">
-        <v>0.9993210569106495</v>
+        <v>0.9993210569046977</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.648994219123204e-05</v>
+        <v>1.648994211411389e-05</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.02324805658717393</v>
+        <v>0.02324805646965902</v>
       </c>
       <c r="JX3" t="inlineStr">
         <is>
@@ -5592,97 +5592,97 @@
         <v>1</v>
       </c>
       <c r="JZ3" t="n">
-        <v>295.5936112672917</v>
+        <v>295.5936112672381</v>
       </c>
       <c r="KA3" t="n">
-        <v>135244.5238494501</v>
+        <v>135244.5237402067</v>
       </c>
       <c r="KB3" t="n">
-        <v>1.594675751360998</v>
+        <v>1.594675750072595</v>
       </c>
       <c r="KC3" t="n">
-        <v>336974.3850750449</v>
+        <v>336974.3850752295</v>
       </c>
       <c r="KD3" t="n">
-        <v>421784.4310884892</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="KE3" t="n">
-        <v>3788.704169829799</v>
+        <v>3788.704170062233</v>
       </c>
       <c r="KF3" t="n">
-        <v>-698132.3164949475</v>
+        <v>-698132.3165632496</v>
       </c>
       <c r="KG3" t="n">
-        <v>717.8560592370969</v>
+        <v>717.8560592368211</v>
       </c>
       <c r="KH3" t="n">
-        <v>1006.776342141924</v>
+        <v>1006.776342140136</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.402476623533522</v>
+        <v>1.40247662353157</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.999530441515561</v>
+        <v>0.9995304415159354</v>
       </c>
       <c r="KK3" t="n">
-        <v>344.8026690861717</v>
+        <v>344.8026690860282</v>
       </c>
       <c r="KL3" t="n">
-        <v>189589.2150135422</v>
+        <v>189589.2148602075</v>
       </c>
       <c r="KM3" t="n">
-        <v>5.274561635420932e-06</v>
+        <v>5.274561639686857e-06</v>
       </c>
       <c r="KN3" t="n">
-        <v>135181.7291156516</v>
+        <v>135181.7290065084</v>
       </c>
       <c r="KO3" t="n">
-        <v>7.397449393064599e-06</v>
+        <v>7.397449399037163e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>0.003395616933206703</v>
+        <v>0.003395616933197175</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1.832924431623671e-05</v>
+        <v>1.832924431621834e-05</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.02606727416598321</v>
+        <v>0.02606727416594419</v>
       </c>
       <c r="KS3" t="n">
-        <v>135244.5238494501</v>
+        <v>135244.5237402067</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.594675751360998</v>
+        <v>1.594675750072595</v>
       </c>
       <c r="KU3" t="n">
-        <v>1.594675751360998</v>
+        <v>1.594675750072595</v>
       </c>
       <c r="KV3" t="n">
-        <v>336974.3850750449</v>
+        <v>336974.3850752295</v>
       </c>
       <c r="KW3" t="n">
-        <v>421784.4310884892</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="KX3" t="n">
-        <v>3788.704169829799</v>
+        <v>3788.704170062233</v>
       </c>
       <c r="KY3" t="n">
-        <v>717.8560592370969</v>
+        <v>717.8560592368211</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1006.776342141924</v>
+        <v>1006.776342140136</v>
       </c>
       <c r="LA3" t="n">
-        <v>344.8026690861717</v>
+        <v>344.8026690860282</v>
       </c>
       <c r="LB3" t="n">
-        <v>0.999530441515561</v>
+        <v>0.9995304415159354</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.832924431623671e-05</v>
+        <v>1.832924431621834e-05</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.02606727416598321</v>
+        <v>0.02606727416594419</v>
       </c>
       <c r="LE3" t="inlineStr">
         <is>
@@ -5693,97 +5693,97 @@
         <v>1</v>
       </c>
       <c r="LG3" t="n">
-        <v>268.4508440805835</v>
+        <v>268.4508432342768</v>
       </c>
       <c r="LH3" t="n">
-        <v>96595.21582035537</v>
+        <v>96595.21467874107</v>
       </c>
       <c r="LI3" t="n">
-        <v>1.254324716061279</v>
+        <v>1.254324705196029</v>
       </c>
       <c r="LJ3" t="n">
-        <v>317565.1167273346</v>
+        <v>317565.1161226556</v>
       </c>
       <c r="LK3" t="n">
-        <v>394574.8531883008</v>
+        <v>394574.8523405554</v>
       </c>
       <c r="LL3" t="n">
-        <v>3788.704169831237</v>
+        <v>3788.704170063672</v>
       </c>
       <c r="LM3" t="n">
-        <v>-622505.9791745212</v>
+        <v>-622505.9768782583</v>
       </c>
       <c r="LN3" t="n">
-        <v>716.7954132388237</v>
+        <v>716.7954132120273</v>
       </c>
       <c r="LO3" t="n">
-        <v>1005.524044038673</v>
+        <v>1005.524044004607</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.402804796832105</v>
+        <v>1.402804796837021</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.9993661456322104</v>
+        <v>0.9993661456284618</v>
       </c>
       <c r="LR3" t="n">
-        <v>328.5749429388615</v>
+        <v>328.5749424202692</v>
       </c>
       <c r="LS3" t="n">
-        <v>135418.7692124223</v>
+        <v>135418.7676119287</v>
       </c>
       <c r="LT3" t="n">
-        <v>7.384500729225854e-06</v>
+        <v>7.384500816502129e-06</v>
       </c>
       <c r="LU3" t="n">
-        <v>96534.29295239992</v>
+        <v>96534.29181113771</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.035901304516821e-05</v>
+        <v>1.035901316763609e-05</v>
       </c>
       <c r="LW3" t="n">
-        <v>0.003738322104824264</v>
+        <v>0.00373832211657661</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.69814670399626e-05</v>
+        <v>1.698146699709479e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.02399818163993367</v>
+        <v>0.0239981815743988</v>
       </c>
       <c r="LZ3" t="n">
-        <v>96595.21582035537</v>
+        <v>96595.21467874107</v>
       </c>
       <c r="MA3" t="n">
-        <v>1.254324716061279</v>
+        <v>1.254324705196029</v>
       </c>
       <c r="MB3" t="n">
-        <v>1.254324716061279</v>
+        <v>1.254324705196029</v>
       </c>
       <c r="MC3" t="n">
-        <v>317565.1167273346</v>
+        <v>317565.1161226556</v>
       </c>
       <c r="MD3" t="n">
-        <v>394574.8531883008</v>
+        <v>394574.8523405554</v>
       </c>
       <c r="ME3" t="n">
-        <v>3788.704169831237</v>
+        <v>3788.704170063672</v>
       </c>
       <c r="MF3" t="n">
-        <v>716.7954132388237</v>
+        <v>716.7954132120273</v>
       </c>
       <c r="MG3" t="n">
-        <v>1005.524044038673</v>
+        <v>1005.524044004607</v>
       </c>
       <c r="MH3" t="n">
-        <v>328.5749429388615</v>
+        <v>328.5749424202692</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.9993661456322104</v>
+        <v>0.9993661456284618</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.69814670399626e-05</v>
+        <v>1.698146699709479e-05</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.02399818163993367</v>
+        <v>0.0239981815743988</v>
       </c>
       <c r="ML3" t="inlineStr">
         <is>
@@ -5794,139 +5794,139 @@
         <v>1</v>
       </c>
       <c r="MN3" t="n">
-        <v>0.841646135151447</v>
+        <v>0.8416461547533353</v>
       </c>
       <c r="MO3" t="n">
-        <v>0.4307145699317322</v>
+        <v>0.4307145858025526</v>
       </c>
       <c r="MP3" t="n">
-        <v>251471.9686056417</v>
+        <v>251471.9744822396</v>
       </c>
       <c r="MQ3" t="n">
-        <v>2.758758056070536</v>
+        <v>2.758758065517049</v>
       </c>
       <c r="MR3" t="n">
-        <v>380912.2792230806</v>
+        <v>380912.2783754354</v>
       </c>
       <c r="MS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MT3" t="n">
-        <v>142.7386005216144</v>
+        <v>142.738598935324</v>
       </c>
       <c r="MU3" t="n">
-        <v>127.9801075312019</v>
+        <v>127.9801078815806</v>
       </c>
       <c r="MV3" t="n">
-        <v>-63.20917777641961</v>
+        <v>-63.20917348485327</v>
       </c>
       <c r="MW3" t="n">
-        <v>-26.28469508760003</v>
+        <v>-26.28469348078263</v>
       </c>
       <c r="MX3" t="n">
-        <v>261.9099362772079</v>
+        <v>261.9099327040921</v>
       </c>
       <c r="MY3" t="n">
-        <v>127.9801075312019</v>
+        <v>127.9801078815806</v>
       </c>
       <c r="MZ3" t="n">
-        <v>-228.5123777764196</v>
+        <v>-228.5123734848533</v>
       </c>
       <c r="NA3" t="n">
-        <v>-60.74865875664658</v>
+        <v>-60.74865823102027</v>
       </c>
       <c r="NB3" t="n">
-        <v>234.1959631086436</v>
+        <v>234.1959631967148</v>
       </c>
       <c r="NC3" t="n">
-        <v>57499.99997691253</v>
+        <v>57500.0000000315</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.855954264703792</v>
+        <v>0.8559542647252966</v>
       </c>
       <c r="NE3" t="n">
-        <v>293099.9594802957</v>
+        <v>293099.9595433496</v>
       </c>
       <c r="NF3" t="n">
-        <v>360276.4458277418</v>
+        <v>360276.4459161175</v>
       </c>
       <c r="NG3" t="n">
-        <v>3800.824107116386</v>
+        <v>3800.824107378416</v>
       </c>
       <c r="NH3" t="n">
-        <v>-529861.2165449306</v>
+        <v>-529861.2168526642</v>
       </c>
       <c r="NI3" t="n">
-        <v>715.987737854625</v>
+        <v>715.9877378557862</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1004.421540455396</v>
+        <v>1004.421540455862</v>
       </c>
       <c r="NK3" t="n">
-        <v>1.40284740555059</v>
+        <v>1.402847405548965</v>
       </c>
       <c r="NL3" t="n">
-        <v>0.9992672396741678</v>
+        <v>0.9992672396750549</v>
       </c>
       <c r="NM3" t="n">
-        <v>306.8703687170968</v>
+        <v>306.8703687748921</v>
       </c>
       <c r="NN3" t="n">
-        <v>80604.71938979765</v>
+        <v>80604.7194221846</v>
       </c>
       <c r="NO3" t="n">
-        <v>1.240622146656307e-05</v>
+        <v>1.240622146157825e-05</v>
       </c>
       <c r="NP3" t="n">
-        <v>57457.93809852179</v>
+        <v>57457.93812167491</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.740403559705403e-05</v>
+        <v>1.740403559004094e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.004283350730805008</v>
+        <v>0.004283350729185253</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.5200321490835e-05</v>
+        <v>1.520032149552859e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.02129076118228626</v>
+        <v>0.02129076118936995</v>
       </c>
       <c r="NU3" t="n">
-        <v>57499.99997691253</v>
+        <v>57500.0000000315</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.855954264703792</v>
+        <v>0.8559542647252966</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.855954264703792</v>
+        <v>0.8559542647252966</v>
       </c>
       <c r="NX3" t="n">
-        <v>293099.9594802957</v>
+        <v>293099.9595433496</v>
       </c>
       <c r="NY3" t="n">
-        <v>360276.4458277418</v>
+        <v>360276.4459161175</v>
       </c>
       <c r="NZ3" t="n">
-        <v>3800.824107116386</v>
+        <v>3800.824107378416</v>
       </c>
       <c r="OA3" t="n">
-        <v>715.987737854625</v>
+        <v>715.9877378557862</v>
       </c>
       <c r="OB3" t="n">
-        <v>1004.421540455396</v>
+        <v>1004.421540455862</v>
       </c>
       <c r="OC3" t="n">
-        <v>306.8703687170968</v>
+        <v>306.8703687748921</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.9992672396741678</v>
+        <v>0.9992672396750549</v>
       </c>
       <c r="OE3" t="n">
-        <v>1.5200321490835e-05</v>
+        <v>1.520032149552859e-05</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.02129076118228626</v>
+        <v>0.02129076118936995</v>
       </c>
       <c r="OG3" t="inlineStr">
         <is>
@@ -5937,97 +5937,97 @@
         <v>1</v>
       </c>
       <c r="OI3" t="n">
-        <v>244.3693681598047</v>
+        <v>244.369368021554</v>
       </c>
       <c r="OJ3" t="n">
-        <v>66701.60735695565</v>
+        <v>66701.60716222214</v>
       </c>
       <c r="OK3" t="n">
-        <v>0.9515664050911702</v>
+        <v>0.9515664028512277</v>
       </c>
       <c r="OL3" t="n">
-        <v>300366.9602631631</v>
+        <v>300366.9601645685</v>
       </c>
       <c r="OM3" t="n">
-        <v>370463.5998671693</v>
+        <v>370463.5997289338</v>
       </c>
       <c r="ON3" t="n">
-        <v>3800.824107115331</v>
+        <v>3800.824107387089</v>
       </c>
       <c r="OO3" t="n">
-        <v>-558341.385675158</v>
+        <v>-558341.3853543367</v>
       </c>
       <c r="OP3" t="n">
-        <v>716.1704227823716</v>
+        <v>716.1704227793451</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1004.670277457954</v>
+        <v>1004.670277452652</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.402836874433799</v>
+        <v>1.402836874432323</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.9992961233681267</v>
+        <v>0.9992961233683512</v>
       </c>
       <c r="OT3" t="n">
-        <v>313.4726443428977</v>
+        <v>313.4726442541291</v>
       </c>
       <c r="OU3" t="n">
-        <v>93505.76676473081</v>
+        <v>93505.76649166508</v>
       </c>
       <c r="OV3" t="n">
-        <v>1.069452756337577e-05</v>
+        <v>1.06945275946071e-05</v>
       </c>
       <c r="OW3" t="n">
-        <v>66654.76825484136</v>
+        <v>66654.76806025894</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.500267762055218e-05</v>
+        <v>1.500267766434885e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>0.00410537993587113</v>
+        <v>0.00410537993817663</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.573907456922088e-05</v>
+        <v>1.573907456194849e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.02210627394972784</v>
+        <v>0.02210627393869097</v>
       </c>
       <c r="PB3" t="n">
-        <v>66701.60735695565</v>
+        <v>66701.60716222214</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.9515664050911702</v>
+        <v>0.9515664028512277</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9515664050911702</v>
+        <v>0.9515664028512277</v>
       </c>
       <c r="PE3" t="n">
-        <v>300366.9602631631</v>
+        <v>300366.9601645685</v>
       </c>
       <c r="PF3" t="n">
-        <v>370463.5998671693</v>
+        <v>370463.5997289338</v>
       </c>
       <c r="PG3" t="n">
-        <v>3800.824107115331</v>
+        <v>3800.824107387089</v>
       </c>
       <c r="PH3" t="n">
-        <v>716.1704227823716</v>
+        <v>716.1704227793451</v>
       </c>
       <c r="PI3" t="n">
-        <v>1004.670277457954</v>
+        <v>1004.670277452652</v>
       </c>
       <c r="PJ3" t="n">
-        <v>313.4726443428977</v>
+        <v>313.4726442541291</v>
       </c>
       <c r="PK3" t="n">
-        <v>0.9992961233681267</v>
+        <v>0.9992961233683512</v>
       </c>
       <c r="PL3" t="n">
-        <v>1.573907456922088e-05</v>
+        <v>1.573907456194849e-05</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.02210627394972784</v>
+        <v>0.02210627393869097</v>
       </c>
       <c r="PN3" t="inlineStr">
         <is>
@@ -6038,97 +6038,97 @@
         <v>1</v>
       </c>
       <c r="PP3" t="n">
-        <v>268.4395772955806</v>
+        <v>268.4395764495954</v>
       </c>
       <c r="PQ3" t="n">
-        <v>92599.19678152796</v>
+        <v>92599.195677016</v>
       </c>
       <c r="PR3" t="n">
-        <v>1.202454166229806</v>
+        <v>1.202454155680841</v>
       </c>
       <c r="PS3" t="n">
-        <v>317566.3489289673</v>
+        <v>317566.3483244729</v>
       </c>
       <c r="PT3" t="n">
-        <v>394574.8531881066</v>
+        <v>394574.8523406492</v>
       </c>
       <c r="PU3" t="n">
-        <v>3800.824107113585</v>
+        <v>3800.824107378416</v>
       </c>
       <c r="PV3" t="n">
-        <v>-625716.7635003169</v>
+        <v>-625716.7612034241</v>
       </c>
       <c r="PW3" t="n">
-        <v>716.7822199129098</v>
+        <v>716.782219886136</v>
       </c>
       <c r="PX3" t="n">
-        <v>1005.441428125001</v>
+        <v>1005.441428091077</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.402715357876991</v>
+        <v>1.402715357882057</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.9993920993019485</v>
+        <v>0.9993920992984275</v>
       </c>
       <c r="QA3" t="n">
-        <v>328.5660641559412</v>
+        <v>328.5660636376311</v>
       </c>
       <c r="QB3" t="n">
-        <v>129811.7313493551</v>
+        <v>129811.7298009808</v>
       </c>
       <c r="QC3" t="n">
-        <v>7.703464005951474e-06</v>
+        <v>7.703464097837208e-06</v>
       </c>
       <c r="QD3" t="n">
-        <v>92543.17393788652</v>
+        <v>92543.17283371158</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.080576727000074e-05</v>
+        <v>1.08057673989293e-05</v>
       </c>
       <c r="QF3" t="n">
-        <v>0.00373793293756133</v>
+        <v>0.003737932949308372</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.698029077372702e-05</v>
+        <v>1.698029073087935e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.0239958961270759</v>
+        <v>0.02399589606157331</v>
       </c>
       <c r="QI3" t="n">
-        <v>92599.19678152796</v>
+        <v>92599.195677016</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.202454166229806</v>
+        <v>1.202454155680841</v>
       </c>
       <c r="QK3" t="n">
-        <v>1.202454166229806</v>
+        <v>1.202454155680841</v>
       </c>
       <c r="QL3" t="n">
-        <v>317566.3489289673</v>
+        <v>317566.3483244729</v>
       </c>
       <c r="QM3" t="n">
-        <v>394574.8531881066</v>
+        <v>394574.8523406492</v>
       </c>
       <c r="QN3" t="n">
-        <v>3800.824107113585</v>
+        <v>3800.824107378416</v>
       </c>
       <c r="QO3" t="n">
-        <v>716.7822199129098</v>
+        <v>716.782219886136</v>
       </c>
       <c r="QP3" t="n">
-        <v>1005.441428125001</v>
+        <v>1005.441428091077</v>
       </c>
       <c r="QQ3" t="n">
-        <v>328.5660641559412</v>
+        <v>328.5660636376311</v>
       </c>
       <c r="QR3" t="n">
-        <v>0.9993920993019485</v>
+        <v>0.9993920992984275</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.698029077372702e-05</v>
+        <v>1.698029073087935e-05</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.0239958961270759</v>
+        <v>0.02399589606157331</v>
       </c>
       <c r="QU3" t="inlineStr">
         <is>
@@ -6139,40 +6139,40 @@
         <v>1</v>
       </c>
       <c r="QW3" t="n">
-        <v>0.4651429889381234</v>
+        <v>0.4651429836812669</v>
       </c>
       <c r="QX3" t="n">
-        <v>0.8534872147224557</v>
+        <v>0.8534872029179813</v>
       </c>
       <c r="QY3" t="n">
-        <v>384347.5994361151</v>
+        <v>384347.5940836155</v>
       </c>
       <c r="QZ3" t="n">
-        <v>2.758758057962302</v>
+        <v>2.758758065584426</v>
       </c>
       <c r="RA3" t="n">
-        <v>380912.2792230806</v>
+        <v>380912.2783754354</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.02499269550697353</v>
+        <v>0.02499269681513328</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.002208532511766931</v>
+        <v>0.002208533252222987</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.0118622583563175</v>
+        <v>0.01186225826013152</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.03219276635056136</v>
+        <v>0.03219276706568127</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.04259304819586696</v>
+        <v>0.04259304875625645</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.1138493009214863</v>
+        <v>0.1138493041494255</v>
       </c>
       <c r="RH3" t="n">
-        <v>5.617300374849421e-10</v>
+        <v>-6.564646048978773e-11</v>
       </c>
       <c r="RI3" t="n">
         <v>0</v>
@@ -8689,34 +8689,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01582685405816626</v>
+        <v>0.01582685403055726</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.792061512888708e-07</v>
+        <v>-1.792061504519643e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01378707802105247</v>
+        <v>0.01378707802016186</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02523875692079876</v>
+        <v>0.02523875693314274</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0548525097938662</v>
+        <v>0.05485250977771142</v>
       </c>
       <c r="H2" t="n">
-        <v>7.717249062011433e-11</v>
+        <v>7.237731247666801e-12</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.75758171999135</v>
+        <v>81.75758172380503</v>
       </c>
       <c r="K2" t="n">
-        <v>81.75758171999135</v>
+        <v>81.75758172380503</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8725,10 +8725,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>81.75758171999135</v>
+        <v>81.75758172380503</v>
       </c>
       <c r="O2" t="n">
-        <v>81.75758171999135</v>
+        <v>81.75758172380503</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8737,97 +8737,97 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>292.2676180730111</v>
+        <v>292.2676180724999</v>
       </c>
       <c r="S2" t="n">
-        <v>132637.8394383171</v>
+        <v>132637.8394375065</v>
       </c>
       <c r="T2" t="n">
-        <v>1.581790096107439</v>
+        <v>1.581790096100544</v>
       </c>
       <c r="U2" t="n">
-        <v>334589.2834754573</v>
+        <v>334589.2834750916</v>
       </c>
       <c r="V2" t="n">
-        <v>418442.2800043394</v>
+        <v>418442.2800038267</v>
       </c>
       <c r="W2" t="n">
-        <v>3782.917347723465</v>
+        <v>3782.917347723466</v>
       </c>
       <c r="X2" t="n">
-        <v>-687181.9625818704</v>
+        <v>-687181.9625804495</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.7090713704248</v>
+        <v>717.7090713704015</v>
       </c>
       <c r="Z2" t="n">
-        <v>1006.64320910342</v>
+        <v>1006.643209103393</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402578355574205</v>
+        <v>1.402578355574212</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.999497372375643</v>
+        <v>0.9994973723756394</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.8584121224908</v>
+        <v>342.8584121221908</v>
       </c>
       <c r="AD2" t="n">
-        <v>185942.4165878633</v>
+        <v>185942.4165867273</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.378009054364797e-06</v>
+        <v>5.378009054397654e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>132571.8565732037</v>
+        <v>132571.856572393</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.543079095734159e-06</v>
+        <v>7.543079095780288e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003434455038593961</v>
+        <v>0.00343445503859996</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.816725856049187e-05</v>
+        <v>1.816725856046686e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02581791190131229</v>
+        <v>0.02581791190127377</v>
       </c>
       <c r="AK2" t="n">
-        <v>132637.8394383171</v>
+        <v>132637.8394375065</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.581790096107439</v>
+        <v>1.581790096100544</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.581790096107439</v>
+        <v>1.581790096100544</v>
       </c>
       <c r="AN2" t="n">
-        <v>334589.2834754573</v>
+        <v>334589.2834750916</v>
       </c>
       <c r="AO2" t="n">
-        <v>418442.2800043394</v>
+        <v>418442.2800038267</v>
       </c>
       <c r="AP2" t="n">
-        <v>3782.917347723465</v>
+        <v>3782.917347723466</v>
       </c>
       <c r="AQ2" t="n">
-        <v>717.7090713704248</v>
+        <v>717.7090713704015</v>
       </c>
       <c r="AR2" t="n">
-        <v>1006.64320910342</v>
+        <v>1006.643209103393</v>
       </c>
       <c r="AS2" t="n">
-        <v>342.8584121224908</v>
+        <v>342.8584121221908</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.999497372375643</v>
+        <v>0.9994973723756394</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.816725856049187e-05</v>
+        <v>1.816725856046686e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02581791190131229</v>
+        <v>0.02581791190127377</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -8841,10 +8841,10 @@
         <v>295.5999999999884</v>
       </c>
       <c r="AZ2" t="n">
-        <v>137999.9999950251</v>
+        <v>137999.9999950253</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.62714581975368</v>
+        <v>1.627145819753683</v>
       </c>
       <c r="BB2" t="n">
         <v>336973.3475828228</v>
@@ -8874,19 +8874,19 @@
         <v>344.8092213939903</v>
       </c>
       <c r="BK2" t="n">
-        <v>193456.897436782</v>
+        <v>193456.8974367824</v>
       </c>
       <c r="BL2" t="n">
-        <v>5.169110087309142e-06</v>
+        <v>5.169110087309132e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>137934.6617458621</v>
+        <v>137934.6617458624</v>
       </c>
       <c r="BN2" t="n">
-        <v>7.249809346996849e-06</v>
+        <v>7.249809346996836e-06</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.003395798695746385</v>
+        <v>0.003395798695746386</v>
       </c>
       <c r="BP2" t="n">
         <v>1.83299517401163e-05</v>
@@ -8895,13 +8895,13 @@
         <v>0.02606863419705882</v>
       </c>
       <c r="BR2" t="n">
-        <v>137999.9999950251</v>
+        <v>137999.9999950253</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.62714581975368</v>
+        <v>1.627145819753683</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.62714581975368</v>
+        <v>1.627145819753683</v>
       </c>
       <c r="BU2" t="n">
         <v>336973.3475828228</v>
@@ -8942,10 +8942,10 @@
         <v>295.5999999999884</v>
       </c>
       <c r="CG2" t="n">
-        <v>137999.9999950251</v>
+        <v>137999.9999950253</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.62714581975368</v>
+        <v>1.627145819753683</v>
       </c>
       <c r="CI2" t="n">
         <v>336973.3475828228</v>
@@ -8975,19 +8975,19 @@
         <v>344.8092213939903</v>
       </c>
       <c r="CR2" t="n">
-        <v>193456.897436782</v>
+        <v>193456.8974367824</v>
       </c>
       <c r="CS2" t="n">
-        <v>5.169110087309142e-06</v>
+        <v>5.169110087309132e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>137934.6617458621</v>
+        <v>137934.6617458624</v>
       </c>
       <c r="CU2" t="n">
-        <v>7.249809346996849e-06</v>
+        <v>7.249809346996836e-06</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.003395798695746385</v>
+        <v>0.003395798695746386</v>
       </c>
       <c r="CW2" t="n">
         <v>1.83299517401163e-05</v>
@@ -8996,13 +8996,13 @@
         <v>0.02606863419705882</v>
       </c>
       <c r="CY2" t="n">
-        <v>137999.9999950251</v>
+        <v>137999.9999950253</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.62714581975368</v>
+        <v>1.627145819753683</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.62714581975368</v>
+        <v>1.627145819753683</v>
       </c>
       <c r="DB2" t="n">
         <v>336973.3475828228</v>
@@ -9040,16 +9040,16 @@
         <v>1</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.2384587305700475</v>
+        <v>0.2384587305813794</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.2384587305700475</v>
+        <v>0.2384587305813794</v>
       </c>
       <c r="DO2" t="n">
-        <v>186219.532310197</v>
+        <v>186219.5323183281</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.776369934576205</v>
+        <v>2.776369934693609</v>
       </c>
       <c r="DQ2" t="n">
         <v>421784.4310885895</v>
@@ -9058,121 +9058,121 @@
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>309.3780725246011</v>
+        <v>309.3780735807168</v>
       </c>
       <c r="DT2" t="n">
-        <v>126.4136395626164</v>
+        <v>126.4136399941513</v>
       </c>
       <c r="DU2" t="n">
-        <v>282.3727739913504</v>
+        <v>282.3727749552789</v>
       </c>
       <c r="DV2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW2" t="n">
-        <v>309.3780725246011</v>
+        <v>309.3780735807169</v>
       </c>
       <c r="DX2" t="n">
-        <v>126.4136395626164</v>
+        <v>126.4136399941513</v>
       </c>
       <c r="DY2" t="n">
-        <v>282.3727739913504</v>
+        <v>282.3727749552789</v>
       </c>
       <c r="DZ2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA2" t="n">
-        <v>247.836506269136</v>
+        <v>247.8365059428234</v>
       </c>
       <c r="EB2" t="n">
-        <v>72726.23926428167</v>
+        <v>72726.23891629929</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.023014684986176</v>
+        <v>1.023014681439218</v>
       </c>
       <c r="ED2" t="n">
-        <v>302836.9127196151</v>
+        <v>302836.9124865488</v>
       </c>
       <c r="EE2" t="n">
-        <v>373927.035209171</v>
+        <v>373927.0348824318</v>
       </c>
       <c r="EF2" t="n">
-        <v>3790.093061161525</v>
+        <v>3790.093061215652</v>
       </c>
       <c r="EG2" t="n">
-        <v>-565396.3875039961</v>
+        <v>-565396.3866073949</v>
       </c>
       <c r="EH2" t="n">
-        <v>716.2529430846473</v>
+        <v>716.2529430775892</v>
       </c>
       <c r="EI2" t="n">
-        <v>1004.831581241846</v>
+        <v>1004.831581232277</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.402900457084885</v>
+        <v>1.402900457085351</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.9992812859047164</v>
+        <v>0.9992812859036979</v>
       </c>
       <c r="EL2" t="n">
-        <v>315.6911163981006</v>
+        <v>315.6911161900022</v>
       </c>
       <c r="EM2" t="n">
-        <v>101954.5447537101</v>
+        <v>101954.5442658036</v>
       </c>
       <c r="EN2" t="n">
-        <v>9.808292532870242e-06</v>
+        <v>9.808292579808115e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>72674.11186504531</v>
+        <v>72674.11151723706</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.376005807758593e-05</v>
+        <v>1.376005814343966e-05</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.004048559423399074</v>
+        <v>0.00404855942871614</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.592113123647235e-05</v>
+        <v>1.592113121942007e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.02238288384090652</v>
+        <v>0.02238288381501669</v>
       </c>
       <c r="ET2" t="n">
-        <v>72726.23926428167</v>
+        <v>72726.23891629929</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.023014684986176</v>
+        <v>1.023014681439218</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.023014684986176</v>
+        <v>1.023014681439218</v>
       </c>
       <c r="EW2" t="n">
-        <v>302836.9127196151</v>
+        <v>302836.9124865488</v>
       </c>
       <c r="EX2" t="n">
-        <v>373927.035209171</v>
+        <v>373927.0348824318</v>
       </c>
       <c r="EY2" t="n">
-        <v>3790.093061161525</v>
+        <v>3790.093061215652</v>
       </c>
       <c r="EZ2" t="n">
-        <v>716.2529430846473</v>
+        <v>716.2529430775892</v>
       </c>
       <c r="FA2" t="n">
-        <v>1004.831581241846</v>
+        <v>1004.831581232277</v>
       </c>
       <c r="FB2" t="n">
-        <v>315.6911163981006</v>
+        <v>315.6911161900022</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.9992812859047164</v>
+        <v>0.9992812859036979</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.592113123647235e-05</v>
+        <v>1.592113121942007e-05</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.02238288384090652</v>
+        <v>0.02238288381501669</v>
       </c>
       <c r="FF2" t="inlineStr">
         <is>
@@ -9183,97 +9183,97 @@
         <v>1</v>
       </c>
       <c r="FH2" t="n">
-        <v>295.5920968652187</v>
+        <v>295.5920968651597</v>
       </c>
       <c r="FI2" t="n">
-        <v>134591.4166335449</v>
+        <v>134591.4166081541</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.586979528140019</v>
+        <v>1.586979527840815</v>
       </c>
       <c r="FK2" t="n">
-        <v>336974.630932484</v>
+        <v>336974.6309324937</v>
       </c>
       <c r="FL2" t="n">
-        <v>421784.4310886898</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="FM2" t="n">
-        <v>3790.093061171174</v>
+        <v>3790.093061225301</v>
       </c>
       <c r="FN2" t="n">
-        <v>-698537.1241772133</v>
+        <v>-698537.1241929888</v>
       </c>
       <c r="FO2" t="n">
-        <v>717.85435806102</v>
+        <v>717.8543580609538</v>
       </c>
       <c r="FP2" t="n">
-        <v>1006.765618721962</v>
+        <v>1006.765618721545</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.40246500897663</v>
+        <v>1.402465008976179</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.9995326648231505</v>
+        <v>0.999532664823237</v>
       </c>
       <c r="FS2" t="n">
-        <v>344.8011163637951</v>
+        <v>344.8011163637348</v>
       </c>
       <c r="FT2" t="n">
-        <v>188672.5203705601</v>
+        <v>188672.5203349222</v>
       </c>
       <c r="FU2" t="n">
-        <v>5.300188909524087e-06</v>
+        <v>5.300188910525226e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>134529.2176011102</v>
+        <v>134529.2175757426</v>
       </c>
       <c r="FW2" t="n">
-        <v>7.433329486573536e-06</v>
+        <v>7.433329487975206e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.003395573843604672</v>
+        <v>0.003395573843602998</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.832907665249518e-05</v>
+        <v>1.832907665248866e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.0260669518442361</v>
+        <v>0.02606695184422357</v>
       </c>
       <c r="GA2" t="n">
-        <v>134591.4166335449</v>
+        <v>134591.4166081541</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.586979528140019</v>
+        <v>1.586979527840815</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.586979528140019</v>
+        <v>1.586979527840815</v>
       </c>
       <c r="GD2" t="n">
-        <v>336974.630932484</v>
+        <v>336974.6309324937</v>
       </c>
       <c r="GE2" t="n">
-        <v>421784.4310886898</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="GF2" t="n">
-        <v>3790.093061171174</v>
+        <v>3790.093061225301</v>
       </c>
       <c r="GG2" t="n">
-        <v>717.85435806102</v>
+        <v>717.8543580609538</v>
       </c>
       <c r="GH2" t="n">
-        <v>1006.765618721962</v>
+        <v>1006.765618721545</v>
       </c>
       <c r="GI2" t="n">
-        <v>344.8011163637951</v>
+        <v>344.8011163637348</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.9995326648231505</v>
+        <v>0.999532664823237</v>
       </c>
       <c r="GK2" t="n">
-        <v>1.832907665249518e-05</v>
+        <v>1.832907665248866e-05</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.0260669518442361</v>
+        <v>0.02606695184422357</v>
       </c>
       <c r="GM2" t="inlineStr">
         <is>
@@ -9284,97 +9284,97 @@
         <v>1</v>
       </c>
       <c r="GO2" t="n">
-        <v>295.5920968652187</v>
+        <v>295.5920968651598</v>
       </c>
       <c r="GP2" t="n">
-        <v>134591.4166335449</v>
+        <v>134591.416608154</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.586979528140019</v>
+        <v>1.586979527840812</v>
       </c>
       <c r="GR2" t="n">
-        <v>336974.630932484</v>
+        <v>336974.6309324937</v>
       </c>
       <c r="GS2" t="n">
-        <v>421784.4310886898</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="GT2" t="n">
-        <v>3790.093061171174</v>
+        <v>3790.093061225301</v>
       </c>
       <c r="GU2" t="n">
-        <v>-698537.1241772133</v>
+        <v>-698537.1241929894</v>
       </c>
       <c r="GV2" t="n">
-        <v>717.85435806102</v>
+        <v>717.8543580609536</v>
       </c>
       <c r="GW2" t="n">
-        <v>1006.765618721962</v>
+        <v>1006.765618721545</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.40246500897663</v>
+        <v>1.402465008976179</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.9995326648231505</v>
+        <v>0.999532664823237</v>
       </c>
       <c r="GZ2" t="n">
-        <v>344.8011163637951</v>
+        <v>344.8011163637348</v>
       </c>
       <c r="HA2" t="n">
-        <v>188672.5203705601</v>
+        <v>188672.520334922</v>
       </c>
       <c r="HB2" t="n">
-        <v>5.300188909524087e-06</v>
+        <v>5.300188910525232e-06</v>
       </c>
       <c r="HC2" t="n">
-        <v>134529.2176011102</v>
+        <v>134529.2175757425</v>
       </c>
       <c r="HD2" t="n">
-        <v>7.433329486573536e-06</v>
+        <v>7.433329487975214e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.003395573843604672</v>
+        <v>0.003395573843602996</v>
       </c>
       <c r="HF2" t="n">
-        <v>1.832907665249518e-05</v>
+        <v>1.832907665248867e-05</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.0260669518442361</v>
+        <v>0.02606695184422358</v>
       </c>
       <c r="HH2" t="n">
-        <v>134591.4166335449</v>
+        <v>134591.416608154</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.586979528140019</v>
+        <v>1.586979527840812</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.586979528140019</v>
+        <v>1.586979527840812</v>
       </c>
       <c r="HK2" t="n">
-        <v>336974.630932484</v>
+        <v>336974.6309324937</v>
       </c>
       <c r="HL2" t="n">
-        <v>421784.4310886898</v>
+        <v>421784.4310886899</v>
       </c>
       <c r="HM2" t="n">
-        <v>3790.093061171174</v>
+        <v>3790.093061225301</v>
       </c>
       <c r="HN2" t="n">
-        <v>717.85435806102</v>
+        <v>717.8543580609536</v>
       </c>
       <c r="HO2" t="n">
-        <v>1006.765618721962</v>
+        <v>1006.765618721545</v>
       </c>
       <c r="HP2" t="n">
-        <v>344.8011163637951</v>
+        <v>344.8011163637348</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.9995326648231505</v>
+        <v>0.999532664823237</v>
       </c>
       <c r="HR2" t="n">
-        <v>1.832907665249518e-05</v>
+        <v>1.832907665248867e-05</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.0260669518442361</v>
+        <v>0.02606695184422358</v>
       </c>
       <c r="HT2" t="inlineStr">
         <is>
@@ -9385,37 +9385,37 @@
         <v>1</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.01619337325263917</v>
+        <v>0.01619337325555039</v>
       </c>
       <c r="HW2" t="n">
-        <v>-1.972005739861525e-07</v>
+        <v>-1.972005744470638e-07</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.01379727827867915</v>
+        <v>0.01379727827868001</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.02510093007321028</v>
+        <v>0.02510093007318957</v>
       </c>
       <c r="HZ2" t="n">
         <v>0</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.05509138440395461</v>
+        <v>0.05509138440684552</v>
       </c>
       <c r="IB2" t="n">
-        <v>5.578159248426084e-06</v>
+        <v>5.578238857301132e-06</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.9800024658738304</v>
+        <v>0.9800024698652406</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.9800024658738304</v>
+        <v>0.9800024698652409</v>
       </c>
       <c r="IE2" t="n">
-        <v>520038.1620746808</v>
+        <v>520038.1626038502</v>
       </c>
       <c r="IF2" t="n">
-        <v>2.776362991870813</v>
+        <v>2.77636299172231</v>
       </c>
       <c r="IG2" t="n">
         <v>421784.4310885895</v>
@@ -9424,166 +9424,166 @@
         <v>0</v>
       </c>
       <c r="II2" t="n">
-        <v>1480.4563524361</v>
+        <v>1480.456327261985</v>
       </c>
       <c r="IJ2" t="n">
         <v>0</v>
       </c>
       <c r="IK2" t="n">
-        <v>0.006563199715874272</v>
+        <v>0.006563199573969295</v>
       </c>
       <c r="IL2" t="n">
-        <v>-7.431456415150085e-08</v>
+        <v>-7.431456232730524e-08</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.01046619888215476</v>
+        <v>0.01046619867923839</v>
       </c>
       <c r="IN2" t="n">
         <v>0</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.005717329939225588</v>
+        <v>0.005717329825213644</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.02482484701997537</v>
+        <v>0.02482484639254469</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.001940659459068788</v>
+        <v>0.001940659122844845</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.0118683399406798</v>
+        <v>0.01186833998954747</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.03210800795510122</v>
+        <v>0.03210800759504185</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.0422860365255418</v>
+        <v>0.04228603625695607</v>
       </c>
       <c r="IU2" t="n">
-        <v>0.113027890900367</v>
+        <v>0.1130278893569349</v>
       </c>
       <c r="IV2" t="n">
-        <v>5.860656404621523e-11</v>
+        <v>2.081194938607922e-10</v>
       </c>
       <c r="IW2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IX2" t="n">
-        <v>270.7204520506611</v>
+        <v>270.7204515843295</v>
       </c>
       <c r="IY2" t="n">
-        <v>111.9362142715638</v>
+        <v>111.9362141929967</v>
       </c>
       <c r="IZ2" t="n">
-        <v>246.4951259012333</v>
+        <v>246.4951254247492</v>
       </c>
       <c r="JA2" t="n">
-        <v>65.57666586022275</v>
+        <v>65.5766658336664</v>
       </c>
       <c r="JB2" t="n">
-        <v>138.2817590899133</v>
+        <v>138.2817587465479</v>
       </c>
       <c r="JC2" t="n">
-        <v>111.9362142715638</v>
+        <v>111.9362141929967</v>
       </c>
       <c r="JD2" t="n">
-        <v>81.19192590123328</v>
+        <v>81.19192542474923</v>
       </c>
       <c r="JE2" t="n">
-        <v>35.9549163620898</v>
+        <v>35.95491622139068</v>
       </c>
       <c r="JF2" t="n">
-        <v>259.0328657179326</v>
+        <v>259.0328658435663</v>
       </c>
       <c r="JG2" t="n">
-        <v>85286.54281330931</v>
+        <v>85286.54298942044</v>
       </c>
       <c r="JH2" t="n">
-        <v>1.147794185651954</v>
+        <v>1.147794187465042</v>
       </c>
       <c r="JI2" t="n">
-        <v>310834.9144973163</v>
+        <v>310834.914587006</v>
       </c>
       <c r="JJ2" t="n">
-        <v>385139.6495094265</v>
+        <v>385139.6496351769</v>
       </c>
       <c r="JK2" t="n">
-        <v>3788.643751910196</v>
+        <v>3788.643751803323</v>
       </c>
       <c r="JL2" t="n">
-        <v>-596243.5987322116</v>
+        <v>-596243.5990547589</v>
       </c>
       <c r="JM2" t="n">
-        <v>716.5228834658153</v>
+        <v>716.5228834692687</v>
       </c>
       <c r="JN2" t="n">
-        <v>1005.186348786466</v>
+        <v>1005.18634879139</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.402867056979936</v>
+        <v>1.402867056980047</v>
       </c>
       <c r="JP2" t="n">
-        <v>0.9993218641057802</v>
+        <v>0.9993218641060754</v>
       </c>
       <c r="JQ2" t="n">
-        <v>322.7526056317607</v>
+        <v>322.7526057101395</v>
       </c>
       <c r="JR2" t="n">
-        <v>119564.853094389</v>
+        <v>119564.8533413284</v>
       </c>
       <c r="JS2" t="n">
-        <v>8.363661846433772e-06</v>
+        <v>8.363661829160148e-06</v>
       </c>
       <c r="JT2" t="n">
-        <v>85228.92636155119</v>
+        <v>85228.92653756929</v>
       </c>
       <c r="JU2" t="n">
-        <v>1.173310568008192e-05</v>
+        <v>1.173310565585025e-05</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.003873976453807975</v>
+        <v>0.003873976451937761</v>
       </c>
       <c r="JW2" t="n">
-        <v>1.650118367401107e-05</v>
+        <v>1.650118368046843e-05</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.02326518835452663</v>
+        <v>0.02326518836437069</v>
       </c>
       <c r="JY2" t="n">
-        <v>85286.54281330931</v>
+        <v>85286.54298942044</v>
       </c>
       <c r="JZ2" t="n">
-        <v>1.147794185651954</v>
+        <v>1.147794187465042</v>
       </c>
       <c r="KA2" t="n">
-        <v>1.147794185651954</v>
+        <v>1.147794187465042</v>
       </c>
       <c r="KB2" t="n">
-        <v>310834.9144973163</v>
+        <v>310834.914587006</v>
       </c>
       <c r="KC2" t="n">
-        <v>385139.6495094265</v>
+        <v>385139.6496351769</v>
       </c>
       <c r="KD2" t="n">
-        <v>3788.643751910196</v>
+        <v>3788.643751803323</v>
       </c>
       <c r="KE2" t="n">
-        <v>716.5228834658153</v>
+        <v>716.5228834692687</v>
       </c>
       <c r="KF2" t="n">
-        <v>1005.186348786466</v>
+        <v>1005.18634879139</v>
       </c>
       <c r="KG2" t="n">
-        <v>322.7526056317607</v>
+        <v>322.7526057101395</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.9993218641057802</v>
+        <v>0.9993218641060754</v>
       </c>
       <c r="KI2" t="n">
-        <v>1.650118367401107e-05</v>
+        <v>1.650118368046843e-05</v>
       </c>
       <c r="KJ2" t="n">
-        <v>0.02326518835452663</v>
+        <v>0.02326518836437069</v>
       </c>
       <c r="KK2" t="inlineStr">
         <is>
@@ -9594,97 +9594,97 @@
         <v>1</v>
       </c>
       <c r="KM2" t="n">
-        <v>295.593677310659</v>
+        <v>295.5936773104834</v>
       </c>
       <c r="KN2" t="n">
-        <v>135273.0063991802</v>
+        <v>135273.0064525104</v>
       </c>
       <c r="KO2" t="n">
-        <v>1.595011389041823</v>
+        <v>1.595011389671885</v>
       </c>
       <c r="KP2" t="n">
-        <v>336974.3743527045</v>
+        <v>336974.3743524696</v>
       </c>
       <c r="KQ2" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="KR2" t="n">
-        <v>3788.643751922656</v>
+        <v>3788.643751808524</v>
       </c>
       <c r="KS2" t="n">
-        <v>-698114.7075621795</v>
+        <v>-698114.7075280789</v>
       </c>
       <c r="KT2" t="n">
-        <v>717.8561334257651</v>
+        <v>717.8561334258911</v>
       </c>
       <c r="KU2" t="n">
-        <v>1006.776809795122</v>
+        <v>1006.776809795989</v>
       </c>
       <c r="KV2" t="n">
-        <v>1.402477130049116</v>
+        <v>1.402477130050077</v>
       </c>
       <c r="KW2" t="n">
-        <v>0.9995303445649792</v>
+        <v>0.9995303445647939</v>
       </c>
       <c r="KX2" t="n">
-        <v>344.8027368045622</v>
+        <v>344.8027368045149</v>
       </c>
       <c r="KY2" t="n">
-        <v>189629.1930870918</v>
+        <v>189629.193161947</v>
       </c>
       <c r="KZ2" t="n">
-        <v>5.273449639901837e-06</v>
+        <v>5.273449637820166e-06</v>
       </c>
       <c r="LA2" t="n">
-        <v>135210.1856238118</v>
+        <v>135210.1856770927</v>
       </c>
       <c r="LB2" t="n">
-        <v>7.39589251642807e-06</v>
+        <v>7.395892513513648e-06</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.003395618812308287</v>
+        <v>0.003395618812315281</v>
       </c>
       <c r="LD2" t="n">
-        <v>1.832925162829775e-05</v>
+        <v>1.832925162829693e-05</v>
       </c>
       <c r="LE2" t="n">
-        <v>0.02606728822302309</v>
+        <v>0.02606728822302709</v>
       </c>
       <c r="LF2" t="n">
-        <v>135273.0063991802</v>
+        <v>135273.0064525104</v>
       </c>
       <c r="LG2" t="n">
-        <v>1.595011389041823</v>
+        <v>1.595011389671885</v>
       </c>
       <c r="LH2" t="n">
-        <v>1.595011389041823</v>
+        <v>1.595011389671885</v>
       </c>
       <c r="LI2" t="n">
-        <v>336974.3743527045</v>
+        <v>336974.3743524696</v>
       </c>
       <c r="LJ2" t="n">
-        <v>421784.4310886901</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="LK2" t="n">
-        <v>3788.643751922656</v>
+        <v>3788.643751808524</v>
       </c>
       <c r="LL2" t="n">
-        <v>717.8561334257651</v>
+        <v>717.8561334258911</v>
       </c>
       <c r="LM2" t="n">
-        <v>1006.776809795122</v>
+        <v>1006.776809795989</v>
       </c>
       <c r="LN2" t="n">
-        <v>344.8027368045622</v>
+        <v>344.8027368045149</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.9995303445649792</v>
+        <v>0.9995303445647939</v>
       </c>
       <c r="LP2" t="n">
-        <v>1.832925162829775e-05</v>
+        <v>1.832925162829693e-05</v>
       </c>
       <c r="LQ2" t="n">
-        <v>0.02606728822302309</v>
+        <v>0.02606728822302709</v>
       </c>
       <c r="LR2" t="inlineStr">
         <is>
@@ -9695,97 +9695,97 @@
         <v>1</v>
       </c>
       <c r="LT2" t="n">
-        <v>268.5763739109985</v>
+        <v>268.5763739894157</v>
       </c>
       <c r="LU2" t="n">
-        <v>96773.3793733441</v>
+        <v>96773.37951039893</v>
       </c>
       <c r="LV2" t="n">
-        <v>1.256050267860549</v>
+        <v>1.256050269272508</v>
       </c>
       <c r="LW2" t="n">
-        <v>317654.7865705544</v>
+        <v>317654.7866265104</v>
       </c>
       <c r="LX2" t="n">
-        <v>394700.5719579336</v>
+        <v>394700.5720363962</v>
       </c>
       <c r="LY2" t="n">
-        <v>3788.643751924086</v>
+        <v>3788.643751809955</v>
       </c>
       <c r="LZ2" t="n">
-        <v>-622839.6289743981</v>
+        <v>-622839.6291623776</v>
       </c>
       <c r="MA2" t="n">
-        <v>716.7994201123284</v>
+        <v>716.7994201149168</v>
       </c>
       <c r="MB2" t="n">
-        <v>1005.529281078796</v>
+        <v>1005.5292810826</v>
       </c>
       <c r="MC2" t="n">
-        <v>1.402804261366759</v>
+        <v>1.402804261367</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.9993666455118245</v>
+        <v>0.9993666455119701</v>
       </c>
       <c r="ME2" t="n">
-        <v>328.6518593718977</v>
+        <v>328.651859419954</v>
       </c>
       <c r="MF2" t="n">
-        <v>135668.5576381677</v>
+        <v>135668.5578303518</v>
       </c>
       <c r="MG2" t="n">
-        <v>7.37090463264916e-06</v>
+        <v>7.370904622207756e-06</v>
       </c>
       <c r="MH2" t="n">
-        <v>96712.3934354072</v>
+        <v>96712.39357239044</v>
       </c>
       <c r="MI2" t="n">
-        <v>1.033993642880822e-05</v>
+        <v>1.033993641416276e-05</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.003736580924803621</v>
+        <v>0.003736580923719944</v>
       </c>
       <c r="MK2" t="n">
-        <v>1.69878262166739e-05</v>
+        <v>1.698782622064996e-05</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.02400790460314565</v>
+        <v>0.02400790460922817</v>
       </c>
       <c r="MM2" t="n">
-        <v>96773.3793733441</v>
+        <v>96773.37951039893</v>
       </c>
       <c r="MN2" t="n">
-        <v>1.256050267860549</v>
+        <v>1.256050269272508</v>
       </c>
       <c r="MO2" t="n">
-        <v>1.256050267860549</v>
+        <v>1.256050269272508</v>
       </c>
       <c r="MP2" t="n">
-        <v>317654.7865705544</v>
+        <v>317654.7866265104</v>
       </c>
       <c r="MQ2" t="n">
-        <v>394700.5719579336</v>
+        <v>394700.5720363962</v>
       </c>
       <c r="MR2" t="n">
-        <v>3788.643751924086</v>
+        <v>3788.643751809955</v>
       </c>
       <c r="MS2" t="n">
-        <v>716.7994201123284</v>
+        <v>716.7994201149168</v>
       </c>
       <c r="MT2" t="n">
-        <v>1005.529281078796</v>
+        <v>1005.5292810826</v>
       </c>
       <c r="MU2" t="n">
-        <v>328.6518593718977</v>
+        <v>328.651859419954</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.9993666455118245</v>
+        <v>0.9993666455119701</v>
       </c>
       <c r="MW2" t="n">
-        <v>1.69878262166739e-05</v>
+        <v>1.698782622064996e-05</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.02400790460314565</v>
+        <v>0.02400790460922817</v>
       </c>
       <c r="MY2" t="inlineStr">
         <is>
@@ -9796,139 +9796,139 @@
         <v>1</v>
       </c>
       <c r="NA2" t="n">
-        <v>0.8387862633076159</v>
+        <v>0.8387862616590631</v>
       </c>
       <c r="NB2" t="n">
-        <v>0.42844505877571</v>
+        <v>0.4284450576077989</v>
       </c>
       <c r="NC2" t="n">
-        <v>250661.8432562286</v>
+        <v>250661.8429316758</v>
       </c>
       <c r="ND2" t="n">
-        <v>2.758259221794389</v>
+        <v>2.758259224215414</v>
       </c>
       <c r="NE2" t="n">
-        <v>381037.9979927132</v>
+        <v>381037.9980711761</v>
       </c>
       <c r="NF2" t="n">
         <v>165.3032</v>
       </c>
       <c r="NG2" t="n">
-        <v>165.721466916732</v>
+        <v>165.7214449063134</v>
       </c>
       <c r="NH2" t="n">
-        <v>139.9369759623917</v>
+        <v>139.9369638491831</v>
       </c>
       <c r="NI2" t="n">
-        <v>-88.77638962885629</v>
+        <v>-88.77636763524788</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-32.3911504042243</v>
+        <v>-32.39114622682868</v>
       </c>
       <c r="NK2" t="n">
-        <v>290.0668804042733</v>
+        <v>290.0668552955372</v>
       </c>
       <c r="NL2" t="n">
-        <v>139.9369759623917</v>
+        <v>139.9369638491831</v>
       </c>
       <c r="NM2" t="n">
-        <v>-254.0795896288563</v>
+        <v>-254.0795676352479</v>
       </c>
       <c r="NN2" t="n">
         <v>-61.15576777799676</v>
       </c>
       <c r="NO2" t="n">
-        <v>226.5586687437696</v>
+        <v>226.5586760983111</v>
       </c>
       <c r="NP2" t="n">
-        <v>50861.86627193855</v>
+        <v>50861.87240039223</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.7826705580203689</v>
+        <v>0.7826706269115669</v>
       </c>
       <c r="NR2" t="n">
-        <v>287646.1487751005</v>
+        <v>287646.1540268197</v>
       </c>
       <c r="NS2" t="n">
-        <v>352631.1744039997</v>
+        <v>352631.1817658754</v>
       </c>
       <c r="NT2" t="n">
-        <v>3802.821921561749</v>
+        <v>3802.821919494703</v>
       </c>
       <c r="NU2" t="n">
-        <v>-508931.0976146542</v>
+        <v>-508931.117752483</v>
       </c>
       <c r="NV2" t="n">
-        <v>715.8736747970405</v>
+        <v>715.8736748975067</v>
       </c>
       <c r="NW2" t="n">
-        <v>1004.249226721767</v>
+        <v>1004.249226878369</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.402830222813382</v>
+        <v>1.402830222835265</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.9992551158408118</v>
+        <v>0.9992551158502559</v>
       </c>
       <c r="NZ2" t="n">
-        <v>301.8197151869324</v>
+        <v>301.8197200910088</v>
       </c>
       <c r="OA2" t="n">
-        <v>71297.48442891991</v>
+        <v>71297.49302150837</v>
       </c>
       <c r="OB2" t="n">
-        <v>1.40257402909769e-05</v>
+        <v>1.402573860063115e-05</v>
       </c>
       <c r="OC2" t="n">
-        <v>50824.02935825871</v>
+        <v>50824.03548264648</v>
       </c>
       <c r="OD2" t="n">
-        <v>1.967573237751374e-05</v>
+        <v>1.967573000655257e-05</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.004427349726773292</v>
+        <v>0.004427349583441309</v>
       </c>
       <c r="OF2" t="n">
-        <v>1.478997189109836e-05</v>
+        <v>1.478997228872575e-05</v>
       </c>
       <c r="OG2" t="n">
-        <v>0.02067144442450042</v>
+        <v>0.0206714450238252</v>
       </c>
       <c r="OH2" t="n">
-        <v>50861.86627193855</v>
+        <v>50861.87240039223</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.7826705580203689</v>
+        <v>0.7826706269115669</v>
       </c>
       <c r="OJ2" t="n">
-        <v>0.7826705580203689</v>
+        <v>0.7826706269115669</v>
       </c>
       <c r="OK2" t="n">
-        <v>287646.1487751005</v>
+        <v>287646.1540268197</v>
       </c>
       <c r="OL2" t="n">
-        <v>352631.1744039997</v>
+        <v>352631.1817658754</v>
       </c>
       <c r="OM2" t="n">
-        <v>3802.821921561749</v>
+        <v>3802.821919494703</v>
       </c>
       <c r="ON2" t="n">
-        <v>715.8736747970405</v>
+        <v>715.8736748975067</v>
       </c>
       <c r="OO2" t="n">
-        <v>1004.249226721767</v>
+        <v>1004.249226878369</v>
       </c>
       <c r="OP2" t="n">
-        <v>301.8197151869324</v>
+        <v>301.8197200910088</v>
       </c>
       <c r="OQ2" t="n">
-        <v>0.9992551158408118</v>
+        <v>0.9992551158502559</v>
       </c>
       <c r="OR2" t="n">
-        <v>1.478997189109836e-05</v>
+        <v>1.478997228872575e-05</v>
       </c>
       <c r="OS2" t="n">
-        <v>0.02067144442450042</v>
+        <v>0.0206714450238252</v>
       </c>
       <c r="OT2" t="inlineStr">
         <is>
@@ -9939,97 +9939,97 @@
         <v>1</v>
       </c>
       <c r="OV2" t="n">
-        <v>240.27295797774</v>
+        <v>240.2729616882826</v>
       </c>
       <c r="OW2" t="n">
-        <v>62443.90449394046</v>
+        <v>62443.90830894997</v>
       </c>
       <c r="OX2" t="n">
-        <v>0.9060204102363274</v>
+        <v>0.906020451592857</v>
       </c>
       <c r="OY2" t="n">
-        <v>297441.8974548065</v>
+        <v>297441.9001041471</v>
       </c>
       <c r="OZ2" t="n">
-        <v>366362.9767025163</v>
+        <v>366362.9804165932</v>
       </c>
       <c r="PA2" t="n">
-        <v>3802.821921557406</v>
+        <v>3802.821919490358</v>
       </c>
       <c r="PB2" t="n">
-        <v>-547352.2950526748</v>
+        <v>-547352.3049524751</v>
       </c>
       <c r="PC2" t="n">
-        <v>716.0900880021737</v>
+        <v>716.09008807213</v>
       </c>
       <c r="PD2" t="n">
-        <v>1004.553371826297</v>
+        <v>1004.553371930388</v>
       </c>
       <c r="PE2" t="n">
-        <v>1.40283099662629</v>
+        <v>1.402830996634605</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.9992886265202843</v>
+        <v>0.9992886265258805</v>
       </c>
       <c r="PG2" t="n">
-        <v>310.8311263408021</v>
+        <v>310.8311287435777</v>
       </c>
       <c r="PH2" t="n">
-        <v>87536.05808184684</v>
+        <v>87536.06343088513</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.142386374155657e-05</v>
+        <v>1.142386304348217e-05</v>
       </c>
       <c r="PJ2" t="n">
-        <v>62399.57506810507</v>
+        <v>62399.57888076636</v>
       </c>
       <c r="PK2" t="n">
-        <v>1.602575015789074e-05</v>
+        <v>1.602574917870533e-05</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.00417513957588496</v>
+        <v>0.004175139511631442</v>
       </c>
       <c r="PM2" t="n">
-        <v>1.552312070328068e-05</v>
+        <v>1.552312089953343e-05</v>
       </c>
       <c r="PN2" t="n">
-        <v>0.02177897587085528</v>
+        <v>0.02177897616809493</v>
       </c>
       <c r="PO2" t="n">
-        <v>62443.90449394046</v>
+        <v>62443.90830894997</v>
       </c>
       <c r="PP2" t="n">
-        <v>0.9060204102363274</v>
+        <v>0.906020451592857</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.9060204102363274</v>
+        <v>0.906020451592857</v>
       </c>
       <c r="PR2" t="n">
-        <v>297441.8974548065</v>
+        <v>297441.9001041471</v>
       </c>
       <c r="PS2" t="n">
-        <v>366362.9767025163</v>
+        <v>366362.9804165932</v>
       </c>
       <c r="PT2" t="n">
-        <v>3802.821921557406</v>
+        <v>3802.821919490358</v>
       </c>
       <c r="PU2" t="n">
-        <v>716.0900880021737</v>
+        <v>716.09008807213</v>
       </c>
       <c r="PV2" t="n">
-        <v>1004.553371826297</v>
+        <v>1004.553371930388</v>
       </c>
       <c r="PW2" t="n">
-        <v>310.8311263408021</v>
+        <v>310.8311287435777</v>
       </c>
       <c r="PX2" t="n">
-        <v>0.9992886265202843</v>
+        <v>0.9992886265258805</v>
       </c>
       <c r="PY2" t="n">
-        <v>1.552312070328068e-05</v>
+        <v>1.552312089953343e-05</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.02177897587085528</v>
+        <v>0.02177897616809493</v>
       </c>
       <c r="QA2" t="inlineStr">
         <is>
@@ -10040,97 +10040,97 @@
         <v>1</v>
       </c>
       <c r="QC2" t="n">
-        <v>268.5632283055978</v>
+        <v>268.5632283857645</v>
       </c>
       <c r="QD2" t="n">
-        <v>92106.78102938051</v>
+        <v>92106.78178683897</v>
       </c>
       <c r="QE2" t="n">
-        <v>1.195503462354375</v>
+        <v>1.195503471833672</v>
       </c>
       <c r="QF2" t="n">
-        <v>317656.2271026085</v>
+        <v>317656.22715837</v>
       </c>
       <c r="QG2" t="n">
-        <v>394700.5719579461</v>
+        <v>394700.5720364028</v>
       </c>
       <c r="QH2" t="n">
-        <v>3802.821921558093</v>
+        <v>3802.821919491047</v>
       </c>
       <c r="QI2" t="n">
-        <v>-626597.5599669924</v>
+        <v>-626597.5596382626</v>
       </c>
       <c r="QJ2" t="n">
-        <v>716.7840311632243</v>
+        <v>716.7840311678701</v>
       </c>
       <c r="QK2" t="n">
-        <v>1005.432909353021</v>
+        <v>1005.432909369705</v>
       </c>
       <c r="QL2" t="n">
-        <v>1.402699928626153</v>
+        <v>1.402699928640338</v>
       </c>
       <c r="QM2" t="n">
-        <v>0.9993968762445902</v>
+        <v>0.9993968762406641</v>
       </c>
       <c r="QN2" t="n">
-        <v>328.6414869890816</v>
+        <v>328.6414870385099</v>
       </c>
       <c r="QO2" t="n">
-        <v>129120.622795477</v>
+        <v>129120.6238581306</v>
       </c>
       <c r="QP2" t="n">
-        <v>7.744696225512857e-06</v>
+        <v>7.744696161774556e-06</v>
       </c>
       <c r="QQ2" t="n">
-        <v>92051.49309584814</v>
+        <v>92051.49385249453</v>
       </c>
       <c r="QR2" t="n">
-        <v>1.086348484275812e-05</v>
+        <v>1.086348475346227e-05</v>
       </c>
       <c r="QS2" t="n">
-        <v>0.003736127280180126</v>
+        <v>0.003736127279157384</v>
       </c>
       <c r="QT2" t="n">
-        <v>1.698645348679575e-05</v>
+        <v>1.698645349095455e-05</v>
       </c>
       <c r="QU2" t="n">
-        <v>0.02400523751626994</v>
+        <v>0.0240052375227077</v>
       </c>
       <c r="QV2" t="n">
-        <v>92106.78102938051</v>
+        <v>92106.78178683897</v>
       </c>
       <c r="QW2" t="n">
-        <v>1.195503462354375</v>
+        <v>1.195503471833672</v>
       </c>
       <c r="QX2" t="n">
-        <v>1.195503462354375</v>
+        <v>1.195503471833672</v>
       </c>
       <c r="QY2" t="n">
-        <v>317656.2271026085</v>
+        <v>317656.22715837</v>
       </c>
       <c r="QZ2" t="n">
-        <v>394700.5719579461</v>
+        <v>394700.5720364028</v>
       </c>
       <c r="RA2" t="n">
-        <v>3802.821921558093</v>
+        <v>3802.821919491047</v>
       </c>
       <c r="RB2" t="n">
-        <v>716.7840311632243</v>
+        <v>716.7840311678701</v>
       </c>
       <c r="RC2" t="n">
-        <v>1005.432909353021</v>
+        <v>1005.432909369705</v>
       </c>
       <c r="RD2" t="n">
-        <v>328.6414869890816</v>
+        <v>328.6414870385099</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.9993968762445902</v>
+        <v>0.9993968762406641</v>
       </c>
       <c r="RF2" t="n">
-        <v>1.698645348679575e-05</v>
+        <v>1.698645349095455e-05</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.02400523751626994</v>
+        <v>0.0240052375227077</v>
       </c>
       <c r="RH2" t="inlineStr">
         <is>
@@ -10141,64 +10141,64 @@
         <v>1</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.02437829421827431</v>
+        <v>0.02437829444939222</v>
       </c>
       <c r="RK2" t="n">
-        <v>0.002249028606634377</v>
+        <v>0.002249028362788111</v>
       </c>
       <c r="RL2" t="n">
-        <v>0.01190299099355987</v>
+        <v>0.01190299099993367</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.03193424770149384</v>
+        <v>0.03193424764536575</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.04266279928952268</v>
+        <v>0.04266279919727613</v>
       </c>
       <c r="RO2" t="n">
-        <v>0.1131273608094851</v>
+        <v>0.1131273606547559</v>
       </c>
       <c r="RP2" t="n">
-        <v>1.624419994408766e-05</v>
+        <v>1.624404651717759e-05</v>
       </c>
       <c r="RQ2" t="n">
-        <v>0.5490743598843176</v>
+        <v>0.5490742780370441</v>
       </c>
       <c r="RR2" t="n">
-        <v>0.9610600825881107</v>
+        <v>0.9610599837812858</v>
       </c>
       <c r="RS2" t="n">
-        <v>400022.3014534634</v>
+        <v>400022.2912824402</v>
       </c>
       <c r="RT2" t="n">
-        <v>2.758240084053461</v>
+        <v>2.758240088077157</v>
       </c>
       <c r="RU2" t="n">
-        <v>381037.9979927132</v>
+        <v>381037.9980711761</v>
       </c>
       <c r="RV2" t="n">
         <v>0</v>
       </c>
       <c r="RW2" t="n">
-        <v>2666.551008704118</v>
+        <v>2666.551006647176</v>
       </c>
       <c r="RX2" t="n">
-        <v>6.174938304196736</v>
+        <v>6.174937705791791</v>
       </c>
       <c r="RY2" t="n">
-        <v>0.008998554906372573</v>
+        <v>0.008998554766377943</v>
       </c>
       <c r="RZ2" t="n">
-        <v>0.0007034537084135922</v>
+        <v>0.0007034535933738863</v>
       </c>
       <c r="SA2" t="n">
-        <v>0.01163856809613936</v>
+        <v>0.01163856807871456</v>
       </c>
       <c r="SB2" t="n">
-        <v>0.01532791807908356</v>
+        <v>0.01532791813066513</v>
       </c>
       <c r="SC2" t="n">
-        <v>0.004302057068781396</v>
+        <v>0.004302057128297457</v>
       </c>
     </row>
     <row r="3">
@@ -10206,34 +10206,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0158403131961693</v>
+        <v>0.01584031324593087</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.798815493384994e-07</v>
+        <v>-1.798815523621178e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01378750972732912</v>
+        <v>0.01378750972882027</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02523269070175217</v>
+        <v>0.02523269068112233</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05486033374370125</v>
+        <v>0.05486033377432111</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.953350883820981e-10</v>
+        <v>-2.052802372531914e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>81.75758175787855</v>
+        <v>81.75758172380397</v>
       </c>
       <c r="K3" t="n">
-        <v>81.75758175787855</v>
+        <v>81.75758172380397</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -10242,10 +10242,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>81.75758175787855</v>
+        <v>81.75758172380397</v>
       </c>
       <c r="O3" t="n">
-        <v>81.75758175787855</v>
+        <v>81.75758172380397</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -10254,97 +10254,97 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.2676180699221</v>
+        <v>292.2676180725002</v>
       </c>
       <c r="S3" t="n">
-        <v>132637.8394334175</v>
+        <v>132637.8394375069</v>
       </c>
       <c r="T3" t="n">
-        <v>1.58179009606576</v>
+        <v>1.581790096100547</v>
       </c>
       <c r="U3" t="n">
-        <v>334589.2834732477</v>
+        <v>334589.2834750917</v>
       </c>
       <c r="V3" t="n">
-        <v>418442.2800012418</v>
+        <v>418442.2800038269</v>
       </c>
       <c r="W3" t="n">
         <v>3782.917347723465</v>
       </c>
       <c r="X3" t="n">
-        <v>-687181.9625732828</v>
+        <v>-687181.9625804501</v>
       </c>
       <c r="Y3" t="n">
-        <v>717.7090713702853</v>
+        <v>717.7090713704016</v>
       </c>
       <c r="Z3" t="n">
-        <v>1006.643209103258</v>
+        <v>1006.643209103393</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402578355574251</v>
+        <v>1.402578355574212</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9994973723756213</v>
+        <v>0.9994973723756394</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.8584121206773</v>
+        <v>342.8584121221909</v>
       </c>
       <c r="AD3" t="n">
-        <v>185942.4165809969</v>
+        <v>185942.4165867279</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.378009054563395e-06</v>
+        <v>5.378009054397636e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132571.8565683037</v>
+        <v>132571.8565723934</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.543079096012961e-06</v>
+        <v>7.543079095780262e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003434455038630201</v>
+        <v>0.003434455038599956</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.816725856034071e-05</v>
+        <v>1.816725856046687e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02581791190107947</v>
+        <v>0.02581791190127379</v>
       </c>
       <c r="AK3" t="n">
-        <v>132637.8394334175</v>
+        <v>132637.8394375069</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.58179009606576</v>
+        <v>1.581790096100547</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.58179009606576</v>
+        <v>1.581790096100547</v>
       </c>
       <c r="AN3" t="n">
-        <v>334589.2834732477</v>
+        <v>334589.2834750917</v>
       </c>
       <c r="AO3" t="n">
-        <v>418442.2800012418</v>
+        <v>418442.2800038269</v>
       </c>
       <c r="AP3" t="n">
         <v>3782.917347723465</v>
       </c>
       <c r="AQ3" t="n">
-        <v>717.7090713702853</v>
+        <v>717.7090713704016</v>
       </c>
       <c r="AR3" t="n">
-        <v>1006.643209103258</v>
+        <v>1006.643209103393</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.8584121206773</v>
+        <v>342.8584121221909</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9994973723756213</v>
+        <v>0.9994973723756394</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.816725856034071e-05</v>
+        <v>1.816725856046687e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02581791190107947</v>
+        <v>0.02581791190127379</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
@@ -10358,10 +10358,10 @@
         <v>295.5999999999884</v>
       </c>
       <c r="AZ3" t="n">
-        <v>137999.9999950253</v>
+        <v>137999.9999950251</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.627145819753683</v>
+        <v>1.62714581975368</v>
       </c>
       <c r="BB3" t="n">
         <v>336973.3475828228</v>
@@ -10391,19 +10391,19 @@
         <v>344.8092213939903</v>
       </c>
       <c r="BK3" t="n">
-        <v>193456.8974367824</v>
+        <v>193456.897436782</v>
       </c>
       <c r="BL3" t="n">
-        <v>5.169110087309132e-06</v>
+        <v>5.169110087309142e-06</v>
       </c>
       <c r="BM3" t="n">
-        <v>137934.6617458624</v>
+        <v>137934.6617458621</v>
       </c>
       <c r="BN3" t="n">
-        <v>7.249809346996836e-06</v>
+        <v>7.249809346996849e-06</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.003395798695746386</v>
+        <v>0.003395798695746385</v>
       </c>
       <c r="BP3" t="n">
         <v>1.83299517401163e-05</v>
@@ -10412,13 +10412,13 @@
         <v>0.02606863419705882</v>
       </c>
       <c r="BR3" t="n">
-        <v>137999.9999950253</v>
+        <v>137999.9999950251</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.627145819753683</v>
+        <v>1.62714581975368</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.627145819753683</v>
+        <v>1.62714581975368</v>
       </c>
       <c r="BU3" t="n">
         <v>336973.3475828228</v>
@@ -10459,10 +10459,10 @@
         <v>295.5999999999884</v>
       </c>
       <c r="CG3" t="n">
-        <v>137999.9999950253</v>
+        <v>137999.9999950251</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.627145819753683</v>
+        <v>1.62714581975368</v>
       </c>
       <c r="CI3" t="n">
         <v>336973.3475828228</v>
@@ -10492,19 +10492,19 @@
         <v>344.8092213939903</v>
       </c>
       <c r="CR3" t="n">
-        <v>193456.8974367824</v>
+        <v>193456.897436782</v>
       </c>
       <c r="CS3" t="n">
-        <v>5.169110087309132e-06</v>
+        <v>5.169110087309142e-06</v>
       </c>
       <c r="CT3" t="n">
-        <v>137934.6617458624</v>
+        <v>137934.6617458621</v>
       </c>
       <c r="CU3" t="n">
-        <v>7.249809346996836e-06</v>
+        <v>7.249809346996849e-06</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.003395798695746386</v>
+        <v>0.003395798695746385</v>
       </c>
       <c r="CW3" t="n">
         <v>1.83299517401163e-05</v>
@@ -10513,13 +10513,13 @@
         <v>0.02606863419705882</v>
       </c>
       <c r="CY3" t="n">
-        <v>137999.9999950253</v>
+        <v>137999.9999950251</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.627145819753683</v>
+        <v>1.62714581975368</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.627145819753683</v>
+        <v>1.62714581975368</v>
       </c>
       <c r="DB3" t="n">
         <v>336973.3475828228</v>
@@ -10557,16 +10557,16 @@
         <v>1</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.2384587306818128</v>
+        <v>0.2384587305813762</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.2384587306818128</v>
+        <v>0.2384587305813762</v>
       </c>
       <c r="DO3" t="n">
-        <v>186219.5323931357</v>
+        <v>186219.532318326</v>
       </c>
       <c r="DP3" t="n">
-        <v>2.776369935789646</v>
+        <v>2.77636993469358</v>
       </c>
       <c r="DQ3" t="n">
         <v>421784.4310885895</v>
@@ -10575,121 +10575,121 @@
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>309.3780738841792</v>
+        <v>309.3780697008509</v>
       </c>
       <c r="DT3" t="n">
-        <v>126.4136401181477</v>
+        <v>126.413638408816</v>
       </c>
       <c r="DU3" t="n">
-        <v>282.3727752322523</v>
+        <v>282.3727714140825</v>
       </c>
       <c r="DV3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW3" t="n">
-        <v>309.3780738841792</v>
+        <v>309.3780697008509</v>
       </c>
       <c r="DX3" t="n">
-        <v>126.4136401181477</v>
+        <v>126.413638408816</v>
       </c>
       <c r="DY3" t="n">
-        <v>282.3727752322523</v>
+        <v>282.3727714140825</v>
       </c>
       <c r="DZ3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA3" t="n">
-        <v>247.8365058488081</v>
+        <v>247.8365071415552</v>
       </c>
       <c r="EB3" t="n">
-        <v>72726.23876956994</v>
+        <v>72726.24018049898</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.023014679763134</v>
+        <v>1.0230146942702</v>
       </c>
       <c r="ED3" t="n">
-        <v>302836.9124195202</v>
+        <v>302836.9133427711</v>
       </c>
       <c r="EE3" t="n">
-        <v>373927.0347884472</v>
+        <v>373927.0360827778</v>
       </c>
       <c r="EF3" t="n">
-        <v>3790.093061415155</v>
+        <v>3790.093061072764</v>
       </c>
       <c r="EG3" t="n">
-        <v>-565396.3863944968</v>
+        <v>-565396.3899149412</v>
       </c>
       <c r="EH3" t="n">
-        <v>716.2529430753681</v>
+        <v>716.2529431034609</v>
       </c>
       <c r="EI3" t="n">
-        <v>1004.831581228354</v>
+        <v>1004.831581267072</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.402900457084223</v>
+        <v>1.402900457083256</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.9992812859038624</v>
+        <v>0.999281285907579</v>
       </c>
       <c r="EL3" t="n">
-        <v>315.6911161300484</v>
+        <v>315.6911169544672</v>
       </c>
       <c r="EM3" t="n">
-        <v>101954.5440600386</v>
+        <v>101954.5460383287</v>
       </c>
       <c r="EN3" t="n">
-        <v>9.80829259960325e-06</v>
+        <v>9.808292409286597e-06</v>
       </c>
       <c r="EO3" t="n">
-        <v>72674.11137062433</v>
+        <v>72674.1127808173</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.37600581711992e-05</v>
+        <v>1.376005790419439e-05</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.004048559430239343</v>
+        <v>0.004048559409180874</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.592113121449972e-05</v>
+        <v>1.592113128206057e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.0223828838075395</v>
+        <v>0.02238288391011931</v>
       </c>
       <c r="ET3" t="n">
-        <v>72726.23876956994</v>
+        <v>72726.24018049898</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.023014679763134</v>
+        <v>1.0230146942702</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.023014679763134</v>
+        <v>1.0230146942702</v>
       </c>
       <c r="EW3" t="n">
-        <v>302836.9124195202</v>
+        <v>302836.9133427711</v>
       </c>
       <c r="EX3" t="n">
-        <v>373927.0347884472</v>
+        <v>373927.0360827778</v>
       </c>
       <c r="EY3" t="n">
-        <v>3790.093061415155</v>
+        <v>3790.093061072764</v>
       </c>
       <c r="EZ3" t="n">
-        <v>716.2529430753681</v>
+        <v>716.2529431034609</v>
       </c>
       <c r="FA3" t="n">
-        <v>1004.831581228354</v>
+        <v>1004.831581267072</v>
       </c>
       <c r="FB3" t="n">
-        <v>315.6911161300484</v>
+        <v>315.6911169544672</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.9992812859038624</v>
+        <v>0.999281285907579</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.592113121449972e-05</v>
+        <v>1.592113128206057e-05</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.0223828838075395</v>
+        <v>0.02238288391011931</v>
       </c>
       <c r="FF3" t="inlineStr">
         <is>
@@ -10700,97 +10700,97 @@
         <v>1</v>
       </c>
       <c r="FH3" t="n">
-        <v>295.5920968649427</v>
+        <v>295.5920968653149</v>
       </c>
       <c r="FI3" t="n">
-        <v>134591.4165145675</v>
+        <v>134591.4166751826</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.586979526737985</v>
+        <v>1.586979528630682</v>
       </c>
       <c r="FK3" t="n">
-        <v>336974.6309325288</v>
+        <v>336974.6309324681</v>
       </c>
       <c r="FL3" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.4310886894</v>
       </c>
       <c r="FM3" t="n">
-        <v>3790.093061424804</v>
+        <v>3790.093061082411</v>
       </c>
       <c r="FN3" t="n">
-        <v>-698537.1242511381</v>
+        <v>-698537.1241513407</v>
       </c>
       <c r="FO3" t="n">
-        <v>717.85435806071</v>
+        <v>717.8543580611281</v>
       </c>
       <c r="FP3" t="n">
-        <v>1006.765618720008</v>
+        <v>1006.765618722645</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.402465008974515</v>
+        <v>1.402465008977371</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.9995326648235556</v>
+        <v>0.9995326648230087</v>
       </c>
       <c r="FS3" t="n">
-        <v>344.8011163635123</v>
+        <v>344.801116363894</v>
       </c>
       <c r="FT3" t="n">
-        <v>188672.5202035657</v>
+        <v>188672.5204290021</v>
       </c>
       <c r="FU3" t="n">
-        <v>5.300188914215293e-06</v>
+        <v>5.300188907882334e-06</v>
       </c>
       <c r="FV3" t="n">
-        <v>134529.2174822411</v>
+        <v>134529.2176427101</v>
       </c>
       <c r="FW3" t="n">
-        <v>7.433329493141574e-06</v>
+        <v>7.433329484274961e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.003395573843596823</v>
+        <v>0.003395573843607422</v>
       </c>
       <c r="FY3" t="n">
-        <v>1.832907665246464e-05</v>
+        <v>1.832907665250586e-05</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.02606695184417739</v>
+        <v>0.02606695184425663</v>
       </c>
       <c r="GA3" t="n">
-        <v>134591.4165145675</v>
+        <v>134591.4166751826</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.586979526737985</v>
+        <v>1.586979528630682</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.586979526737985</v>
+        <v>1.586979528630682</v>
       </c>
       <c r="GD3" t="n">
-        <v>336974.6309325288</v>
+        <v>336974.6309324681</v>
       </c>
       <c r="GE3" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.4310886894</v>
       </c>
       <c r="GF3" t="n">
-        <v>3790.093061424804</v>
+        <v>3790.093061082411</v>
       </c>
       <c r="GG3" t="n">
-        <v>717.85435806071</v>
+        <v>717.8543580611281</v>
       </c>
       <c r="GH3" t="n">
-        <v>1006.765618720008</v>
+        <v>1006.765618722645</v>
       </c>
       <c r="GI3" t="n">
-        <v>344.8011163635123</v>
+        <v>344.801116363894</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.9995326648235556</v>
+        <v>0.9995326648230087</v>
       </c>
       <c r="GK3" t="n">
-        <v>1.832907665246464e-05</v>
+        <v>1.832907665250586e-05</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.02606695184417739</v>
+        <v>0.02606695184425663</v>
       </c>
       <c r="GM3" t="inlineStr">
         <is>
@@ -10801,97 +10801,97 @@
         <v>1</v>
       </c>
       <c r="GO3" t="n">
-        <v>295.5920968649427</v>
+        <v>295.5920968653149</v>
       </c>
       <c r="GP3" t="n">
-        <v>134591.4165145675</v>
+        <v>134591.4166751826</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.586979526737985</v>
+        <v>1.586979528630682</v>
       </c>
       <c r="GR3" t="n">
-        <v>336974.6309325288</v>
+        <v>336974.6309324681</v>
       </c>
       <c r="GS3" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.4310886894</v>
       </c>
       <c r="GT3" t="n">
-        <v>3790.093061424804</v>
+        <v>3790.093061082411</v>
       </c>
       <c r="GU3" t="n">
-        <v>-698537.1242511381</v>
+        <v>-698537.1241513407</v>
       </c>
       <c r="GV3" t="n">
-        <v>717.85435806071</v>
+        <v>717.8543580611281</v>
       </c>
       <c r="GW3" t="n">
-        <v>1006.765618720008</v>
+        <v>1006.765618722645</v>
       </c>
       <c r="GX3" t="n">
-        <v>1.402465008974515</v>
+        <v>1.402465008977371</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.9995326648235556</v>
+        <v>0.9995326648230087</v>
       </c>
       <c r="GZ3" t="n">
-        <v>344.8011163635123</v>
+        <v>344.801116363894</v>
       </c>
       <c r="HA3" t="n">
-        <v>188672.5202035657</v>
+        <v>188672.5204290021</v>
       </c>
       <c r="HB3" t="n">
-        <v>5.300188914215293e-06</v>
+        <v>5.300188907882334e-06</v>
       </c>
       <c r="HC3" t="n">
-        <v>134529.2174822411</v>
+        <v>134529.2176427101</v>
       </c>
       <c r="HD3" t="n">
-        <v>7.433329493141574e-06</v>
+        <v>7.433329484274961e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>0.003395573843596823</v>
+        <v>0.003395573843607422</v>
       </c>
       <c r="HF3" t="n">
-        <v>1.832907665246464e-05</v>
+        <v>1.832907665250586e-05</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.02606695184417739</v>
+        <v>0.02606695184425663</v>
       </c>
       <c r="HH3" t="n">
-        <v>134591.4165145675</v>
+        <v>134591.4166751826</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.586979526737985</v>
+        <v>1.586979528630682</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.586979526737985</v>
+        <v>1.586979528630682</v>
       </c>
       <c r="HK3" t="n">
-        <v>336974.6309325288</v>
+        <v>336974.6309324681</v>
       </c>
       <c r="HL3" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.4310886894</v>
       </c>
       <c r="HM3" t="n">
-        <v>3790.093061424804</v>
+        <v>3790.093061082411</v>
       </c>
       <c r="HN3" t="n">
-        <v>717.85435806071</v>
+        <v>717.8543580611281</v>
       </c>
       <c r="HO3" t="n">
-        <v>1006.765618720008</v>
+        <v>1006.765618722645</v>
       </c>
       <c r="HP3" t="n">
-        <v>344.8011163635123</v>
+        <v>344.801116363894</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.9995326648235556</v>
+        <v>0.9995326648230087</v>
       </c>
       <c r="HR3" t="n">
-        <v>1.832907665246464e-05</v>
+        <v>1.832907665250586e-05</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.02606695184417739</v>
+        <v>0.02606695184425663</v>
       </c>
       <c r="HT3" t="inlineStr">
         <is>
@@ -10902,37 +10902,37 @@
         <v>1</v>
       </c>
       <c r="HV3" t="n">
-        <v>0.01619337325558773</v>
+        <v>0.01619337324451282</v>
       </c>
       <c r="HW3" t="n">
-        <v>-1.972005756671744e-07</v>
+        <v>-1.972005737820197e-07</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.01379727827868796</v>
+        <v>0.01379727827868001</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.02510093007299904</v>
+        <v>0.02510093007318957</v>
       </c>
       <c r="HZ3" t="n">
         <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.05509138440669907</v>
+        <v>0.05509138439580863</v>
       </c>
       <c r="IB3" t="n">
-        <v>5.579745051942364e-06</v>
+        <v>5.578232640919556e-06</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.9800024710126193</v>
+        <v>0.9800024552020358</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.9800024710126193</v>
+        <v>0.9800024552020359</v>
       </c>
       <c r="IE3" t="n">
-        <v>520038.1624226408</v>
+        <v>520038.1605585621</v>
       </c>
       <c r="IF3" t="n">
-        <v>2.776362989896853</v>
+        <v>2.776362991726384</v>
       </c>
       <c r="IG3" t="n">
         <v>421784.4310885895</v>
@@ -10941,166 +10941,166 @@
         <v>0</v>
       </c>
       <c r="II3" t="n">
-        <v>1493.408096119063</v>
+        <v>1493.408147274749</v>
       </c>
       <c r="IJ3" t="n">
         <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>0.006325925756074226</v>
+        <v>0.006325926037013162</v>
       </c>
       <c r="IL3" t="n">
-        <v>-7.183679463346315e-08</v>
+        <v>-7.183679880561582e-08</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.01007682903920549</v>
+        <v>0.01007682944683023</v>
       </c>
       <c r="IN3" t="n">
         <v>0</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.005506126161528645</v>
+        <v>0.005506126389357958</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.02499269550697353</v>
+        <v>0.02499269681513328</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.002208532511766931</v>
+        <v>0.002208533252222987</v>
       </c>
       <c r="IR3" t="n">
-        <v>0.0118622583563175</v>
+        <v>0.01186225826013152</v>
       </c>
       <c r="IS3" t="n">
-        <v>0.03219276635056136</v>
+        <v>0.03219276706568127</v>
       </c>
       <c r="IT3" t="n">
-        <v>0.04259304819586696</v>
+        <v>0.04259304875625645</v>
       </c>
       <c r="IU3" t="n">
-        <v>0.1138493009214863</v>
+        <v>0.1138493041494255</v>
       </c>
       <c r="IV3" t="n">
-        <v>5.617300374849421e-10</v>
+        <v>-6.564646048978773e-11</v>
       </c>
       <c r="IW3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IX3" t="n">
-        <v>270.8635182208307</v>
+        <v>270.8635188481352</v>
       </c>
       <c r="IY3" t="n">
-        <v>111.9410592516267</v>
+        <v>111.941059319432</v>
       </c>
       <c r="IZ3" t="n">
-        <v>246.650045117754</v>
+        <v>246.6500457758674</v>
       </c>
       <c r="JA3" t="n">
-        <v>65.58928232556161</v>
+        <v>65.5892823700332</v>
       </c>
       <c r="JB3" t="n">
-        <v>138.3766958594837</v>
+        <v>138.3766963012174</v>
       </c>
       <c r="JC3" t="n">
-        <v>111.9410592516267</v>
+        <v>111.941059319432</v>
       </c>
       <c r="JD3" t="n">
-        <v>81.34684511775396</v>
+        <v>81.34684577586739</v>
       </c>
       <c r="JE3" t="n">
-        <v>36.00566279699618</v>
+        <v>36.00566300092994</v>
       </c>
       <c r="JF3" t="n">
-        <v>258.9941357368857</v>
+        <v>258.9941355671571</v>
       </c>
       <c r="JG3" t="n">
-        <v>85224.13220399311</v>
+        <v>85224.13194229788</v>
       </c>
       <c r="JH3" t="n">
-        <v>1.147125803798977</v>
+        <v>1.147125801028525</v>
       </c>
       <c r="JI3" t="n">
-        <v>310807.2851600596</v>
+        <v>310807.2850389492</v>
       </c>
       <c r="JJ3" t="n">
-        <v>385100.9083370061</v>
+        <v>385100.9081671928</v>
       </c>
       <c r="JK3" t="n">
-        <v>3788.704169824598</v>
+        <v>3788.704170049768</v>
       </c>
       <c r="JL3" t="n">
-        <v>-596151.2536894503</v>
+        <v>-596151.2532745302</v>
       </c>
       <c r="JM3" t="n">
-        <v>716.521790241976</v>
+        <v>716.5217902372285</v>
       </c>
       <c r="JN3" t="n">
-        <v>1005.184648012104</v>
+        <v>1005.184648004917</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.402866823732805</v>
+        <v>1.402866823732069</v>
       </c>
       <c r="JP3" t="n">
-        <v>0.9993218376472157</v>
+        <v>0.9993218376470072</v>
       </c>
       <c r="JQ3" t="n">
-        <v>322.7284402174329</v>
+        <v>322.7284401115307</v>
       </c>
       <c r="JR3" t="n">
-        <v>119477.335029938</v>
+        <v>119477.3346629733</v>
       </c>
       <c r="JS3" t="n">
-        <v>8.369788292896097e-06</v>
+        <v>8.369788318603208e-06</v>
       </c>
       <c r="JT3" t="n">
-        <v>85166.55537695868</v>
+        <v>85166.55511542127</v>
       </c>
       <c r="JU3" t="n">
-        <v>1.174169831777116e-05</v>
+        <v>1.174169835382866e-05</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.003874551799836969</v>
+        <v>0.003874551802360571</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.649919170289021e-05</v>
+        <v>1.649919169416226e-05</v>
       </c>
       <c r="JX3" t="n">
-        <v>0.02326215058818073</v>
+        <v>0.02326215057487219</v>
       </c>
       <c r="JY3" t="n">
-        <v>85224.13220399311</v>
+        <v>85224.13194229788</v>
       </c>
       <c r="JZ3" t="n">
-        <v>1.147125803798977</v>
+        <v>1.147125801028525</v>
       </c>
       <c r="KA3" t="n">
-        <v>1.147125803798977</v>
+        <v>1.147125801028525</v>
       </c>
       <c r="KB3" t="n">
-        <v>310807.2851600596</v>
+        <v>310807.2850389492</v>
       </c>
       <c r="KC3" t="n">
-        <v>385100.9083370061</v>
+        <v>385100.9081671928</v>
       </c>
       <c r="KD3" t="n">
-        <v>3788.704169824598</v>
+        <v>3788.704170049768</v>
       </c>
       <c r="KE3" t="n">
-        <v>716.521790241976</v>
+        <v>716.5217902372285</v>
       </c>
       <c r="KF3" t="n">
-        <v>1005.184648012104</v>
+        <v>1005.184648004917</v>
       </c>
       <c r="KG3" t="n">
-        <v>322.7284402174329</v>
+        <v>322.7284401115307</v>
       </c>
       <c r="KH3" t="n">
-        <v>0.9993218376472157</v>
+        <v>0.9993218376470072</v>
       </c>
       <c r="KI3" t="n">
-        <v>1.649919170289021e-05</v>
+        <v>1.649919169416226e-05</v>
       </c>
       <c r="KJ3" t="n">
-        <v>0.02326215058818073</v>
+        <v>0.02326215057487219</v>
       </c>
       <c r="KK3" t="inlineStr">
         <is>
@@ -11111,97 +11111,97 @@
         <v>1</v>
       </c>
       <c r="KM3" t="n">
-        <v>295.5936112672917</v>
+        <v>295.5936112673382</v>
       </c>
       <c r="KN3" t="n">
-        <v>135244.5238494501</v>
+        <v>135244.5237403667</v>
       </c>
       <c r="KO3" t="n">
-        <v>1.594675751360998</v>
+        <v>1.594675750073939</v>
       </c>
       <c r="KP3" t="n">
-        <v>336974.3850750449</v>
+        <v>336974.3850753012</v>
       </c>
       <c r="KQ3" t="n">
-        <v>421784.4310884892</v>
+        <v>421784.4310887906</v>
       </c>
       <c r="KR3" t="n">
-        <v>3788.704169829799</v>
+        <v>3788.704170062233</v>
       </c>
       <c r="KS3" t="n">
-        <v>-698132.3164949475</v>
+        <v>-698132.3165635285</v>
       </c>
       <c r="KT3" t="n">
-        <v>717.8560592370969</v>
+        <v>717.8560592368261</v>
       </c>
       <c r="KU3" t="n">
-        <v>1006.776342141924</v>
+        <v>1006.776342140141</v>
       </c>
       <c r="KV3" t="n">
-        <v>1.402476623533522</v>
+        <v>1.402476623531568</v>
       </c>
       <c r="KW3" t="n">
-        <v>0.999530441515561</v>
+        <v>0.9995304415159362</v>
       </c>
       <c r="KX3" t="n">
-        <v>344.8026690861717</v>
+        <v>344.8026690860866</v>
       </c>
       <c r="KY3" t="n">
-        <v>189589.2150135422</v>
+        <v>189589.2148604316</v>
       </c>
       <c r="KZ3" t="n">
-        <v>5.274561635420932e-06</v>
+        <v>5.274561639680622e-06</v>
       </c>
       <c r="LA3" t="n">
-        <v>135181.7291156516</v>
+        <v>135181.7290066683</v>
       </c>
       <c r="LB3" t="n">
-        <v>7.397449393064599e-06</v>
+        <v>7.39744939902841e-06</v>
       </c>
       <c r="LC3" t="n">
-        <v>0.003395616933206703</v>
+        <v>0.003395616933196027</v>
       </c>
       <c r="LD3" t="n">
-        <v>1.832924431623671e-05</v>
+        <v>1.832924431622321e-05</v>
       </c>
       <c r="LE3" t="n">
-        <v>0.02606727416598321</v>
+        <v>0.0260672741659517</v>
       </c>
       <c r="LF3" t="n">
-        <v>135244.5238494501</v>
+        <v>135244.5237403667</v>
       </c>
       <c r="LG3" t="n">
-        <v>1.594675751360998</v>
+        <v>1.594675750073939</v>
       </c>
       <c r="LH3" t="n">
-        <v>1.594675751360998</v>
+        <v>1.594675750073939</v>
       </c>
       <c r="LI3" t="n">
-        <v>336974.3850750449</v>
+        <v>336974.3850753012</v>
       </c>
       <c r="LJ3" t="n">
-        <v>421784.4310884892</v>
+        <v>421784.4310887906</v>
       </c>
       <c r="LK3" t="n">
-        <v>3788.704169829799</v>
+        <v>3788.704170062233</v>
       </c>
       <c r="LL3" t="n">
-        <v>717.8560592370969</v>
+        <v>717.8560592368261</v>
       </c>
       <c r="LM3" t="n">
-        <v>1006.776342141924</v>
+        <v>1006.776342140141</v>
       </c>
       <c r="LN3" t="n">
-        <v>344.8026690861717</v>
+        <v>344.8026690860866</v>
       </c>
       <c r="LO3" t="n">
-        <v>0.999530441515561</v>
+        <v>0.9995304415159362</v>
       </c>
       <c r="LP3" t="n">
-        <v>1.832924431623671e-05</v>
+        <v>1.832924431622321e-05</v>
       </c>
       <c r="LQ3" t="n">
-        <v>0.02606727416598321</v>
+        <v>0.0260672741659517</v>
       </c>
       <c r="LR3" t="inlineStr">
         <is>
@@ -11212,97 +11212,97 @@
         <v>1</v>
       </c>
       <c r="LT3" t="n">
-        <v>268.5507580862042</v>
+        <v>268.550757977709</v>
       </c>
       <c r="LU3" t="n">
-        <v>96720.84465731564</v>
+        <v>96720.84444274346</v>
       </c>
       <c r="LV3" t="n">
-        <v>1.255488144135857</v>
+        <v>1.255488141857864</v>
       </c>
       <c r="LW3" t="n">
-        <v>317636.5260279158</v>
+        <v>317636.5259505555</v>
       </c>
       <c r="LX3" t="n">
-        <v>394674.9633155001</v>
+        <v>394674.963207013</v>
       </c>
       <c r="LY3" t="n">
-        <v>3788.704169831232</v>
+        <v>3788.704170063666</v>
       </c>
       <c r="LZ3" t="n">
-        <v>-622784.4136570403</v>
+        <v>-622784.4134168916</v>
       </c>
       <c r="MA3" t="n">
-        <v>716.798549737537</v>
+        <v>716.7985497338765</v>
       </c>
       <c r="MB3" t="n">
-        <v>1005.527878504794</v>
+        <v>1005.527878499017</v>
       </c>
       <c r="MC3" t="n">
-        <v>1.402804008006124</v>
+        <v>1.402804008005229</v>
       </c>
       <c r="MD3" t="n">
-        <v>0.9993666486678375</v>
+        <v>0.9993666486677997</v>
       </c>
       <c r="ME3" t="n">
-        <v>328.6361570635429</v>
+        <v>328.6361569970385</v>
       </c>
       <c r="MF3" t="n">
-        <v>135594.8836886155</v>
+        <v>135594.883387709</v>
       </c>
       <c r="MG3" t="n">
-        <v>7.374909530483705e-06</v>
+        <v>7.374909546849794e-06</v>
       </c>
       <c r="MH3" t="n">
-        <v>96659.89184144353</v>
+        <v>96659.89162700174</v>
       </c>
       <c r="MI3" t="n">
-        <v>1.034555264804511e-05</v>
+        <v>1.034555267099691e-05</v>
       </c>
       <c r="MJ3" t="n">
-        <v>0.003736933889881721</v>
+        <v>0.003736933891377919</v>
       </c>
       <c r="MK3" t="n">
-        <v>1.698652618970094e-05</v>
+        <v>1.698652618419581e-05</v>
       </c>
       <c r="ML3" t="n">
-        <v>0.02400591489753498</v>
+        <v>0.02400591488911032</v>
       </c>
       <c r="MM3" t="n">
-        <v>96720.84465731564</v>
+        <v>96720.84444274346</v>
       </c>
       <c r="MN3" t="n">
-        <v>1.255488144135857</v>
+        <v>1.255488141857864</v>
       </c>
       <c r="MO3" t="n">
-        <v>1.255488144135857</v>
+        <v>1.255488141857864</v>
       </c>
       <c r="MP3" t="n">
-        <v>317636.5260279158</v>
+        <v>317636.5259505555</v>
       </c>
       <c r="MQ3" t="n">
-        <v>394674.9633155001</v>
+        <v>394674.963207013</v>
       </c>
       <c r="MR3" t="n">
-        <v>3788.704169831232</v>
+        <v>3788.704170063666</v>
       </c>
       <c r="MS3" t="n">
-        <v>716.798549737537</v>
+        <v>716.7985497338765</v>
       </c>
       <c r="MT3" t="n">
-        <v>1005.527878504794</v>
+        <v>1005.527878499017</v>
       </c>
       <c r="MU3" t="n">
-        <v>328.6361570635429</v>
+        <v>328.6361569970385</v>
       </c>
       <c r="MV3" t="n">
-        <v>0.9993666486678375</v>
+        <v>0.9993666486677997</v>
       </c>
       <c r="MW3" t="n">
-        <v>1.698652618970094e-05</v>
+        <v>1.698652618419581e-05</v>
       </c>
       <c r="MX3" t="n">
-        <v>0.02400591489753498</v>
+        <v>0.02400591488911032</v>
       </c>
       <c r="MY3" t="inlineStr">
         <is>
@@ -11313,139 +11313,139 @@
         <v>1</v>
       </c>
       <c r="NA3" t="n">
-        <v>0.8392923723683631</v>
+        <v>0.8392923745875273</v>
       </c>
       <c r="NB3" t="n">
-        <v>0.4287713092972367</v>
+        <v>0.428771310806684</v>
       </c>
       <c r="NC3" t="n">
-        <v>250718.1347598706</v>
+        <v>250718.1350873396</v>
       </c>
       <c r="ND3" t="n">
-        <v>2.756772353585926</v>
+        <v>2.756772348597821</v>
       </c>
       <c r="NE3" t="n">
-        <v>381012.3893503801</v>
+        <v>381012.3892417928</v>
       </c>
       <c r="NF3" t="n">
         <v>165.3032</v>
       </c>
       <c r="NG3" t="n">
-        <v>165.7023928519068</v>
+        <v>165.7024308499789</v>
       </c>
       <c r="NH3" t="n">
-        <v>139.9264785642098</v>
+        <v>139.9264994767842</v>
       </c>
       <c r="NI3" t="n">
-        <v>-88.75732980135993</v>
+        <v>-88.75736777172671</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-32.38752982532788</v>
+        <v>-32.38753703895569</v>
       </c>
       <c r="NK3" t="n">
-        <v>290.0451209834911</v>
+        <v>290.0451643318996</v>
       </c>
       <c r="NL3" t="n">
-        <v>139.9264785642098</v>
+        <v>139.9264994767842</v>
       </c>
       <c r="NM3" t="n">
-        <v>-254.0605298013599</v>
+        <v>-254.0605677717267</v>
       </c>
       <c r="NN3" t="n">
         <v>-61.15576777799676</v>
       </c>
       <c r="NO3" t="n">
-        <v>226.5393446334706</v>
+        <v>226.5393319644832</v>
       </c>
       <c r="NP3" t="n">
-        <v>50833.93239273531</v>
+        <v>50833.92185577052</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.7823073170596896</v>
+        <v>0.7823071986640221</v>
       </c>
       <c r="NR3" t="n">
-        <v>287632.3847747668</v>
+        <v>287632.3757280683</v>
       </c>
       <c r="NS3" t="n">
-        <v>352611.8772123361</v>
+        <v>352611.8645306534</v>
       </c>
       <c r="NT3" t="n">
-        <v>3802.894318973582</v>
+        <v>3802.89432244938</v>
       </c>
       <c r="NU3" t="n">
-        <v>-508893.3095182881</v>
+        <v>-508893.2748085551</v>
       </c>
       <c r="NV3" t="n">
-        <v>715.8733482035749</v>
+        <v>715.873348030673</v>
       </c>
       <c r="NW3" t="n">
-        <v>1004.24844334458</v>
+        <v>1004.248443075398</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.402829768512348</v>
+        <v>1.402829768475148</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.9992552641741421</v>
+        <v>0.999255264157674</v>
       </c>
       <c r="NZ3" t="n">
-        <v>301.8068389609313</v>
+        <v>301.8068305127667</v>
       </c>
       <c r="OA3" t="n">
-        <v>71258.31451220902</v>
+        <v>71258.29973854036</v>
       </c>
       <c r="OB3" t="n">
-        <v>1.403345008712864e-05</v>
+        <v>1.403345299662189e-05</v>
       </c>
       <c r="OC3" t="n">
-        <v>50796.12374335055</v>
+        <v>50796.11321336367</v>
       </c>
       <c r="OD3" t="n">
-        <v>1.968654153715626e-05</v>
+        <v>1.968654561815796e-05</v>
       </c>
       <c r="OE3" t="n">
-        <v>0.004427723224107448</v>
+        <v>0.004427723471058258</v>
       </c>
       <c r="OF3" t="n">
-        <v>1.478892516225454e-05</v>
+        <v>1.478892447727977e-05</v>
       </c>
       <c r="OG3" t="n">
-        <v>0.02066986463461182</v>
+        <v>0.02066986360219188</v>
       </c>
       <c r="OH3" t="n">
-        <v>50833.93239273531</v>
+        <v>50833.92185577052</v>
       </c>
       <c r="OI3" t="n">
-        <v>0.7823073170596896</v>
+        <v>0.7823071986640221</v>
       </c>
       <c r="OJ3" t="n">
-        <v>0.7823073170596896</v>
+        <v>0.7823071986640221</v>
       </c>
       <c r="OK3" t="n">
-        <v>287632.3847747668</v>
+        <v>287632.3757280683</v>
       </c>
       <c r="OL3" t="n">
-        <v>352611.8772123361</v>
+        <v>352611.8645306534</v>
       </c>
       <c r="OM3" t="n">
-        <v>3802.894318973582</v>
+        <v>3802.89432244938</v>
       </c>
       <c r="ON3" t="n">
-        <v>715.8733482035749</v>
+        <v>715.873348030673</v>
       </c>
       <c r="OO3" t="n">
-        <v>1004.24844334458</v>
+        <v>1004.248443075398</v>
       </c>
       <c r="OP3" t="n">
-        <v>301.8068389609313</v>
+        <v>301.8068305127667</v>
       </c>
       <c r="OQ3" t="n">
-        <v>0.9992552641741421</v>
+        <v>0.999255264157674</v>
       </c>
       <c r="OR3" t="n">
-        <v>1.478892516225454e-05</v>
+        <v>1.478892447727977e-05</v>
       </c>
       <c r="OS3" t="n">
-        <v>0.02066986463461182</v>
+        <v>0.02066986360219188</v>
       </c>
       <c r="OT3" t="inlineStr">
         <is>
@@ -11456,97 +11456,97 @@
         <v>1</v>
       </c>
       <c r="OV3" t="n">
-        <v>240.2504759070811</v>
+        <v>240.2504695278069</v>
       </c>
       <c r="OW3" t="n">
-        <v>62407.80623112416</v>
+        <v>62407.79969239967</v>
       </c>
       <c r="OX3" t="n">
-        <v>0.9055812790300677</v>
+        <v>0.9055812082029795</v>
       </c>
       <c r="OY3" t="n">
-        <v>297425.8804820678</v>
+        <v>297425.8759271956</v>
       </c>
       <c r="OZ3" t="n">
-        <v>366340.5187108601</v>
+        <v>366340.5123254494</v>
       </c>
       <c r="PA3" t="n">
-        <v>3802.894318969146</v>
+        <v>3802.894322444943</v>
       </c>
       <c r="PB3" t="n">
-        <v>-547306.6512458124</v>
+        <v>-547306.6342065792</v>
       </c>
       <c r="PC3" t="n">
-        <v>716.0896067493967</v>
+        <v>716.089606629259</v>
       </c>
       <c r="PD3" t="n">
-        <v>1004.552389035128</v>
+        <v>1004.552388856707</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.402830566966575</v>
+        <v>1.402830566952766</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.9992887403340058</v>
+        <v>0.9992887403242051</v>
       </c>
       <c r="PG3" t="n">
-        <v>310.8165714879577</v>
+        <v>310.8165673568404</v>
       </c>
       <c r="PH3" t="n">
-        <v>87485.43729496059</v>
+        <v>87485.42812700402</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.143047381278396e-05</v>
+        <v>1.143047501063016e-05</v>
       </c>
       <c r="PJ3" t="n">
-        <v>62363.50943231553</v>
+        <v>62363.50289760237</v>
       </c>
       <c r="PK3" t="n">
-        <v>1.603501805948432e-05</v>
+        <v>1.603501973970173e-05</v>
       </c>
       <c r="PL3" t="n">
-        <v>0.004175526173507629</v>
+        <v>0.00417552628399843</v>
       </c>
       <c r="PM3" t="n">
-        <v>1.552192951007682e-05</v>
+        <v>1.552192917266422e-05</v>
       </c>
       <c r="PN3" t="n">
-        <v>0.02177716968735918</v>
+        <v>0.02177716917632894</v>
       </c>
       <c r="PO3" t="n">
-        <v>62407.80623112416</v>
+        <v>62407.79969239967</v>
       </c>
       <c r="PP3" t="n">
-        <v>0.9055812790300677</v>
+        <v>0.9055812082029795</v>
       </c>
       <c r="PQ3" t="n">
-        <v>0.9055812790300677</v>
+        <v>0.9055812082029795</v>
       </c>
       <c r="PR3" t="n">
-        <v>297425.8804820678</v>
+        <v>297425.8759271956</v>
       </c>
       <c r="PS3" t="n">
-        <v>366340.5187108601</v>
+        <v>366340.5123254494</v>
       </c>
       <c r="PT3" t="n">
-        <v>3802.894318969146</v>
+        <v>3802.894322444943</v>
       </c>
       <c r="PU3" t="n">
-        <v>716.0896067493967</v>
+        <v>716.089606629259</v>
       </c>
       <c r="PV3" t="n">
-        <v>1004.552389035128</v>
+        <v>1004.552388856707</v>
       </c>
       <c r="PW3" t="n">
-        <v>310.8165714879577</v>
+        <v>310.8165673568404</v>
       </c>
       <c r="PX3" t="n">
-        <v>0.9992887403340058</v>
+        <v>0.9992887403242051</v>
       </c>
       <c r="PY3" t="n">
-        <v>1.552192951007682e-05</v>
+        <v>1.552192917266422e-05</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.02177716968735918</v>
+        <v>0.02177716917632894</v>
       </c>
       <c r="QA3" t="inlineStr">
         <is>
@@ -11557,97 +11557,97 @@
         <v>1</v>
       </c>
       <c r="QC3" t="n">
-        <v>268.5376063086348</v>
+        <v>268.5376061972133</v>
       </c>
       <c r="QD3" t="n">
-        <v>92052.93558221484</v>
+        <v>92052.93433725055</v>
       </c>
       <c r="QE3" t="n">
-        <v>1.194918539633327</v>
+        <v>1.194918523960492</v>
       </c>
       <c r="QF3" t="n">
-        <v>317637.9666256949</v>
+        <v>317637.9665486417</v>
       </c>
       <c r="QG3" t="n">
-        <v>394674.9633154126</v>
+        <v>394674.9632069129</v>
       </c>
       <c r="QH3" t="n">
-        <v>3802.894318969924</v>
+        <v>3802.894322445722</v>
       </c>
       <c r="QI3" t="n">
-        <v>-626545.174145477</v>
+        <v>-626545.174763635</v>
       </c>
       <c r="QJ3" t="n">
-        <v>716.783152655409</v>
+        <v>716.7831526483333</v>
       </c>
       <c r="QK3" t="n">
-        <v>1005.431457504299</v>
+        <v>1005.431457477143</v>
       </c>
       <c r="QL3" t="n">
-        <v>1.402699622304957</v>
+        <v>1.402699622280918</v>
       </c>
       <c r="QM3" t="n">
-        <v>0.9993969044010398</v>
+        <v>0.9993969044077538</v>
       </c>
       <c r="QN3" t="n">
-        <v>328.6257826542131</v>
+        <v>328.6257825854158</v>
       </c>
       <c r="QO3" t="n">
-        <v>129045.1142004252</v>
+        <v>129045.1124538082</v>
       </c>
       <c r="QP3" t="n">
-        <v>7.749227905264659e-06</v>
+        <v>7.749228010149945e-06</v>
       </c>
       <c r="QQ3" t="n">
-        <v>91997.68228950865</v>
+        <v>91997.68104590275</v>
       </c>
       <c r="QR3" t="n">
-        <v>1.086983905586977e-05</v>
+        <v>1.086983920280604e-05</v>
       </c>
       <c r="QS3" t="n">
-        <v>0.003736479944931868</v>
+        <v>0.003736479946327278</v>
       </c>
       <c r="QT3" t="n">
-        <v>1.69851528905452e-05</v>
+        <v>1.698515288473556e-05</v>
       </c>
       <c r="QU3" t="n">
-        <v>0.02400324667693867</v>
+        <v>0.02400324666792254</v>
       </c>
       <c r="QV3" t="n">
-        <v>92052.93558221484</v>
+        <v>92052.93433725055</v>
       </c>
       <c r="QW3" t="n">
-        <v>1.194918539633327</v>
+        <v>1.194918523960492</v>
       </c>
       <c r="QX3" t="n">
-        <v>1.194918539633327</v>
+        <v>1.194918523960492</v>
       </c>
       <c r="QY3" t="n">
-        <v>317637.9666256949</v>
+        <v>317637.9665486417</v>
       </c>
       <c r="QZ3" t="n">
-        <v>394674.9633154126</v>
+        <v>394674.9632069129</v>
       </c>
       <c r="RA3" t="n">
-        <v>3802.894318969924</v>
+        <v>3802.894322445722</v>
       </c>
       <c r="RB3" t="n">
-        <v>716.783152655409</v>
+        <v>716.7831526483333</v>
       </c>
       <c r="RC3" t="n">
-        <v>1005.431457504299</v>
+        <v>1005.431457477143</v>
       </c>
       <c r="RD3" t="n">
-        <v>328.6257826542131</v>
+        <v>328.6257825854158</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.9993969044010398</v>
+        <v>0.9993969044077538</v>
       </c>
       <c r="RF3" t="n">
-        <v>1.69851528905452e-05</v>
+        <v>1.698515288473556e-05</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.02400324667693867</v>
+        <v>0.02400324666792254</v>
       </c>
       <c r="RH3" t="inlineStr">
         <is>
@@ -11658,64 +11658,64 @@
         <v>1</v>
       </c>
       <c r="RJ3" t="n">
-        <v>0.02439632570961062</v>
+        <v>0.02439632527397605</v>
       </c>
       <c r="RK3" t="n">
-        <v>0.00228245877816372</v>
+        <v>0.002282459178769449</v>
       </c>
       <c r="RL3" t="n">
-        <v>0.01190068559270953</v>
+        <v>0.01190068558344136</v>
       </c>
       <c r="RM3" t="n">
-        <v>0.0319546582527683</v>
+        <v>0.03195465833466002</v>
       </c>
       <c r="RN3" t="n">
-        <v>0.04269609655078661</v>
+        <v>0.04269609668470384</v>
       </c>
       <c r="RO3" t="n">
-        <v>0.1132302248840388</v>
+        <v>0.1132302250555507</v>
       </c>
       <c r="RP3" t="n">
-        <v>1.63049663534226e-05</v>
+        <v>1.630432307339613e-05</v>
       </c>
       <c r="RQ3" t="n">
-        <v>0.549034585903989</v>
+        <v>0.5490347271745047</v>
       </c>
       <c r="RR3" t="n">
-        <v>0.9610289878853183</v>
+        <v>0.9610291584160497</v>
       </c>
       <c r="RS3" t="n">
-        <v>399834.9529356853</v>
+        <v>399834.9706999927</v>
       </c>
       <c r="RT3" t="n">
-        <v>2.756753158440006</v>
+        <v>2.756753153236251</v>
       </c>
       <c r="RU3" t="n">
-        <v>381012.3893503801</v>
+        <v>381012.3892417928</v>
       </c>
       <c r="RV3" t="n">
         <v>0</v>
       </c>
       <c r="RW3" t="n">
-        <v>2821.383963647415</v>
+        <v>2821.38397155609</v>
       </c>
       <c r="RX3" t="n">
-        <v>6.541047849952079</v>
+        <v>6.541049047782259</v>
       </c>
       <c r="RY3" t="n">
-        <v>0.009086260706373051</v>
+        <v>0.00908626101862379</v>
       </c>
       <c r="RZ3" t="n">
-        <v>0.0008029266861117885</v>
+        <v>0.0008029269408756734</v>
       </c>
       <c r="SA3" t="n">
-        <v>0.01170389435741082</v>
+        <v>0.01170389440700202</v>
       </c>
       <c r="SB3" t="n">
-        <v>0.01548498600636231</v>
+        <v>0.01548498593172934</v>
       </c>
       <c r="SC3" t="n">
-        <v>0.004312602934796648</v>
+        <v>0.004312602822301966</v>
       </c>
     </row>
   </sheetData>
@@ -11754,7 +11754,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4037487222466076</v>
+        <v>0.4037487355686196</v>
       </c>
     </row>
     <row r="3">
@@ -11762,7 +11762,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4233609095646267</v>
+        <v>0.4233608829946967</v>
       </c>
     </row>
   </sheetData>
@@ -11776,7 +11776,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS3"/>
+  <dimension ref="A1:CK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12010,6 +12010,226 @@
           <t>gauging_angle_1</t>
         </is>
       </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>cascade_type_2</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_in_2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_out_2</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_in_2</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_out_2</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>chord_2</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>stagger_angle_2</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>opening_2</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_angle_2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_wedge_angle_2</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_2</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_2</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_2</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>throat_location_fraction_2</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>axial_chord_2</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_in_2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_out_2</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>radius_mean_throat_2</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>radius_hub_throat_2</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>radius_tip_throat_2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_in_2</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_out_2</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>radius_shroud_throat_2</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_in_2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_out_2</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>hub_tip_ratio_throat_2</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>A_in_2</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>A_out_2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>A_throat_2</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>height_2</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>height_in_2</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>height_throat_2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>height_out_2</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>flaring_angle_2</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>aspect_ratio_2</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>pitch_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>solidity_2</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>maximum_thickness_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_edge_thickness_opening_ratio_2</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>tip_clearance_height_ratio_2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>leading_edge_diameter_chord_ratio_2</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>gauging_angle_2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -12017,223 +12237,271 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS2" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I2" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>-61.15576777799676</v>
       </c>
     </row>
     <row r="3">
@@ -12242,223 +12510,271 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['stator' 'rotor']</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.084785]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118415]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[0.018294 0.01524 ]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[0.02616 0.02606]</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[ 43.03 -31.05]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>[0.00747503 0.00735223]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>[ 0.  29.6]</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[50. 50.]</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[0.00254 0.00162]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[0.0005 0.0005]</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[0.00505 0.00447]</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>[0.     0.0003]</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>[1. 1.]</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>[0.01912287 0.02232606]</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>[0.1016 0.1016]</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>[0.084785 0.081875]</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121325]</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.118715]</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>[0.118415 0.121625]</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.71599882]</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>[0.71599882 0.6748403 ]</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02146844]</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>[0.02146844 0.02518376]</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>[0.00877213 0.0121494 ]</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03654]</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03363]</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>[0.03363 0.03945]</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>[0.         0.12961029]</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>[1.28555046 1.40214889]</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>[0.69931193 0.5848043 ]</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>[1.42997704 1.70997375]</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>[0.19304281 0.17152724]</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>[0.06688934 0.06800654]</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>[0.         0.00821018]</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>[0.0970948  0.06216424]</t>
-        </is>
-      </c>
-      <c r="AS3" t="inlineStr">
-        <is>
-          <t>[ 65.88272377 -61.15576778]</t>
-        </is>
+          <t>stator</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.018294</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.02616</v>
+      </c>
+      <c r="I3" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.00747503242</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>50</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.00254</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.00505</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.01912286864605749</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.008772125764408025</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1.285550458715597</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.6993119266055047</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1.429977041653001</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.1930428134556575</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.06688934199966989</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0.0970948012232416</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>65.88272377225761</v>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>rotor</t>
+        </is>
+      </c>
+      <c r="AU3" t="n">
+        <v>0.084785</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0.118415</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.01524</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0.02606</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>-31.05</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0.00735223377</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0.00162</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0.00447</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0.02232605854162319</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0.1016</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0.081875</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0.121325</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0.118715</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0.121625</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0.71599881771735</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0.6748403049660004</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0.02146843782305367</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0.02518376069341265</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0.01214940261323537</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0.03654</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0.03363000000000001</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0.03945</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>7.426122439075676</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>1.402148887183423</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0.5848042977743668</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>1.70997375328084</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0.171527244819647</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0.06800654272449773</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0.008210180623973726</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0.06216423637759017</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>-61.15576777799676</v>
       </c>
     </row>
   </sheetData>
@@ -12546,13 +12862,13 @@
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H2" t="n">
-        <v>7.685565486763307e-08</v>
+        <v>1.459997342974859e-08</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12577,13 +12893,13 @@
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" t="n">
-        <v>1.090591701806599e-07</v>
+        <v>4.503508811642591e-08</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>

--- a/tests/regression_data_linux/performance_analysis_ainley_mathieson_linux.xlsx
+++ b/tests/regression_data_linux/performance_analysis_ainley_mathieson_linux.xlsx
@@ -689,40 +689,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.014631295172351</v>
+        <v>2.014627414647335</v>
       </c>
       <c r="C2" t="n">
-        <v>2.300000000657701</v>
+        <v>2.299999998987662</v>
       </c>
       <c r="D2" t="n">
-        <v>2.755593461360194</v>
+        <v>2.755673360165645</v>
       </c>
       <c r="E2" t="n">
-        <v>92.53908655685825</v>
+        <v>92.54976851574183</v>
       </c>
       <c r="F2" t="n">
-        <v>79.02962778021114</v>
+        <v>79.03887636069322</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1459865153126032</v>
+        <v>0.1459851534123561</v>
       </c>
       <c r="H2" t="n">
-        <v>-78.17561429552374</v>
+        <v>-78.18486151410558</v>
       </c>
       <c r="I2" t="n">
-        <v>136846.6802531274</v>
+        <v>136866.6633277157</v>
       </c>
       <c r="J2" t="n">
-        <v>84.10982191341571</v>
+        <v>84.12210407358063</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-23.83042424802394</v>
+        <v>-23.8291898969837</v>
       </c>
       <c r="M2" t="n">
-        <v>135.4521681471497</v>
+        <v>135.451536332728</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -737,13 +737,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R2" t="n">
-        <v>372123.0125331912</v>
+        <v>372117.2008187841</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7179955376496019</v>
+        <v>0.7180059467630555</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -760,40 +760,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.068915669175972</v>
+        <v>2.068910228785123</v>
       </c>
       <c r="C3" t="n">
-        <v>2.39999999991596</v>
+        <v>2.399999999914323</v>
       </c>
       <c r="D3" t="n">
-        <v>2.758758074241877</v>
+        <v>2.758867495308171</v>
       </c>
       <c r="E3" t="n">
-        <v>92.50770102292091</v>
+        <v>92.52284227212932</v>
       </c>
       <c r="F3" t="n">
-        <v>78.1561114252665</v>
+        <v>78.16915727508669</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1551394039518772</v>
+        <v>0.1551366629531917</v>
       </c>
       <c r="H3" t="n">
-        <v>-77.31125082921838</v>
+        <v>-77.32429393803989</v>
       </c>
       <c r="I3" t="n">
-        <v>141581.758081065</v>
+        <v>141611.0074830041</v>
       </c>
       <c r="J3" t="n">
-        <v>87.02013403876153</v>
+        <v>87.03811154456308</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.2846924645093</v>
+        <v>-26.28321546202279</v>
       </c>
       <c r="M3" t="n">
-        <v>142.7385981556723</v>
+        <v>142.7373371993063</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -808,13 +808,13 @@
         <v>421784.4310885895</v>
       </c>
       <c r="R3" t="n">
-        <v>370463.599659769</v>
+        <v>370455.0331657705</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7057278928434619</v>
+        <v>0.7057418884042855</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3255,10 +3255,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>81.10933479263313</v>
+        <v>81.1118258355164</v>
       </c>
       <c r="D2" t="n">
-        <v>81.10933479263313</v>
+        <v>81.1118258355164</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3267,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>81.10933479263313</v>
+        <v>81.1118258355164</v>
       </c>
       <c r="H2" t="n">
-        <v>81.10933479263313</v>
+        <v>81.1118258355164</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3279,97 +3279,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.32025684857</v>
+        <v>292.3200553737241</v>
       </c>
       <c r="L2" t="n">
-        <v>132721.3592911435</v>
+        <v>132721.0395471323</v>
       </c>
       <c r="M2" t="n">
-        <v>1.582500525564939</v>
+        <v>1.582497806029855</v>
       </c>
       <c r="N2" t="n">
-        <v>334626.9393167794</v>
+        <v>334626.7951889045</v>
       </c>
       <c r="O2" t="n">
-        <v>418495.0689932376</v>
+        <v>418494.8669432033</v>
       </c>
       <c r="P2" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.91734771824</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687328.3017286693</v>
+        <v>-687327.7416160139</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7114519082912</v>
+        <v>717.711442793462</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.645971640496</v>
+        <v>1006.645961063541</v>
       </c>
       <c r="T2" t="n">
-        <v>1.402577552530296</v>
+        <v>1.402577555605765</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994977397642302</v>
+        <v>0.9994977383576308</v>
       </c>
       <c r="V2" t="n">
-        <v>342.8893146337334</v>
+        <v>342.8891963597786</v>
       </c>
       <c r="W2" t="n">
-        <v>186059.4641997012</v>
+        <v>186059.0160995992</v>
       </c>
       <c r="X2" t="n">
-        <v>5.374625818156076e-06</v>
+        <v>5.374638762276859e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132655.3842702272</v>
+        <v>132655.0644960531</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.538329525795489e-06</v>
+        <v>7.538347697458269e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003433837588006671</v>
+        <v>0.003433839950875375</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.816983436420285e-05</v>
+        <v>1.816982450567874e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02582187936315612</v>
+        <v>0.0258218641781322</v>
       </c>
       <c r="AD2" t="n">
-        <v>132721.3592911435</v>
+        <v>132721.0395471323</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.582500525564939</v>
+        <v>1.582497806029855</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.582500525564939</v>
+        <v>1.582497806029855</v>
       </c>
       <c r="AG2" t="n">
-        <v>334626.9393167794</v>
+        <v>334626.7951889045</v>
       </c>
       <c r="AH2" t="n">
-        <v>418495.0689932376</v>
+        <v>418494.8669432033</v>
       </c>
       <c r="AI2" t="n">
-        <v>3782.917347718239</v>
+        <v>3782.91734771824</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7114519082912</v>
+        <v>717.711442793462</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.645971640496</v>
+        <v>1006.645961063541</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.8893146337334</v>
+        <v>342.8891963597786</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994977397642302</v>
+        <v>0.9994977383576308</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.816983436420285e-05</v>
+        <v>1.816982450567874e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02582187936315612</v>
+        <v>0.0258218641781322</v>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
@@ -3582,16 +3582,16 @@
         <v>1</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.236546696940009</v>
+        <v>0.2365540433954336</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.236546696940009</v>
+        <v>0.2365540433954336</v>
       </c>
       <c r="DH2" t="n">
-        <v>184799.7902161395</v>
+        <v>184805.2484987554</v>
       </c>
       <c r="DI2" t="n">
-        <v>2.755593465105033</v>
+        <v>2.755673359686341</v>
       </c>
       <c r="DJ2" t="n">
         <v>421784.4310884894</v>
@@ -3645,121 +3645,121 @@
         <v>0</v>
       </c>
       <c r="DU2" t="n">
-        <v>269.8464697268398</v>
+        <v>269.8876355111072</v>
       </c>
       <c r="DV2" t="n">
-        <v>111.5748439303857</v>
+        <v>111.5905427479532</v>
       </c>
       <c r="DW2" t="n">
-        <v>245.6993517003013</v>
+        <v>245.73743420772</v>
       </c>
       <c r="DX2" t="n">
-        <v>65.57666592004824</v>
+        <v>65.57697420648411</v>
       </c>
       <c r="DY2" t="n">
-        <v>269.8464697268398</v>
+        <v>269.8876355111072</v>
       </c>
       <c r="DZ2" t="n">
-        <v>111.5748439303857</v>
+        <v>111.5905427479532</v>
       </c>
       <c r="EA2" t="n">
-        <v>245.6993517003013</v>
+        <v>245.73743420772</v>
       </c>
       <c r="EB2" t="n">
-        <v>65.57666592004824</v>
+        <v>65.57697420648412</v>
       </c>
       <c r="EC2" t="n">
-        <v>259.2686886664698</v>
+        <v>259.2575968933338</v>
       </c>
       <c r="ED2" t="n">
-        <v>85557.98567784886</v>
+        <v>85544.76580685381</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.150398785073635</v>
+        <v>1.150270294259145</v>
       </c>
       <c r="EF2" t="n">
-        <v>311003.4141706486</v>
+        <v>310995.4899535716</v>
       </c>
       <c r="EG2" t="n">
-        <v>385375.8724763764</v>
+        <v>385364.7631876949</v>
       </c>
       <c r="EH2" t="n">
-        <v>3788.64375206818</v>
+        <v>3788.645228977666</v>
       </c>
       <c r="EI2" t="n">
-        <v>-596900.8249467546</v>
+        <v>-596870.2943584492</v>
       </c>
       <c r="EJ2" t="n">
-        <v>716.5291678053579</v>
+        <v>716.5288700619589</v>
       </c>
       <c r="EK2" t="n">
-        <v>1005.194266521383</v>
+        <v>1005.193883638722</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.402865803216597</v>
+        <v>1.402865851799944</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.9993228910358277</v>
+        <v>0.999322846106205</v>
       </c>
       <c r="EN2" t="n">
-        <v>322.8996785763742</v>
+        <v>322.8927624828838</v>
       </c>
       <c r="EO2" t="n">
-        <v>119945.4117960761</v>
+        <v>119926.8772815203</v>
       </c>
       <c r="EP2" t="n">
-        <v>8.337125906075836e-06</v>
+        <v>8.338414396070427e-06</v>
       </c>
       <c r="EQ2" t="n">
-        <v>85500.27488093032</v>
+        <v>85487.06002619446</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.169586883074497e-05</v>
+        <v>1.169767681440426e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.003870459748690829</v>
+        <v>0.003870624942421877</v>
       </c>
       <c r="ET2" t="n">
-        <v>1.651329318482766e-05</v>
+        <v>1.651272365125578e-05</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.02328364180127378</v>
+        <v>0.02328277380983572</v>
       </c>
       <c r="EV2" t="n">
-        <v>85557.98567784886</v>
+        <v>85544.76580685381</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.150398785073635</v>
+        <v>1.150270294259145</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.150398785073635</v>
+        <v>1.150270294259145</v>
       </c>
       <c r="EY2" t="n">
-        <v>311003.4141706486</v>
+        <v>310995.4899535716</v>
       </c>
       <c r="EZ2" t="n">
-        <v>385375.8724763764</v>
+        <v>385364.7631876949</v>
       </c>
       <c r="FA2" t="n">
-        <v>3788.64375206818</v>
+        <v>3788.645228977666</v>
       </c>
       <c r="FB2" t="n">
-        <v>716.5291678053579</v>
+        <v>716.5288700619589</v>
       </c>
       <c r="FC2" t="n">
-        <v>1005.194266521383</v>
+        <v>1005.193883638722</v>
       </c>
       <c r="FD2" t="n">
-        <v>322.8996785763742</v>
+        <v>322.8927624828838</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.9993228910358277</v>
+        <v>0.999322846106205</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.651329318482766e-05</v>
+        <v>1.651272365125578e-05</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.02328364180127378</v>
+        <v>0.02328277380983572</v>
       </c>
       <c r="FH2" t="inlineStr">
         <is>
@@ -3770,97 +3770,97 @@
         <v>1</v>
       </c>
       <c r="FJ2" t="n">
-        <v>295.5936773104019</v>
+        <v>295.5936756957028</v>
       </c>
       <c r="FK2" t="n">
-        <v>135273.0063313713</v>
+        <v>135272.3099998588</v>
       </c>
       <c r="FL2" t="n">
-        <v>1.595011388243305</v>
+        <v>1.595003182691048</v>
       </c>
       <c r="FM2" t="n">
-        <v>336974.3743526583</v>
+        <v>336974.3746147268</v>
       </c>
       <c r="FN2" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="FO2" t="n">
-        <v>3788.643752066137</v>
+        <v>3788.64522899011</v>
       </c>
       <c r="FP2" t="n">
-        <v>-698114.7076037183</v>
+        <v>-698115.138055685</v>
       </c>
       <c r="FQ2" t="n">
-        <v>717.8561334255842</v>
+        <v>717.8561316118423</v>
       </c>
       <c r="FR2" t="n">
-        <v>1006.776809794006</v>
+        <v>1006.776798360984</v>
       </c>
       <c r="FS2" t="n">
-        <v>1.402477130047914</v>
+        <v>1.402477117664805</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.9995303445652088</v>
+        <v>0.9995303469354122</v>
       </c>
       <c r="FU2" t="n">
-        <v>344.8027368043428</v>
+        <v>344.8027351487291</v>
       </c>
       <c r="FV2" t="n">
-        <v>189629.1929919155</v>
+        <v>189628.2156215623</v>
       </c>
       <c r="FW2" t="n">
-        <v>5.273449642548619e-06</v>
+        <v>5.273476822645859e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>135210.1855560647</v>
+        <v>135209.4898612697</v>
       </c>
       <c r="FY2" t="n">
-        <v>7.395892520133784e-06</v>
+        <v>7.395930574296522e-06</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.003395618812304973</v>
+        <v>0.00339561876636652</v>
       </c>
       <c r="GA2" t="n">
-        <v>1.83292516282755e-05</v>
+        <v>1.832925144950807e-05</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.02606728822298218</v>
+        <v>0.02606728787931315</v>
       </c>
       <c r="GC2" t="n">
-        <v>135273.0063313713</v>
+        <v>135272.3099998588</v>
       </c>
       <c r="GD2" t="n">
-        <v>1.595011388243305</v>
+        <v>1.595003182691048</v>
       </c>
       <c r="GE2" t="n">
-        <v>1.595011388243305</v>
+        <v>1.595003182691048</v>
       </c>
       <c r="GF2" t="n">
-        <v>336974.3743526583</v>
+        <v>336974.3746147268</v>
       </c>
       <c r="GG2" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="GH2" t="n">
-        <v>3788.643752066137</v>
+        <v>3788.64522899011</v>
       </c>
       <c r="GI2" t="n">
-        <v>717.8561334255842</v>
+        <v>717.8561316118423</v>
       </c>
       <c r="GJ2" t="n">
-        <v>1006.776809794006</v>
+        <v>1006.776798360984</v>
       </c>
       <c r="GK2" t="n">
-        <v>344.8027368043428</v>
+        <v>344.8027351487291</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.9995303445652088</v>
+        <v>0.9995303469354122</v>
       </c>
       <c r="GM2" t="n">
-        <v>1.83292516282755e-05</v>
+        <v>1.832925144950807e-05</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.02606728822298218</v>
+        <v>0.02606728787931315</v>
       </c>
       <c r="GO2" t="inlineStr">
         <is>
@@ -3871,97 +3871,97 @@
         <v>1</v>
       </c>
       <c r="GQ2" t="n">
-        <v>295.5936773104019</v>
+        <v>295.5936756957028</v>
       </c>
       <c r="GR2" t="n">
-        <v>135273.0063313713</v>
+        <v>135272.3099998588</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.595011388243305</v>
+        <v>1.595003182691048</v>
       </c>
       <c r="GT2" t="n">
-        <v>336974.3743526583</v>
+        <v>336974.3746147268</v>
       </c>
       <c r="GU2" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="GV2" t="n">
-        <v>3788.643752066137</v>
+        <v>3788.64522899011</v>
       </c>
       <c r="GW2" t="n">
-        <v>-698114.7076037183</v>
+        <v>-698115.138055685</v>
       </c>
       <c r="GX2" t="n">
-        <v>717.8561334255842</v>
+        <v>717.8561316118423</v>
       </c>
       <c r="GY2" t="n">
-        <v>1006.776809794006</v>
+        <v>1006.776798360984</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1.402477130047914</v>
+        <v>1.402477117664805</v>
       </c>
       <c r="HA2" t="n">
-        <v>0.9995303445652088</v>
+        <v>0.9995303469354122</v>
       </c>
       <c r="HB2" t="n">
-        <v>344.8027368043428</v>
+        <v>344.8027351487291</v>
       </c>
       <c r="HC2" t="n">
-        <v>189629.1929919155</v>
+        <v>189628.2156215623</v>
       </c>
       <c r="HD2" t="n">
-        <v>5.273449642548619e-06</v>
+        <v>5.273476822645859e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>135210.1855560647</v>
+        <v>135209.4898612697</v>
       </c>
       <c r="HF2" t="n">
-        <v>7.395892520133784e-06</v>
+        <v>7.395930574296522e-06</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.003395618812304973</v>
+        <v>0.00339561876636652</v>
       </c>
       <c r="HH2" t="n">
-        <v>1.83292516282755e-05</v>
+        <v>1.832925144950807e-05</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.02606728822298218</v>
+        <v>0.02606728787931315</v>
       </c>
       <c r="HJ2" t="n">
-        <v>135273.0063313713</v>
+        <v>135272.3099998588</v>
       </c>
       <c r="HK2" t="n">
-        <v>1.595011388243305</v>
+        <v>1.595003182691048</v>
       </c>
       <c r="HL2" t="n">
-        <v>1.595011388243305</v>
+        <v>1.595003182691048</v>
       </c>
       <c r="HM2" t="n">
-        <v>336974.3743526583</v>
+        <v>336974.3746147268</v>
       </c>
       <c r="HN2" t="n">
-        <v>421784.4310885895</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="HO2" t="n">
-        <v>3788.643752066137</v>
+        <v>3788.64522899011</v>
       </c>
       <c r="HP2" t="n">
-        <v>717.8561334255842</v>
+        <v>717.8561316118423</v>
       </c>
       <c r="HQ2" t="n">
-        <v>1006.776809794006</v>
+        <v>1006.776798360984</v>
       </c>
       <c r="HR2" t="n">
-        <v>344.8027368043428</v>
+        <v>344.8027351487291</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.9995303445652088</v>
+        <v>0.9995303469354122</v>
       </c>
       <c r="HT2" t="n">
-        <v>1.83292516282755e-05</v>
+        <v>1.832925144950807e-05</v>
       </c>
       <c r="HU2" t="n">
-        <v>0.02606728822298218</v>
+        <v>0.02606728787931315</v>
       </c>
       <c r="HV2" t="inlineStr">
         <is>
@@ -3972,166 +3972,166 @@
         <v>1</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.8356975482805074</v>
+        <v>0.8358429388005058</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.8356975482805074</v>
+        <v>0.8358429388005055</v>
       </c>
       <c r="HZ2" t="n">
-        <v>491778.1209016845</v>
+        <v>491815.1690858045</v>
       </c>
       <c r="IA2" t="n">
-        <v>2.755593464347874</v>
+        <v>2.75567336001793</v>
       </c>
       <c r="IB2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.01582685411753925</v>
+        <v>0.01582718102009755</v>
       </c>
       <c r="ID2" t="n">
-        <v>-1.792061523445169e-07</v>
+        <v>-1.792225945082364e-07</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.01378707802302663</v>
+        <v>0.01378708858525298</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.02523875689376477</v>
+        <v>0.02523860822400137</v>
       </c>
       <c r="IG2" t="n">
         <v>0</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.0548525098281783</v>
+        <v>0.05485269860675739</v>
       </c>
       <c r="II2" t="n">
-        <v>9.680304474679602e-11</v>
+        <v>2.528426773507064e-11</v>
       </c>
       <c r="IJ2" t="n">
         <v>0</v>
       </c>
       <c r="IK2" t="n">
-        <v>383895.4160910942</v>
+        <v>383883.9894148032</v>
       </c>
       <c r="IL2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM2" t="n">
-        <v>269.8464697268398</v>
+        <v>269.8876355111072</v>
       </c>
       <c r="IN2" t="n">
-        <v>111.5748439303857</v>
+        <v>111.5905427479532</v>
       </c>
       <c r="IO2" t="n">
-        <v>245.6993517003013</v>
+        <v>245.73743420772</v>
       </c>
       <c r="IP2" t="n">
-        <v>65.57666592004824</v>
+        <v>65.57697420648411</v>
       </c>
       <c r="IQ2" t="n">
-        <v>137.5226781527606</v>
+        <v>137.5576797687614</v>
       </c>
       <c r="IR2" t="n">
-        <v>111.5748439303857</v>
+        <v>111.5905427479532</v>
       </c>
       <c r="IS2" t="n">
-        <v>80.39615170030132</v>
+        <v>80.43423420771998</v>
       </c>
       <c r="IT2" t="n">
-        <v>35.77493922392804</v>
+        <v>35.7839858748545</v>
       </c>
       <c r="IU2" t="n">
-        <v>259.2686886667628</v>
+        <v>259.2575968931469</v>
       </c>
       <c r="IV2" t="n">
-        <v>85557.98567587484</v>
+        <v>85544.76580456237</v>
       </c>
       <c r="IW2" t="n">
-        <v>1.15039878504577</v>
+        <v>1.150270294229145</v>
       </c>
       <c r="IX2" t="n">
-        <v>311003.4141708637</v>
+        <v>310995.4899534431</v>
       </c>
       <c r="IY2" t="n">
-        <v>385375.8724766769</v>
+        <v>385364.763187514</v>
       </c>
       <c r="IZ2" t="n">
-        <v>3788.643752075957</v>
+        <v>3788.645228984651</v>
       </c>
       <c r="JA2" t="n">
-        <v>-596900.8249495807</v>
+        <v>-596870.2943597328</v>
       </c>
       <c r="JB2" t="n">
-        <v>716.5291678053576</v>
+        <v>716.5288700619463</v>
       </c>
       <c r="JC2" t="n">
-        <v>1005.194266521341</v>
+        <v>1005.193883638668</v>
       </c>
       <c r="JD2" t="n">
-        <v>1.402865803216538</v>
+        <v>1.402865851799895</v>
       </c>
       <c r="JE2" t="n">
-        <v>0.9993228910358473</v>
+        <v>0.9993228461062206</v>
       </c>
       <c r="JF2" t="n">
-        <v>322.8996785765564</v>
+        <v>322.8927624827666</v>
       </c>
       <c r="JG2" t="n">
-        <v>119945.4117933061</v>
+        <v>119926.8772783054</v>
       </c>
       <c r="JH2" t="n">
-        <v>8.337125906268372e-06</v>
+        <v>8.338414396293954e-06</v>
       </c>
       <c r="JI2" t="n">
-        <v>85500.27487895929</v>
+        <v>85487.06002390587</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1.169586883101459e-05</v>
+        <v>1.169767681471742e-05</v>
       </c>
       <c r="JK2" t="n">
-        <v>0.003870459748686099</v>
+        <v>0.003870624942424335</v>
       </c>
       <c r="JL2" t="n">
-        <v>1.651329318484235e-05</v>
+        <v>1.651272365124587e-05</v>
       </c>
       <c r="JM2" t="n">
-        <v>0.02328364180129586</v>
+        <v>0.02328277380982034</v>
       </c>
       <c r="JN2" t="n">
-        <v>85557.98567587484</v>
+        <v>85544.76580456237</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.15039878504577</v>
+        <v>1.150270294229145</v>
       </c>
       <c r="JP2" t="n">
-        <v>1.15039878504577</v>
+        <v>1.150270294229145</v>
       </c>
       <c r="JQ2" t="n">
-        <v>311003.4141708637</v>
+        <v>310995.4899534431</v>
       </c>
       <c r="JR2" t="n">
-        <v>385375.8724766769</v>
+        <v>385364.763187514</v>
       </c>
       <c r="JS2" t="n">
-        <v>3788.643752075957</v>
+        <v>3788.645228984651</v>
       </c>
       <c r="JT2" t="n">
-        <v>716.5291678053576</v>
+        <v>716.5288700619463</v>
       </c>
       <c r="JU2" t="n">
-        <v>1005.194266521341</v>
+        <v>1005.193883638668</v>
       </c>
       <c r="JV2" t="n">
-        <v>322.8996785765564</v>
+        <v>322.8927624827666</v>
       </c>
       <c r="JW2" t="n">
-        <v>0.9993228910358473</v>
+        <v>0.9993228461062206</v>
       </c>
       <c r="JX2" t="n">
-        <v>1.651329318484235e-05</v>
+        <v>1.651272365124587e-05</v>
       </c>
       <c r="JY2" t="n">
-        <v>0.02328364180129586</v>
+        <v>0.02328277380982034</v>
       </c>
       <c r="JZ2" t="inlineStr">
         <is>
@@ -4142,97 +4142,97 @@
         <v>1</v>
       </c>
       <c r="KB2" t="n">
-        <v>295.5936773104933</v>
+        <v>295.5936756957109</v>
       </c>
       <c r="KC2" t="n">
-        <v>135273.0063278646</v>
+        <v>135272.3100033956</v>
       </c>
       <c r="KD2" t="n">
-        <v>1.595011388201443</v>
+        <v>1.595003182732726</v>
       </c>
       <c r="KE2" t="n">
-        <v>336974.3743527313</v>
+        <v>336974.3746147255</v>
       </c>
       <c r="KF2" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="KG2" t="n">
-        <v>3788.643752073916</v>
+        <v>3788.645228982608</v>
       </c>
       <c r="KH2" t="n">
-        <v>-698114.7076062636</v>
+        <v>-698115.1380534985</v>
       </c>
       <c r="KI2" t="n">
-        <v>717.8561334255792</v>
+        <v>717.8561316118514</v>
       </c>
       <c r="KJ2" t="n">
-        <v>1006.776809793951</v>
+        <v>1006.776798361042</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.402477130047848</v>
+        <v>1.402477117664868</v>
       </c>
       <c r="KL2" t="n">
-        <v>0.9995303445652221</v>
+        <v>0.9995303469354001</v>
       </c>
       <c r="KM2" t="n">
-        <v>344.8027368043925</v>
+        <v>344.8027351487376</v>
       </c>
       <c r="KN2" t="n">
-        <v>189629.1929869931</v>
+        <v>189628.2156265265</v>
       </c>
       <c r="KO2" t="n">
-        <v>5.273449642685507e-06</v>
+        <v>5.273476822507805e-06</v>
       </c>
       <c r="KP2" t="n">
-        <v>135210.1855525613</v>
+        <v>135209.4898648032</v>
       </c>
       <c r="KQ2" t="n">
-        <v>7.395892520325416e-06</v>
+        <v>7.395930574103238e-06</v>
       </c>
       <c r="KR2" t="n">
-        <v>0.003395618812303585</v>
+        <v>0.003395618766366753</v>
       </c>
       <c r="KS2" t="n">
-        <v>1.832925162827943e-05</v>
+        <v>1.832925144950897e-05</v>
       </c>
       <c r="KT2" t="n">
-        <v>0.02606728822298787</v>
+        <v>0.02606728787931489</v>
       </c>
       <c r="KU2" t="n">
-        <v>135273.0063278646</v>
+        <v>135272.3100033956</v>
       </c>
       <c r="KV2" t="n">
-        <v>1.595011388201443</v>
+        <v>1.595003182732726</v>
       </c>
       <c r="KW2" t="n">
-        <v>1.595011388201443</v>
+        <v>1.595003182732726</v>
       </c>
       <c r="KX2" t="n">
-        <v>336974.3743527313</v>
+        <v>336974.3746147255</v>
       </c>
       <c r="KY2" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="KZ2" t="n">
-        <v>3788.643752073916</v>
+        <v>3788.645228982608</v>
       </c>
       <c r="LA2" t="n">
-        <v>717.8561334255792</v>
+        <v>717.8561316118514</v>
       </c>
       <c r="LB2" t="n">
-        <v>1006.776809793951</v>
+        <v>1006.776798361042</v>
       </c>
       <c r="LC2" t="n">
-        <v>344.8027368043925</v>
+        <v>344.8027351487376</v>
       </c>
       <c r="LD2" t="n">
-        <v>0.9995303445652221</v>
+        <v>0.9995303469354001</v>
       </c>
       <c r="LE2" t="n">
-        <v>1.832925162827943e-05</v>
+        <v>1.832925144950897e-05</v>
       </c>
       <c r="LF2" t="n">
-        <v>0.02606728822298787</v>
+        <v>0.02606728787931489</v>
       </c>
       <c r="LG2" t="inlineStr">
         <is>
@@ -4243,97 +4243,97 @@
         <v>1</v>
       </c>
       <c r="LI2" t="n">
-        <v>268.7076596951476</v>
+        <v>268.7013755008699</v>
       </c>
       <c r="LJ2" t="n">
-        <v>96938.70586643706</v>
+        <v>96930.29038642623</v>
       </c>
       <c r="LK2" t="n">
-        <v>1.257580523336873</v>
+        <v>1.257500794484405</v>
       </c>
       <c r="LL2" t="n">
-        <v>317748.6178915852</v>
+        <v>317744.1276613537</v>
       </c>
       <c r="LM2" t="n">
-        <v>394832.1159798182</v>
+        <v>394825.820819384</v>
       </c>
       <c r="LN2" t="n">
-        <v>3788.643752062088</v>
+        <v>3788.645228977407</v>
       </c>
       <c r="LO2" t="n">
-        <v>-623205.4800554283</v>
+        <v>-623188.3634916538</v>
       </c>
       <c r="LP2" t="n">
-        <v>716.8035512699358</v>
+        <v>716.8033517184797</v>
       </c>
       <c r="LQ2" t="n">
-        <v>1005.53432966165</v>
+        <v>1005.534077553365</v>
       </c>
       <c r="LR2" t="n">
-        <v>1.402803219766671</v>
+        <v>1.402803258582254</v>
       </c>
       <c r="LS2" t="n">
-        <v>0.9993673080023274</v>
+        <v>0.9993672794919636</v>
       </c>
       <c r="LT2" t="n">
-        <v>328.7322728229275</v>
+        <v>328.7284239102065</v>
       </c>
       <c r="LU2" t="n">
-        <v>135900.3225450508</v>
+        <v>135888.5245371322</v>
       </c>
       <c r="LV2" t="n">
-        <v>7.358334264942612e-06</v>
+        <v>7.358973124524176e-06</v>
       </c>
       <c r="LW2" t="n">
-        <v>96877.68079663746</v>
+        <v>96869.26780770977</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.032229499898091e-05</v>
+        <v>1.032319147890174e-05</v>
       </c>
       <c r="LY2" t="n">
-        <v>0.003734758739410624</v>
+        <v>0.003734845852717498</v>
       </c>
       <c r="LZ2" t="n">
-        <v>1.699447249105136e-05</v>
+        <v>1.699415431082262e-05</v>
       </c>
       <c r="MA2" t="n">
-        <v>0.0240180643586397</v>
+        <v>0.02401757790519699</v>
       </c>
       <c r="MB2" t="n">
-        <v>96938.70586643706</v>
+        <v>96930.29038642623</v>
       </c>
       <c r="MC2" t="n">
-        <v>1.257580523336873</v>
+        <v>1.257500794484405</v>
       </c>
       <c r="MD2" t="n">
-        <v>1.257580523336873</v>
+        <v>1.257500794484405</v>
       </c>
       <c r="ME2" t="n">
-        <v>317748.6178915852</v>
+        <v>317744.1276613537</v>
       </c>
       <c r="MF2" t="n">
-        <v>394832.1159798182</v>
+        <v>394825.820819384</v>
       </c>
       <c r="MG2" t="n">
-        <v>3788.643752062088</v>
+        <v>3788.645228977407</v>
       </c>
       <c r="MH2" t="n">
-        <v>716.8035512699358</v>
+        <v>716.8033517184797</v>
       </c>
       <c r="MI2" t="n">
-        <v>1005.53432966165</v>
+        <v>1005.534077553365</v>
       </c>
       <c r="MJ2" t="n">
-        <v>328.7322728229275</v>
+        <v>328.7284239102065</v>
       </c>
       <c r="MK2" t="n">
-        <v>0.9993673080023274</v>
+        <v>0.9993672794919636</v>
       </c>
       <c r="ML2" t="n">
-        <v>1.699447249105136e-05</v>
+        <v>1.699415431082262e-05</v>
       </c>
       <c r="MM2" t="n">
-        <v>0.0240180643586397</v>
+        <v>0.02401757790519699</v>
       </c>
       <c r="MN2" t="inlineStr">
         <is>
@@ -4344,139 +4344,139 @@
         <v>1</v>
       </c>
       <c r="MP2" t="n">
-        <v>0.835697548280036</v>
+        <v>0.835842938800809</v>
       </c>
       <c r="MQ2" t="n">
-        <v>0.4258990865491225</v>
+        <v>0.4260166090780779</v>
       </c>
       <c r="MR2" t="n">
-        <v>249668.3294849242</v>
+        <v>249712.5931592843</v>
       </c>
       <c r="MS2" t="n">
-        <v>2.755593464281128</v>
+        <v>2.755673359946059</v>
       </c>
       <c r="MT2" t="n">
-        <v>381169.5420146043</v>
+        <v>381163.2468541638</v>
       </c>
       <c r="MU2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV2" t="n">
-        <v>135.4521681471497</v>
+        <v>135.451536332728</v>
       </c>
       <c r="MW2" t="n">
-        <v>123.904228089707</v>
+        <v>123.904829114332</v>
       </c>
       <c r="MX2" t="n">
-        <v>-54.72688660299968</v>
+        <v>-54.72396200061277</v>
       </c>
       <c r="MY2" t="n">
-        <v>-23.83042424802394</v>
+        <v>-23.8291898969837</v>
       </c>
       <c r="MZ2" t="n">
-        <v>252.5183097302643</v>
+        <v>252.5160563130505</v>
       </c>
       <c r="NA2" t="n">
-        <v>123.904228089707</v>
+        <v>123.904829114332</v>
       </c>
       <c r="NB2" t="n">
-        <v>-220.0300866029997</v>
+        <v>-220.0271620006128</v>
       </c>
       <c r="NC2" t="n">
-        <v>-60.61509337187393</v>
+        <v>-60.61464893789559</v>
       </c>
       <c r="ND2" t="n">
-        <v>236.8660759138807</v>
+        <v>236.8603753635833</v>
       </c>
       <c r="NE2" t="n">
-        <v>59999.99998184323</v>
+        <v>60000.00002540947</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.8830970526006158</v>
+        <v>0.8831183743599021</v>
       </c>
       <c r="NG2" t="n">
-        <v>295006.6654921682</v>
+        <v>295002.5796980565</v>
       </c>
       <c r="NH2" t="n">
-        <v>362949.3676053167</v>
+        <v>362943.6414712287</v>
       </c>
       <c r="NI2" t="n">
-        <v>3799.96494306388</v>
+        <v>3799.9407680008</v>
       </c>
       <c r="NJ2" t="n">
-        <v>-537133.4170685378</v>
+        <v>-537111.755196824</v>
       </c>
       <c r="NK2" t="n">
-        <v>716.0326650671852</v>
+        <v>716.0325913699322</v>
       </c>
       <c r="NL2" t="n">
-        <v>1004.487919714194</v>
+        <v>1004.487927376449</v>
       </c>
       <c r="NM2" t="n">
-        <v>1.402852088626352</v>
+        <v>1.402852243715103</v>
       </c>
       <c r="NN2" t="n">
-        <v>0.9992720026217737</v>
+        <v>0.99927192623998</v>
       </c>
       <c r="NO2" t="n">
-        <v>308.6167575567297</v>
+        <v>308.6130373336987</v>
       </c>
       <c r="NP2" t="n">
-        <v>84109.96329588858</v>
+        <v>84109.96622688039</v>
       </c>
       <c r="NQ2" t="n">
-        <v>1.188919791204904e-05</v>
+        <v>1.188919749774449e-05</v>
       </c>
       <c r="NR2" t="n">
-        <v>59956.40166045412</v>
+        <v>59956.3971214361</v>
       </c>
       <c r="NS2" t="n">
-        <v>1.667878612301007e-05</v>
+        <v>1.667878738568285e-05</v>
       </c>
       <c r="NT2" t="n">
-        <v>0.004235203005549909</v>
+        <v>0.004235305855758624</v>
       </c>
       <c r="NU2" t="n">
-        <v>1.534260009580352e-05</v>
+        <v>1.534229786110246e-05</v>
       </c>
       <c r="NV2" t="n">
-        <v>0.02150588321353603</v>
+        <v>0.02150542690987072</v>
       </c>
       <c r="NW2" t="n">
-        <v>59999.99998184323</v>
+        <v>60000.00002540947</v>
       </c>
       <c r="NX2" t="n">
-        <v>0.8830970526006158</v>
+        <v>0.8831183743599021</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.8830970526006158</v>
+        <v>0.8831183743599021</v>
       </c>
       <c r="NZ2" t="n">
-        <v>295006.6654921682</v>
+        <v>295002.5796980565</v>
       </c>
       <c r="OA2" t="n">
-        <v>362949.3676053167</v>
+        <v>362943.6414712287</v>
       </c>
       <c r="OB2" t="n">
-        <v>3799.96494306388</v>
+        <v>3799.9407680008</v>
       </c>
       <c r="OC2" t="n">
-        <v>716.0326650671852</v>
+        <v>716.0325913699322</v>
       </c>
       <c r="OD2" t="n">
-        <v>1004.487919714194</v>
+        <v>1004.487927376449</v>
       </c>
       <c r="OE2" t="n">
-        <v>308.6167575567297</v>
+        <v>308.6130373336987</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.9992720026217737</v>
+        <v>0.99927192623998</v>
       </c>
       <c r="OG2" t="n">
-        <v>1.534260009580352e-05</v>
+        <v>1.534229786110246e-05</v>
       </c>
       <c r="OH2" t="n">
-        <v>0.02150588321353603</v>
+        <v>0.02150542690987072</v>
       </c>
       <c r="OI2" t="inlineStr">
         <is>
@@ -4487,97 +4487,97 @@
         <v>1</v>
       </c>
       <c r="OK2" t="n">
-        <v>246.0270582152262</v>
+        <v>246.0212742433652</v>
       </c>
       <c r="OL2" t="n">
-        <v>68498.88628673152</v>
+        <v>68499.01822757571</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.9706189907326674</v>
+        <v>0.9706437551824497</v>
       </c>
       <c r="ON2" t="n">
-        <v>301550.6386761483</v>
+        <v>301546.4915736603</v>
       </c>
       <c r="OO2" t="n">
-        <v>372123.0125331912</v>
+        <v>372117.2008187841</v>
       </c>
       <c r="OP2" t="n">
-        <v>3799.964943063018</v>
+        <v>3799.940768009369</v>
       </c>
       <c r="OQ2" t="n">
-        <v>-562771.1837295929</v>
+        <v>-562749.0689761926</v>
       </c>
       <c r="OR2" t="n">
-        <v>716.2049467617069</v>
+        <v>716.2048509767112</v>
       </c>
       <c r="OS2" t="n">
-        <v>1004.720021903001</v>
+        <v>1004.720011513807</v>
       </c>
       <c r="OT2" t="n">
-        <v>1.402838707615472</v>
+        <v>1.402838880724751</v>
       </c>
       <c r="OU2" t="n">
-        <v>0.9992993900869227</v>
+        <v>0.9992993123321267</v>
       </c>
       <c r="OV2" t="n">
-        <v>314.5353216588514</v>
+        <v>314.5316192921716</v>
       </c>
       <c r="OW2" t="n">
-        <v>96025.73279511141</v>
+        <v>96025.92213854477</v>
       </c>
       <c r="OX2" t="n">
-        <v>1.041387522794212e-05</v>
+        <v>1.041385469391499e-05</v>
       </c>
       <c r="OY2" t="n">
-        <v>68451.01455628838</v>
+        <v>68451.1410811017</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1.46089872660351e-05</v>
+        <v>1.460896026284191e-05</v>
       </c>
       <c r="PA2" t="n">
-        <v>0.004077812621103169</v>
+        <v>0.004077909411399718</v>
       </c>
       <c r="PB2" t="n">
-        <v>1.582607282943197e-05</v>
+        <v>1.582577069436044e-05</v>
       </c>
       <c r="PC2" t="n">
-        <v>0.02223825930391566</v>
+        <v>0.02223780176818298</v>
       </c>
       <c r="PD2" t="n">
-        <v>68498.88628673152</v>
+        <v>68499.01822757571</v>
       </c>
       <c r="PE2" t="n">
-        <v>0.9706189907326674</v>
+        <v>0.9706437551824497</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.9706189907326674</v>
+        <v>0.9706437551824497</v>
       </c>
       <c r="PG2" t="n">
-        <v>301550.6386761483</v>
+        <v>301546.4915736603</v>
       </c>
       <c r="PH2" t="n">
-        <v>372123.0125331912</v>
+        <v>372117.2008187841</v>
       </c>
       <c r="PI2" t="n">
-        <v>3799.964943063018</v>
+        <v>3799.940768009369</v>
       </c>
       <c r="PJ2" t="n">
-        <v>716.2049467617069</v>
+        <v>716.2048509767112</v>
       </c>
       <c r="PK2" t="n">
-        <v>1004.720021903001</v>
+        <v>1004.720011513807</v>
       </c>
       <c r="PL2" t="n">
-        <v>314.5353216588514</v>
+        <v>314.5316192921716</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.9992993900869227</v>
+        <v>0.9992993123321267</v>
       </c>
       <c r="PN2" t="n">
-        <v>1.582607282943197e-05</v>
+        <v>1.582577069436044e-05</v>
       </c>
       <c r="PO2" t="n">
-        <v>0.02223825930391566</v>
+        <v>0.02223780176818298</v>
       </c>
       <c r="PP2" t="inlineStr">
         <is>
@@ -4588,97 +4588,97 @@
         <v>1</v>
       </c>
       <c r="PR2" t="n">
-        <v>268.6971033728723</v>
+        <v>268.6908430604787</v>
       </c>
       <c r="PS2" t="n">
-        <v>93187.58320742441</v>
+        <v>93187.82563935312</v>
       </c>
       <c r="PT2" t="n">
-        <v>1.208935597970012</v>
+        <v>1.20896700879031</v>
       </c>
       <c r="PU2" t="n">
-        <v>317749.7772976521</v>
+        <v>317745.284326625</v>
       </c>
       <c r="PV2" t="n">
-        <v>394832.1159796305</v>
+        <v>394825.820819177</v>
       </c>
       <c r="PW2" t="n">
-        <v>3799.964943054449</v>
+        <v>3799.9407680008</v>
       </c>
       <c r="PX2" t="n">
-        <v>-626207.4571375619</v>
+        <v>-626183.4677148408</v>
       </c>
       <c r="PY2" t="n">
-        <v>716.7911972061127</v>
+        <v>716.7910254256695</v>
       </c>
       <c r="PZ2" t="n">
-        <v>1005.456955977963</v>
+        <v>1005.456878102817</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.402719452885308</v>
+        <v>1.402719680405766</v>
       </c>
       <c r="QB2" t="n">
-        <v>0.9993915382289403</v>
+        <v>0.9993914569915261</v>
       </c>
       <c r="QC2" t="n">
-        <v>328.7239311152951</v>
+        <v>328.7201016178643</v>
       </c>
       <c r="QD2" t="n">
-        <v>130636.8830252697</v>
+        <v>130637.2334680416</v>
       </c>
       <c r="QE2" t="n">
-        <v>7.654806030595246e-06</v>
+        <v>7.654785496086266e-06</v>
       </c>
       <c r="QF2" t="n">
-        <v>93131.15516902368</v>
+        <v>93131.38989413196</v>
       </c>
       <c r="QG2" t="n">
-        <v>1.073754532717972e-05</v>
+        <v>1.073751826464482e-05</v>
       </c>
       <c r="QH2" t="n">
-        <v>0.003734394815144806</v>
+        <v>0.003734482734768784</v>
       </c>
       <c r="QI2" t="n">
-        <v>1.699336979867971e-05</v>
+        <v>1.699305412695202e-05</v>
       </c>
       <c r="QJ2" t="n">
-        <v>0.02401592202776445</v>
+        <v>0.02401544044203252</v>
       </c>
       <c r="QK2" t="n">
-        <v>93187.58320742441</v>
+        <v>93187.82563935312</v>
       </c>
       <c r="QL2" t="n">
-        <v>1.208935597970012</v>
+        <v>1.20896700879031</v>
       </c>
       <c r="QM2" t="n">
-        <v>1.208935597970012</v>
+        <v>1.20896700879031</v>
       </c>
       <c r="QN2" t="n">
-        <v>317749.7772976521</v>
+        <v>317745.284326625</v>
       </c>
       <c r="QO2" t="n">
-        <v>394832.1159796305</v>
+        <v>394825.820819177</v>
       </c>
       <c r="QP2" t="n">
-        <v>3799.964943054449</v>
+        <v>3799.9407680008</v>
       </c>
       <c r="QQ2" t="n">
-        <v>716.7911972061127</v>
+        <v>716.7910254256695</v>
       </c>
       <c r="QR2" t="n">
-        <v>1005.456955977963</v>
+        <v>1005.456878102817</v>
       </c>
       <c r="QS2" t="n">
-        <v>328.7239311152951</v>
+        <v>328.7201016178643</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.9993915382289403</v>
+        <v>0.9993914569915261</v>
       </c>
       <c r="QU2" t="n">
-        <v>1.699336979867971e-05</v>
+        <v>1.699305412695202e-05</v>
       </c>
       <c r="QV2" t="n">
-        <v>0.02401592202776445</v>
+        <v>0.02401544044203252</v>
       </c>
       <c r="QW2" t="inlineStr">
         <is>
@@ -4689,46 +4689,46 @@
         <v>1</v>
       </c>
       <c r="QY2" t="n">
-        <v>0.4389008854201671</v>
+        <v>0.4389041289473012</v>
       </c>
       <c r="QZ2" t="n">
-        <v>0.8182261771182227</v>
+        <v>0.818228738794365</v>
       </c>
       <c r="RA2" t="n">
-        <v>378771.0300423697</v>
+        <v>378784.256744725</v>
       </c>
       <c r="RB2" t="n">
-        <v>2.755593461360194</v>
+        <v>2.755673360165645</v>
       </c>
       <c r="RC2" t="n">
-        <v>381169.5420146043</v>
+        <v>381163.2468541638</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.02482484793390756</v>
+        <v>0.02483344438654406</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.001940659976548433</v>
+        <v>0.001661229627706503</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.01186833986994077</v>
+        <v>0.01186789776004529</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.03210800848406745</v>
+        <v>0.03211175761431597</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.04228603696444404</v>
+        <v>0.04229186349942306</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.1130278932289083</v>
+        <v>0.1127661928880349</v>
       </c>
       <c r="RJ2" t="n">
-        <v>1.235024887913383e-09</v>
+        <v>6.449732414814946e-11</v>
       </c>
       <c r="RK2" t="n">
         <v>0</v>
       </c>
       <c r="RL2" t="n">
-        <v>360282.8165522606</v>
+        <v>360283.162510214</v>
       </c>
     </row>
     <row r="3">
@@ -4739,10 +4739,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>81.20801481406265</v>
+        <v>81.21142720048475</v>
       </c>
       <c r="D3" t="n">
-        <v>81.20801481406265</v>
+        <v>81.21142720048475</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4751,10 +4751,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>81.20801481406265</v>
+        <v>81.21142720048475</v>
       </c>
       <c r="H3" t="n">
-        <v>81.20801481406265</v>
+        <v>81.21142720048475</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4763,97 +4763,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.312270906226</v>
+        <v>292.3119945760649</v>
       </c>
       <c r="L3" t="n">
-        <v>132708.6858877377</v>
+        <v>132708.2473772426</v>
       </c>
       <c r="M3" t="n">
-        <v>1.582392732382553</v>
+        <v>1.582389002594356</v>
       </c>
       <c r="N3" t="n">
-        <v>334621.2264613219</v>
+        <v>334621.0287847206</v>
       </c>
       <c r="O3" t="n">
-        <v>418487.0602533685</v>
+        <v>418486.7831344191</v>
       </c>
       <c r="P3" t="n">
         <v>3782.91734771824</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687306.1003087078</v>
+        <v>-687305.332093497</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7110906395696</v>
+        <v>717.7110781396414</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.645552417005</v>
+        <v>1006.645537911727</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402577674423227</v>
+        <v>1.402577678640582</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994976840127371</v>
+        <v>0.9994976820837106</v>
       </c>
       <c r="V3" t="n">
-        <v>342.8846265281679</v>
+        <v>342.8844643088364</v>
       </c>
       <c r="W3" t="n">
-        <v>186041.7032610357</v>
+        <v>186041.0887174629</v>
       </c>
       <c r="X3" t="n">
-        <v>5.375138920314531e-06</v>
+        <v>5.375156675838859e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132642.7096720619</v>
+        <v>132642.2711202557</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.539049846556528e-06</v>
+        <v>7.539074772727494e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003433931248503652</v>
+        <v>0.003433934489442342</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.81694435956528e-05</v>
+        <v>1.816943007417277e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02582127746550444</v>
+        <v>0.02582125663850469</v>
       </c>
       <c r="AD3" t="n">
-        <v>132708.6858877377</v>
+        <v>132708.2473772426</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.582392732382553</v>
+        <v>1.582389002594356</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.582392732382553</v>
+        <v>1.582389002594356</v>
       </c>
       <c r="AG3" t="n">
-        <v>334621.2264613219</v>
+        <v>334621.0287847206</v>
       </c>
       <c r="AH3" t="n">
-        <v>418487.0602533685</v>
+        <v>418486.7831344191</v>
       </c>
       <c r="AI3" t="n">
         <v>3782.91734771824</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7110906395696</v>
+        <v>717.7110781396414</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.645552417005</v>
+        <v>1006.645537911727</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.8846265281679</v>
+        <v>342.8844643088364</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994976840127371</v>
+        <v>0.9994976820837106</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.81694435956528e-05</v>
+        <v>1.816943007417277e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02582127746550444</v>
+        <v>0.02582125663850469</v>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
@@ -5066,16 +5066,16 @@
         <v>1</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.2368377247948485</v>
+        <v>0.2368477888439341</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2368377247948485</v>
+        <v>0.2368477888439341</v>
       </c>
       <c r="DH3" t="n">
-        <v>185015.9990685931</v>
+        <v>185023.4750801342</v>
       </c>
       <c r="DI3" t="n">
-        <v>2.75875807418454</v>
+        <v>2.758867495249475</v>
       </c>
       <c r="DJ3" t="n">
         <v>421784.4310884894</v>
@@ -5129,121 +5129,121 @@
         <v>0</v>
       </c>
       <c r="DU3" t="n">
-        <v>271.5285951125215</v>
+        <v>271.5887694781997</v>
       </c>
       <c r="DV3" t="n">
-        <v>112.2159185561972</v>
+        <v>112.2388364612884</v>
       </c>
       <c r="DW3" t="n">
-        <v>247.2556684615513</v>
+        <v>247.3113489035609</v>
       </c>
       <c r="DX3" t="n">
-        <v>65.58928237132116</v>
+        <v>65.58973428656066</v>
       </c>
       <c r="DY3" t="n">
-        <v>271.5285951125215</v>
+        <v>271.5887694781997</v>
       </c>
       <c r="DZ3" t="n">
-        <v>112.2159185561972</v>
+        <v>112.2388364612884</v>
       </c>
       <c r="EA3" t="n">
-        <v>247.2556684615513</v>
+        <v>247.3113489035609</v>
       </c>
       <c r="EB3" t="n">
-        <v>65.58928237132116</v>
+        <v>65.58973428656066</v>
       </c>
       <c r="EC3" t="n">
-        <v>258.8140738536119</v>
+        <v>258.7977585728815</v>
       </c>
       <c r="ED3" t="n">
-        <v>85017.40843358335</v>
+        <v>84998.05613519579</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.1451403161542</v>
+        <v>1.14495190202201</v>
       </c>
       <c r="EF3" t="n">
-        <v>310678.6284876681</v>
+        <v>310666.9725924407</v>
       </c>
       <c r="EG3" t="n">
-        <v>384920.5421066933</v>
+        <v>384904.2012350478</v>
       </c>
       <c r="EH3" t="n">
-        <v>3788.704170167865</v>
+        <v>3788.706334022667</v>
       </c>
       <c r="EI3" t="n">
-        <v>-595649.4188006202</v>
+        <v>-595604.5059008976</v>
       </c>
       <c r="EJ3" t="n">
-        <v>716.5170134191181</v>
+        <v>716.5165790898967</v>
       </c>
       <c r="EK3" t="n">
-        <v>1005.178624578149</v>
+        <v>1005.178065164067</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.402867769715026</v>
+        <v>1.402867839346889</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.99932105690105</v>
+        <v>0.9993209913583204</v>
       </c>
       <c r="EN3" t="n">
-        <v>322.61608964149</v>
+        <v>322.6059075349534</v>
       </c>
       <c r="EO3" t="n">
-        <v>119187.5110488943</v>
+        <v>119160.3786785833</v>
       </c>
       <c r="EP3" t="n">
-        <v>8.390140805858175e-06</v>
+        <v>8.392051209381813e-06</v>
       </c>
       <c r="EQ3" t="n">
-        <v>84959.90400656627</v>
+        <v>84940.55914351772</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.177025811990928e-05</v>
+        <v>1.177293874779391e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.003877242076631791</v>
+        <v>0.003877485924114067</v>
       </c>
       <c r="ET3" t="n">
-        <v>1.648994206773199e-05</v>
+        <v>1.648910374082587e-05</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.02324805639898205</v>
+        <v>0.02324677894943943</v>
       </c>
       <c r="EV3" t="n">
-        <v>85017.40843358335</v>
+        <v>84998.05613519579</v>
       </c>
       <c r="EW3" t="n">
-        <v>1.1451403161542</v>
+        <v>1.14495190202201</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.1451403161542</v>
+        <v>1.14495190202201</v>
       </c>
       <c r="EY3" t="n">
-        <v>310678.6284876681</v>
+        <v>310666.9725924407</v>
       </c>
       <c r="EZ3" t="n">
-        <v>384920.5421066933</v>
+        <v>384904.2012350478</v>
       </c>
       <c r="FA3" t="n">
-        <v>3788.704170167865</v>
+        <v>3788.706334022667</v>
       </c>
       <c r="FB3" t="n">
-        <v>716.5170134191181</v>
+        <v>716.5165790898967</v>
       </c>
       <c r="FC3" t="n">
-        <v>1005.178624578149</v>
+        <v>1005.178065164067</v>
       </c>
       <c r="FD3" t="n">
-        <v>322.61608964149</v>
+        <v>322.6059075349534</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.99932105690105</v>
+        <v>0.9993209913583204</v>
       </c>
       <c r="FF3" t="n">
-        <v>1.648994206773199e-05</v>
+        <v>1.648910374082587e-05</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.02324805639898205</v>
+        <v>0.02324677894943943</v>
       </c>
       <c r="FH3" t="inlineStr">
         <is>
@@ -5254,97 +5254,97 @@
         <v>1</v>
       </c>
       <c r="FJ3" t="n">
-        <v>295.5936112670168</v>
+        <v>295.5936089018508</v>
       </c>
       <c r="FK3" t="n">
-        <v>135244.5236878023</v>
+        <v>135243.503702348</v>
       </c>
       <c r="FL3" t="n">
-        <v>1.594675749455603</v>
+        <v>1.59466372997046</v>
       </c>
       <c r="FM3" t="n">
-        <v>336974.3850751775</v>
+        <v>336974.385459087</v>
       </c>
       <c r="FN3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="FO3" t="n">
-        <v>3788.704170173066</v>
+        <v>3788.706334027868</v>
       </c>
       <c r="FP3" t="n">
-        <v>-698132.3165952731</v>
+        <v>-698132.9472561089</v>
       </c>
       <c r="FQ3" t="n">
-        <v>717.8560592366803</v>
+        <v>717.8560565799125</v>
       </c>
       <c r="FR3" t="n">
-        <v>1006.776342139273</v>
+        <v>1006.776325392186</v>
       </c>
       <c r="FS3" t="n">
-        <v>1.402476623530643</v>
+        <v>1.402476605391865</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.9995304415161126</v>
+        <v>0.999530444988013</v>
       </c>
       <c r="FU3" t="n">
-        <v>344.8026690858455</v>
+        <v>344.8026666607401</v>
       </c>
       <c r="FV3" t="n">
-        <v>189589.2147866532</v>
+        <v>189587.7831366583</v>
       </c>
       <c r="FW3" t="n">
-        <v>5.274561641733212e-06</v>
+        <v>5.274601471969225e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>135181.7289541517</v>
+        <v>135180.7099011721</v>
       </c>
       <c r="FY3" t="n">
-        <v>7.39744940190224e-06</v>
+        <v>7.397505167202332e-06</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.003395616933194879</v>
+        <v>0.003395616865903544</v>
       </c>
       <c r="GA3" t="n">
-        <v>1.832924431620005e-05</v>
+        <v>1.83292440543443e-05</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.02606727416591088</v>
+        <v>0.02606727366250935</v>
       </c>
       <c r="GC3" t="n">
-        <v>135244.5236878023</v>
+        <v>135243.503702348</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.594675749455603</v>
+        <v>1.59466372997046</v>
       </c>
       <c r="GE3" t="n">
-        <v>1.594675749455603</v>
+        <v>1.59466372997046</v>
       </c>
       <c r="GF3" t="n">
-        <v>336974.3850751775</v>
+        <v>336974.385459087</v>
       </c>
       <c r="GG3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="GH3" t="n">
-        <v>3788.704170173066</v>
+        <v>3788.706334027868</v>
       </c>
       <c r="GI3" t="n">
-        <v>717.8560592366803</v>
+        <v>717.8560565799125</v>
       </c>
       <c r="GJ3" t="n">
-        <v>1006.776342139273</v>
+        <v>1006.776325392186</v>
       </c>
       <c r="GK3" t="n">
-        <v>344.8026690858455</v>
+        <v>344.8026666607401</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.9995304415161126</v>
+        <v>0.999530444988013</v>
       </c>
       <c r="GM3" t="n">
-        <v>1.832924431620005e-05</v>
+        <v>1.83292440543443e-05</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.02606727416591088</v>
+        <v>0.02606727366250935</v>
       </c>
       <c r="GO3" t="inlineStr">
         <is>
@@ -5355,97 +5355,97 @@
         <v>1</v>
       </c>
       <c r="GQ3" t="n">
-        <v>295.5936112670168</v>
+        <v>295.5936089018508</v>
       </c>
       <c r="GR3" t="n">
-        <v>135244.5236878023</v>
+        <v>135243.503702348</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.594675749455603</v>
+        <v>1.59466372997046</v>
       </c>
       <c r="GT3" t="n">
-        <v>336974.3850751775</v>
+        <v>336974.385459087</v>
       </c>
       <c r="GU3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="GV3" t="n">
-        <v>3788.704170173066</v>
+        <v>3788.706334027868</v>
       </c>
       <c r="GW3" t="n">
-        <v>-698132.3165952731</v>
+        <v>-698132.9472561089</v>
       </c>
       <c r="GX3" t="n">
-        <v>717.8560592366803</v>
+        <v>717.8560565799125</v>
       </c>
       <c r="GY3" t="n">
-        <v>1006.776342139273</v>
+        <v>1006.776325392186</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.402476623530643</v>
+        <v>1.402476605391865</v>
       </c>
       <c r="HA3" t="n">
-        <v>0.9995304415161126</v>
+        <v>0.999530444988013</v>
       </c>
       <c r="HB3" t="n">
-        <v>344.8026690858455</v>
+        <v>344.8026666607401</v>
       </c>
       <c r="HC3" t="n">
-        <v>189589.2147866532</v>
+        <v>189587.7831366583</v>
       </c>
       <c r="HD3" t="n">
-        <v>5.274561641733212e-06</v>
+        <v>5.274601471969225e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>135181.7289541517</v>
+        <v>135180.7099011721</v>
       </c>
       <c r="HF3" t="n">
-        <v>7.39744940190224e-06</v>
+        <v>7.397505167202332e-06</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.003395616933194879</v>
+        <v>0.003395616865903544</v>
       </c>
       <c r="HH3" t="n">
-        <v>1.832924431620005e-05</v>
+        <v>1.83292440543443e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.02606727416591088</v>
+        <v>0.02606727366250935</v>
       </c>
       <c r="HJ3" t="n">
-        <v>135244.5236878023</v>
+        <v>135243.503702348</v>
       </c>
       <c r="HK3" t="n">
-        <v>1.594675749455603</v>
+        <v>1.59466372997046</v>
       </c>
       <c r="HL3" t="n">
-        <v>1.594675749455603</v>
+        <v>1.59466372997046</v>
       </c>
       <c r="HM3" t="n">
-        <v>336974.3850751775</v>
+        <v>336974.385459087</v>
       </c>
       <c r="HN3" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="HO3" t="n">
-        <v>3788.704170173066</v>
+        <v>3788.706334027868</v>
       </c>
       <c r="HP3" t="n">
-        <v>717.8560592366803</v>
+        <v>717.8560565799125</v>
       </c>
       <c r="HQ3" t="n">
-        <v>1006.776342139273</v>
+        <v>1006.776325392186</v>
       </c>
       <c r="HR3" t="n">
-        <v>344.8026690858455</v>
+        <v>344.8026666607401</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.9995304415161126</v>
+        <v>0.999530444988013</v>
       </c>
       <c r="HT3" t="n">
-        <v>1.832924431620005e-05</v>
+        <v>1.83292440543443e-05</v>
       </c>
       <c r="HU3" t="n">
-        <v>0.02606727416591088</v>
+        <v>0.02606727366250935</v>
       </c>
       <c r="HV3" t="inlineStr">
         <is>
@@ -5456,166 +5456,166 @@
         <v>1</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.8416461665450725</v>
+        <v>0.8418592565567754</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.8416461665450725</v>
+        <v>0.8418592565567754</v>
       </c>
       <c r="HZ3" t="n">
-        <v>493279.29556957</v>
+        <v>493332.5141922241</v>
       </c>
       <c r="IA3" t="n">
-        <v>2.75875807418433</v>
+        <v>2.758867495250556</v>
       </c>
       <c r="IB3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.0158403132502914</v>
+        <v>0.01584079842274248</v>
       </c>
       <c r="ID3" t="n">
-        <v>-1.798815524306081e-07</v>
+        <v>-1.799058513555666e-07</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.01378750972892497</v>
+        <v>0.01378752517209607</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.0252326906790447</v>
+        <v>0.02523247406339989</v>
       </c>
       <c r="IG3" t="n">
         <v>0</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.05486033377670864</v>
+        <v>0.05486061775238708</v>
       </c>
       <c r="II3" t="n">
-        <v>-2.005458299425555e-12</v>
+        <v>1.229530366408937e-12</v>
       </c>
       <c r="IJ3" t="n">
         <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>383427.1339361058</v>
+        <v>383410.3304237285</v>
       </c>
       <c r="IL3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IM3" t="n">
-        <v>271.5285951125215</v>
+        <v>271.5887694781997</v>
       </c>
       <c r="IN3" t="n">
-        <v>112.2159185561972</v>
+        <v>112.2388364612884</v>
       </c>
       <c r="IO3" t="n">
-        <v>247.2556684615513</v>
+        <v>247.3113489035609</v>
       </c>
       <c r="IP3" t="n">
-        <v>65.58928237132116</v>
+        <v>65.58973428656066</v>
       </c>
       <c r="IQ3" t="n">
-        <v>138.9554585626367</v>
+        <v>139.0068088144335</v>
       </c>
       <c r="IR3" t="n">
-        <v>112.2159185561972</v>
+        <v>112.2388364612884</v>
       </c>
       <c r="IS3" t="n">
-        <v>81.95246846155129</v>
+        <v>82.00814890356088</v>
       </c>
       <c r="IT3" t="n">
-        <v>36.14104972503718</v>
+        <v>36.15401249040794</v>
       </c>
       <c r="IU3" t="n">
-        <v>258.8140738535184</v>
+        <v>258.7977585728812</v>
       </c>
       <c r="IV3" t="n">
-        <v>85017.40843347044</v>
+        <v>84998.0561329646</v>
       </c>
       <c r="IW3" t="n">
-        <v>1.145140316153093</v>
+        <v>1.144951901991937</v>
       </c>
       <c r="IX3" t="n">
-        <v>310678.6284876012</v>
+        <v>310666.9725924458</v>
       </c>
       <c r="IY3" t="n">
-        <v>384920.5421065995</v>
+        <v>384904.2012350541</v>
       </c>
       <c r="IZ3" t="n">
-        <v>3788.704170167885</v>
+        <v>3788.706334030221</v>
       </c>
       <c r="JA3" t="n">
-        <v>-595649.4188003646</v>
+        <v>-595604.5059028447</v>
       </c>
       <c r="JB3" t="n">
-        <v>716.5170134191153</v>
+        <v>716.5165790898885</v>
       </c>
       <c r="JC3" t="n">
-        <v>1005.178624578146</v>
+        <v>1005.178065164017</v>
       </c>
       <c r="JD3" t="n">
-        <v>1.402867769715026</v>
+        <v>1.402867839346834</v>
       </c>
       <c r="JE3" t="n">
-        <v>0.9993210569010496</v>
+        <v>0.9993209913583382</v>
       </c>
       <c r="JF3" t="n">
-        <v>322.6160896414317</v>
+        <v>322.6059075349526</v>
       </c>
       <c r="JG3" t="n">
-        <v>119187.511048736</v>
+        <v>119160.3786754528</v>
       </c>
       <c r="JH3" t="n">
-        <v>8.390140805869315e-06</v>
+        <v>8.392051209602284e-06</v>
       </c>
       <c r="JI3" t="n">
-        <v>84959.90400645339</v>
+        <v>84940.55914128954</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1.177025811992492e-05</v>
+        <v>1.177293874810274e-05</v>
       </c>
       <c r="JK3" t="n">
-        <v>0.003877242076633188</v>
+        <v>0.00387748592411372</v>
       </c>
       <c r="JL3" t="n">
-        <v>1.648994206772719e-05</v>
+        <v>1.648910374082551e-05</v>
       </c>
       <c r="JM3" t="n">
-        <v>0.02324805639897473</v>
+        <v>0.02324677894943858</v>
       </c>
       <c r="JN3" t="n">
-        <v>85017.40843347044</v>
+        <v>84998.0561329646</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.145140316153093</v>
+        <v>1.144951901991937</v>
       </c>
       <c r="JP3" t="n">
-        <v>1.145140316153093</v>
+        <v>1.144951901991937</v>
       </c>
       <c r="JQ3" t="n">
-        <v>310678.6284876012</v>
+        <v>310666.9725924458</v>
       </c>
       <c r="JR3" t="n">
-        <v>384920.5421065995</v>
+        <v>384904.2012350541</v>
       </c>
       <c r="JS3" t="n">
-        <v>3788.704170167885</v>
+        <v>3788.706334030221</v>
       </c>
       <c r="JT3" t="n">
-        <v>716.5170134191153</v>
+        <v>716.5165790898885</v>
       </c>
       <c r="JU3" t="n">
-        <v>1005.178624578146</v>
+        <v>1005.178065164017</v>
       </c>
       <c r="JV3" t="n">
-        <v>322.6160896414317</v>
+        <v>322.6059075349526</v>
       </c>
       <c r="JW3" t="n">
-        <v>0.9993210569010496</v>
+        <v>0.9993209913583382</v>
       </c>
       <c r="JX3" t="n">
-        <v>1.648994206772719e-05</v>
+        <v>1.648910374082551e-05</v>
       </c>
       <c r="JY3" t="n">
-        <v>0.02324805639897473</v>
+        <v>0.02324677894943858</v>
       </c>
       <c r="JZ3" t="inlineStr">
         <is>
@@ -5626,97 +5626,97 @@
         <v>1</v>
       </c>
       <c r="KB3" t="n">
-        <v>295.5936112671167</v>
+        <v>295.5936089017504</v>
       </c>
       <c r="KC3" t="n">
-        <v>135244.5236879534</v>
+        <v>135243.5037020578</v>
       </c>
       <c r="KD3" t="n">
-        <v>1.594675749456844</v>
+        <v>1.594663729967581</v>
       </c>
       <c r="KE3" t="n">
-        <v>336974.3850752491</v>
+        <v>336974.3854590154</v>
       </c>
       <c r="KF3" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="KG3" t="n">
-        <v>3788.704170173086</v>
+        <v>3788.706334028144</v>
       </c>
       <c r="KH3" t="n">
-        <v>-698132.3165955571</v>
+        <v>-698132.9472559108</v>
       </c>
       <c r="KI3" t="n">
-        <v>717.856059236685</v>
+        <v>717.8560565799075</v>
       </c>
       <c r="KJ3" t="n">
-        <v>1006.776342139278</v>
+        <v>1006.776325392179</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.402476623530641</v>
+        <v>1.402476605391864</v>
       </c>
       <c r="KL3" t="n">
-        <v>0.9995304415161133</v>
+        <v>0.9995304449880128</v>
       </c>
       <c r="KM3" t="n">
-        <v>344.8026690859038</v>
+        <v>344.8026666606814</v>
       </c>
       <c r="KN3" t="n">
-        <v>189589.2147868648</v>
+        <v>189587.7831362514</v>
       </c>
       <c r="KO3" t="n">
-        <v>5.274561641727324e-06</v>
+        <v>5.274601471980544e-06</v>
       </c>
       <c r="KP3" t="n">
-        <v>135181.7289543028</v>
+        <v>135180.7099008821</v>
       </c>
       <c r="KQ3" t="n">
-        <v>7.39744940189397e-06</v>
+        <v>7.397505167218204e-06</v>
       </c>
       <c r="KR3" t="n">
-        <v>0.003395616933193732</v>
+        <v>0.003395616865904684</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.832924431620492e-05</v>
+        <v>1.83292440543394e-05</v>
       </c>
       <c r="KT3" t="n">
-        <v>0.02606727416591838</v>
+        <v>0.02606727366250178</v>
       </c>
       <c r="KU3" t="n">
-        <v>135244.5236879534</v>
+        <v>135243.5037020578</v>
       </c>
       <c r="KV3" t="n">
-        <v>1.594675749456844</v>
+        <v>1.594663729967581</v>
       </c>
       <c r="KW3" t="n">
-        <v>1.594675749456844</v>
+        <v>1.594663729967581</v>
       </c>
       <c r="KX3" t="n">
-        <v>336974.3850752491</v>
+        <v>336974.3854590154</v>
       </c>
       <c r="KY3" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.4310883891</v>
       </c>
       <c r="KZ3" t="n">
-        <v>3788.704170173086</v>
+        <v>3788.706334028144</v>
       </c>
       <c r="LA3" t="n">
-        <v>717.856059236685</v>
+        <v>717.8560565799075</v>
       </c>
       <c r="LB3" t="n">
-        <v>1006.776342139278</v>
+        <v>1006.776325392179</v>
       </c>
       <c r="LC3" t="n">
-        <v>344.8026690859038</v>
+        <v>344.8026666606814</v>
       </c>
       <c r="LD3" t="n">
-        <v>0.9995304415161133</v>
+        <v>0.9995304449880128</v>
       </c>
       <c r="LE3" t="n">
-        <v>1.832924431620492e-05</v>
+        <v>1.83292440543394e-05</v>
       </c>
       <c r="LF3" t="n">
-        <v>0.02606727416591838</v>
+        <v>0.02606727366250178</v>
       </c>
       <c r="LG3" t="inlineStr">
         <is>
@@ -5727,97 +5727,97 @@
         <v>1</v>
       </c>
       <c r="LI3" t="n">
-        <v>268.4508427335743</v>
+        <v>268.4416545400923</v>
       </c>
       <c r="LJ3" t="n">
-        <v>96595.2140122712</v>
+        <v>96582.94097174903</v>
       </c>
       <c r="LK3" t="n">
-        <v>1.254324698884038</v>
+        <v>1.254208308400937</v>
       </c>
       <c r="LL3" t="n">
-        <v>317565.115764887</v>
+        <v>317558.5505971159</v>
       </c>
       <c r="LM3" t="n">
-        <v>394574.8518389763</v>
+        <v>394565.6476836344</v>
       </c>
       <c r="LN3" t="n">
-        <v>3788.704170174525</v>
+        <v>3788.706334029585</v>
       </c>
       <c r="LO3" t="n">
-        <v>-622505.9755125821</v>
+        <v>-622480.9491897948</v>
       </c>
       <c r="LP3" t="n">
-        <v>716.7954131962027</v>
+        <v>716.7951226847931</v>
       </c>
       <c r="LQ3" t="n">
-        <v>1005.524043984637</v>
+        <v>1005.523676647519</v>
       </c>
       <c r="LR3" t="n">
-        <v>1.402804796840131</v>
+        <v>1.402804852914286</v>
       </c>
       <c r="LS3" t="n">
-        <v>0.9993661456261856</v>
+        <v>0.9993661041443439</v>
       </c>
       <c r="LT3" t="n">
-        <v>328.5749421134575</v>
+        <v>328.5693118651518</v>
       </c>
       <c r="LU3" t="n">
-        <v>135418.7666775782</v>
+        <v>135401.5605603883</v>
       </c>
       <c r="LV3" t="n">
-        <v>7.384500867453059e-06</v>
+        <v>7.38543925093098e-06</v>
       </c>
       <c r="LW3" t="n">
-        <v>96534.29114486491</v>
+        <v>96522.02177594091</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.035901323913326e-05</v>
+        <v>1.036033002210963e-05</v>
       </c>
       <c r="LY3" t="n">
-        <v>0.003738322123530907</v>
+        <v>0.003738449737457708</v>
       </c>
       <c r="LZ3" t="n">
-        <v>1.698146697173416e-05</v>
+        <v>1.698100157909337e-05</v>
       </c>
       <c r="MA3" t="n">
-        <v>0.02399818153562941</v>
+        <v>0.02399747007475989</v>
       </c>
       <c r="MB3" t="n">
-        <v>96595.2140122712</v>
+        <v>96582.94097174903</v>
       </c>
       <c r="MC3" t="n">
-        <v>1.254324698884038</v>
+        <v>1.254208308400937</v>
       </c>
       <c r="MD3" t="n">
-        <v>1.254324698884038</v>
+        <v>1.254208308400937</v>
       </c>
       <c r="ME3" t="n">
-        <v>317565.115764887</v>
+        <v>317558.5505971159</v>
       </c>
       <c r="MF3" t="n">
-        <v>394574.8518389763</v>
+        <v>394565.6476836344</v>
       </c>
       <c r="MG3" t="n">
-        <v>3788.704170174525</v>
+        <v>3788.706334029585</v>
       </c>
       <c r="MH3" t="n">
-        <v>716.7954131962027</v>
+        <v>716.7951226847931</v>
       </c>
       <c r="MI3" t="n">
-        <v>1005.524043984637</v>
+        <v>1005.523676647519</v>
       </c>
       <c r="MJ3" t="n">
-        <v>328.5749421134575</v>
+        <v>328.5693118651518</v>
       </c>
       <c r="MK3" t="n">
-        <v>0.9993661456261856</v>
+        <v>0.9993661041443439</v>
       </c>
       <c r="ML3" t="n">
-        <v>1.698146697173416e-05</v>
+        <v>1.698100157909337e-05</v>
       </c>
       <c r="MM3" t="n">
-        <v>0.02399818153562941</v>
+        <v>0.02399747007475989</v>
       </c>
       <c r="MN3" t="inlineStr">
         <is>
@@ -5828,139 +5828,139 @@
         <v>1</v>
       </c>
       <c r="MP3" t="n">
-        <v>0.8416461665452246</v>
+        <v>0.8418592565567774</v>
       </c>
       <c r="MQ3" t="n">
-        <v>0.430714595533897</v>
+        <v>0.4308873630882685</v>
       </c>
       <c r="MR3" t="n">
-        <v>251471.9781502869</v>
+        <v>251536.305155823</v>
       </c>
       <c r="MS3" t="n">
-        <v>2.758758074181663</v>
+        <v>2.75886749517809</v>
       </c>
       <c r="MT3" t="n">
-        <v>380912.2778737562</v>
+        <v>380903.0737184142</v>
       </c>
       <c r="MU3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MV3" t="n">
-        <v>142.7385981556723</v>
+        <v>142.7373371993063</v>
       </c>
       <c r="MW3" t="n">
-        <v>127.9801083037022</v>
+        <v>127.9806071084682</v>
       </c>
       <c r="MX3" t="n">
-        <v>-63.20917086957525</v>
+        <v>-63.20531334386664</v>
       </c>
       <c r="MY3" t="n">
-        <v>-26.2846924645093</v>
+        <v>-26.28321546202279</v>
       </c>
       <c r="MZ3" t="n">
-        <v>261.9099306285686</v>
+        <v>261.9068087440191</v>
       </c>
       <c r="NA3" t="n">
-        <v>127.9801083037022</v>
+        <v>127.9806071084682</v>
       </c>
       <c r="NB3" t="n">
-        <v>-228.5123708695752</v>
+        <v>-228.5085133438666</v>
       </c>
       <c r="NC3" t="n">
-        <v>-60.74865787088906</v>
+        <v>-60.74815030619986</v>
       </c>
       <c r="ND3" t="n">
-        <v>234.1959632382698</v>
+        <v>234.1876136487344</v>
       </c>
       <c r="NE3" t="n">
-        <v>57500.00000105576</v>
+        <v>57500.00000109497</v>
       </c>
       <c r="NF3" t="n">
-        <v>0.8559542645881998</v>
+        <v>0.8559848782237964</v>
       </c>
       <c r="NG3" t="n">
-        <v>293099.9595731283</v>
+        <v>293093.9755803781</v>
       </c>
       <c r="NH3" t="n">
-        <v>360276.4459578525</v>
+        <v>360268.0594501888</v>
       </c>
       <c r="NI3" t="n">
-        <v>3800.82410755151</v>
+        <v>3800.788297125509</v>
       </c>
       <c r="NJ3" t="n">
-        <v>-529861.2170094108</v>
+        <v>-529829.4818376709</v>
       </c>
       <c r="NK3" t="n">
-        <v>715.9877378562869</v>
+        <v>715.9876382709256</v>
       </c>
       <c r="NL3" t="n">
-        <v>1004.421540455796</v>
+        <v>1004.421559694304</v>
       </c>
       <c r="NM3" t="n">
-        <v>1.402847405547892</v>
+        <v>1.402847627537163</v>
       </c>
       <c r="NN3" t="n">
-        <v>0.9992672396755993</v>
+        <v>0.9992671276793059</v>
       </c>
       <c r="NO3" t="n">
-        <v>306.870368802167</v>
+        <v>306.8648883458423</v>
       </c>
       <c r="NP3" t="n">
-        <v>80604.7194236027</v>
+        <v>80604.72314469662</v>
       </c>
       <c r="NQ3" t="n">
-        <v>1.240622146135999e-05</v>
+        <v>1.240622088863033e-05</v>
       </c>
       <c r="NR3" t="n">
-        <v>57457.93812272974</v>
+        <v>57457.93168300549</v>
       </c>
       <c r="NS3" t="n">
-        <v>1.740403558972143e-05</v>
+        <v>1.740403754031705e-05</v>
       </c>
       <c r="NT3" t="n">
-        <v>0.004283350728418686</v>
+        <v>0.004283504806932913</v>
       </c>
       <c r="NU3" t="n">
-        <v>1.520032149774158e-05</v>
+        <v>1.519987687453105e-05</v>
       </c>
       <c r="NV3" t="n">
-        <v>0.02129076119270823</v>
+        <v>0.02129009051978806</v>
       </c>
       <c r="NW3" t="n">
-        <v>57500.00000105576</v>
+        <v>57500.00000109497</v>
       </c>
       <c r="NX3" t="n">
-        <v>0.8559542645881998</v>
+        <v>0.8559848782237964</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.8559542645881998</v>
+        <v>0.8559848782237964</v>
       </c>
       <c r="NZ3" t="n">
-        <v>293099.9595731283</v>
+        <v>293093.9755803781</v>
       </c>
       <c r="OA3" t="n">
-        <v>360276.4459578525</v>
+        <v>360268.0594501888</v>
       </c>
       <c r="OB3" t="n">
-        <v>3800.82410755151</v>
+        <v>3800.788297125509</v>
       </c>
       <c r="OC3" t="n">
-        <v>715.9877378562869</v>
+        <v>715.9876382709256</v>
       </c>
       <c r="OD3" t="n">
-        <v>1004.421540455796</v>
+        <v>1004.421559694304</v>
       </c>
       <c r="OE3" t="n">
-        <v>306.870368802167</v>
+        <v>306.8648883458423</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.9992672396755993</v>
+        <v>0.9992671276793059</v>
       </c>
       <c r="OG3" t="n">
-        <v>1.520032149774158e-05</v>
+        <v>1.519987687453105e-05</v>
       </c>
       <c r="OH3" t="n">
-        <v>0.02129076119270823</v>
+        <v>0.02129009051978806</v>
       </c>
       <c r="OI3" t="inlineStr">
         <is>
@@ -5971,97 +5971,97 @@
         <v>1</v>
       </c>
       <c r="OK3" t="n">
-        <v>244.3693679523523</v>
+        <v>244.3608418726936</v>
       </c>
       <c r="OL3" t="n">
-        <v>66701.60705615685</v>
+        <v>66701.78245420344</v>
       </c>
       <c r="OM3" t="n">
-        <v>0.9515664016073745</v>
+        <v>0.9516022143399525</v>
       </c>
       <c r="ON3" t="n">
-        <v>300366.9601152397</v>
+        <v>300360.8473294451</v>
       </c>
       <c r="OO3" t="n">
-        <v>370463.599659769</v>
+        <v>370455.0331657705</v>
       </c>
       <c r="OP3" t="n">
-        <v>3800.824107560185</v>
+        <v>3800.788297143913</v>
       </c>
       <c r="OQ3" t="n">
-        <v>-558341.3852027771</v>
+        <v>-558308.7949041974</v>
       </c>
       <c r="OR3" t="n">
-        <v>716.1704227777943</v>
+        <v>716.1702874377348</v>
       </c>
       <c r="OS3" t="n">
-        <v>1004.670277449775</v>
+        <v>1004.670267267635</v>
       </c>
       <c r="OT3" t="n">
-        <v>1.402836874431343</v>
+        <v>1.402837125318443</v>
       </c>
       <c r="OU3" t="n">
-        <v>0.999296123368554</v>
+        <v>0.9992960089296469</v>
       </c>
       <c r="OV3" t="n">
-        <v>313.4726442096972</v>
+        <v>313.4671677501549</v>
       </c>
       <c r="OW3" t="n">
-        <v>93505.76634293051</v>
+        <v>93506.01824358142</v>
       </c>
       <c r="OX3" t="n">
-        <v>1.069452761161831e-05</v>
+        <v>1.069449880108271e-05</v>
       </c>
       <c r="OY3" t="n">
-        <v>66654.76795428134</v>
+        <v>66654.93559871086</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1.500267768820232e-05</v>
+        <v>1.50026399548324e-05</v>
       </c>
       <c r="PA3" t="n">
-        <v>0.004105379939328951</v>
+        <v>0.004105524542187845</v>
       </c>
       <c r="PB3" t="n">
-        <v>1.57390745583069e-05</v>
+        <v>1.573862799734983e-05</v>
       </c>
       <c r="PC3" t="n">
-        <v>0.02210627393316306</v>
+        <v>0.02210559805611934</v>
       </c>
       <c r="PD3" t="n">
-        <v>66701.60705615685</v>
+        <v>66701.78245420344</v>
       </c>
       <c r="PE3" t="n">
-        <v>0.9515664016073745</v>
+        <v>0.9516022143399525</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.9515664016073745</v>
+        <v>0.9516022143399525</v>
       </c>
       <c r="PG3" t="n">
-        <v>300366.9601152397</v>
+        <v>300360.8473294451</v>
       </c>
       <c r="PH3" t="n">
-        <v>370463.599659769</v>
+        <v>370455.0331657705</v>
       </c>
       <c r="PI3" t="n">
-        <v>3800.824107560185</v>
+        <v>3800.788297143913</v>
       </c>
       <c r="PJ3" t="n">
-        <v>716.1704227777943</v>
+        <v>716.1702874377348</v>
       </c>
       <c r="PK3" t="n">
-        <v>1004.670277449775</v>
+        <v>1004.670267267635</v>
       </c>
       <c r="PL3" t="n">
-        <v>313.4726442096972</v>
+        <v>313.4671677501549</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.999296123368554</v>
+        <v>0.9992960089296469</v>
       </c>
       <c r="PN3" t="n">
-        <v>1.57390745583069e-05</v>
+        <v>1.573862799734983e-05</v>
       </c>
       <c r="PO3" t="n">
-        <v>0.02210627393316306</v>
+        <v>0.02210559805611934</v>
       </c>
       <c r="PP3" t="inlineStr">
         <is>
@@ -6072,97 +6072,97 @@
         <v>1</v>
       </c>
       <c r="PR3" t="n">
-        <v>268.4395759487725</v>
+        <v>268.4304229911872</v>
       </c>
       <c r="PS3" t="n">
-        <v>92599.1950156674</v>
+        <v>92599.68636466046</v>
       </c>
       <c r="PT3" t="n">
-        <v>1.202454149338693</v>
+        <v>1.20250167501807</v>
       </c>
       <c r="PU3" t="n">
-        <v>317566.3479666302</v>
+        <v>317559.7787618625</v>
       </c>
       <c r="PV3" t="n">
-        <v>394574.8518389763</v>
+        <v>394565.6476836409</v>
       </c>
       <c r="PW3" t="n">
-        <v>3800.82410755844</v>
+        <v>3800.788297142167</v>
       </c>
       <c r="PX3" t="n">
-        <v>-625716.7598498829</v>
+        <v>-625681.5626181853</v>
       </c>
       <c r="PY3" t="n">
-        <v>716.7822198702618</v>
+        <v>716.7819703402347</v>
       </c>
       <c r="PZ3" t="n">
-        <v>1005.441428070839</v>
+        <v>1005.441317835767</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.402715357884889</v>
+        <v>1.402715692414131</v>
       </c>
       <c r="QB3" t="n">
-        <v>0.9993920992963919</v>
+        <v>0.9993919799073226</v>
       </c>
       <c r="QC3" t="n">
-        <v>328.566063330788</v>
+        <v>328.5604616968133</v>
       </c>
       <c r="QD3" t="n">
-        <v>129811.7288738515</v>
+        <v>129812.433152496</v>
       </c>
       <c r="QE3" t="n">
-        <v>7.703464152856175e-06</v>
+        <v>7.703422358821817e-06</v>
       </c>
       <c r="QF3" t="n">
-        <v>92543.1721725715</v>
+        <v>92543.6521844876</v>
       </c>
       <c r="QG3" t="n">
-        <v>1.080576747612706e-05</v>
+        <v>1.080571142801324e-05</v>
       </c>
       <c r="QH3" t="n">
-        <v>0.003737932956261591</v>
+        <v>0.003738061760692722</v>
       </c>
       <c r="QI3" t="n">
-        <v>1.698029070551241e-05</v>
+        <v>1.69798290130946e-05</v>
       </c>
       <c r="QJ3" t="n">
-        <v>0.02399589602279314</v>
+        <v>0.02399519174240951</v>
       </c>
       <c r="QK3" t="n">
-        <v>92599.1950156674</v>
+        <v>92599.68636466046</v>
       </c>
       <c r="QL3" t="n">
-        <v>1.202454149338693</v>
+        <v>1.20250167501807</v>
       </c>
       <c r="QM3" t="n">
-        <v>1.202454149338693</v>
+        <v>1.20250167501807</v>
       </c>
       <c r="QN3" t="n">
-        <v>317566.3479666302</v>
+        <v>317559.7787618625</v>
       </c>
       <c r="QO3" t="n">
-        <v>394574.8518389763</v>
+        <v>394565.6476836409</v>
       </c>
       <c r="QP3" t="n">
-        <v>3800.82410755844</v>
+        <v>3800.788297142167</v>
       </c>
       <c r="QQ3" t="n">
-        <v>716.7822198702618</v>
+        <v>716.7819703402347</v>
       </c>
       <c r="QR3" t="n">
-        <v>1005.441428070839</v>
+        <v>1005.441317835767</v>
       </c>
       <c r="QS3" t="n">
-        <v>328.566063330788</v>
+        <v>328.5604616968133</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.9993920992963919</v>
+        <v>0.9993919799073226</v>
       </c>
       <c r="QU3" t="n">
-        <v>1.698029070551241e-05</v>
+        <v>1.69798290130946e-05</v>
       </c>
       <c r="QV3" t="n">
-        <v>0.02399589602279314</v>
+        <v>0.02399519174240951</v>
       </c>
       <c r="QW3" t="inlineStr">
         <is>
@@ -6173,46 +6173,46 @@
         <v>1</v>
       </c>
       <c r="QY3" t="n">
-        <v>0.4651429810992698</v>
+        <v>0.4651471791664831</v>
       </c>
       <c r="QZ3" t="n">
-        <v>0.8534871960786039</v>
+        <v>0.8534922654586841</v>
       </c>
       <c r="RA3" t="n">
-        <v>384347.5909203094</v>
+        <v>384367.9989516109</v>
       </c>
       <c r="RB3" t="n">
-        <v>2.758758074241877</v>
+        <v>2.758867495308171</v>
       </c>
       <c r="RC3" t="n">
-        <v>380912.2778737562</v>
+        <v>380903.0737184142</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.02499269762197985</v>
+        <v>0.02500529768128579</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.002208533670272645</v>
+        <v>0.001817446636768311</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.01186225820080306</v>
+        <v>0.01186162603736667</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.03219276749762146</v>
+        <v>0.03219816760946665</v>
       </c>
       <c r="RH3" t="n">
-        <v>0.04259304904397022</v>
+        <v>0.04260151329431097</v>
       </c>
       <c r="RI3" t="n">
-        <v>0.1138493060346472</v>
+        <v>0.1134840512591984</v>
       </c>
       <c r="RJ3" t="n">
-        <v>5.172323680469049e-11</v>
+        <v>-5.202525910075195e-11</v>
       </c>
       <c r="RK3" t="n">
         <v>0</v>
       </c>
       <c r="RL3" t="n">
-        <v>357455.0619713932</v>
+        <v>357455.5626616152</v>
       </c>
     </row>
   </sheetData>
@@ -8686,34 +8686,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01582685411753925</v>
+        <v>0.01582718102009755</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.792061523445169e-07</v>
+        <v>-1.792225945082364e-07</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01378707802302663</v>
+        <v>0.01378708858525298</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02523875689376477</v>
+        <v>0.02523860822400137</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0548525098281783</v>
+        <v>0.05485269860675739</v>
       </c>
       <c r="H2" t="n">
-        <v>9.680304474679602e-11</v>
+        <v>2.528426773507064e-11</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.75758197250586</v>
+        <v>81.75758171077693</v>
       </c>
       <c r="K2" t="n">
-        <v>81.75758197250586</v>
+        <v>81.75758171077693</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8722,10 +8722,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>81.75758197250586</v>
+        <v>81.75758171077693</v>
       </c>
       <c r="O2" t="n">
-        <v>81.75758197250586</v>
+        <v>81.75758171077693</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8734,97 +8734,97 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>292.2676180524248</v>
+        <v>292.2676180737623</v>
       </c>
       <c r="S2" t="n">
-        <v>132637.8394056616</v>
+        <v>132637.8394395089</v>
       </c>
       <c r="T2" t="n">
-        <v>1.581790095829644</v>
+        <v>1.581790096117578</v>
       </c>
       <c r="U2" t="n">
-        <v>334589.2834607307</v>
+        <v>334589.2834759946</v>
       </c>
       <c r="V2" t="n">
-        <v>418442.2799836943</v>
+        <v>418442.2800050927</v>
       </c>
       <c r="W2" t="n">
         <v>3782.917347723465</v>
       </c>
       <c r="X2" t="n">
-        <v>-687181.962524639</v>
+        <v>-687181.9625839589</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.7090713694943</v>
+        <v>717.7090713704588</v>
       </c>
       <c r="Z2" t="n">
-        <v>1006.64320910234</v>
+        <v>1006.643209103459</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402578355574518</v>
+        <v>1.402578355574193</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9994973723754993</v>
+        <v>0.9994973723756482</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.8584121104047</v>
+        <v>342.8584121229318</v>
       </c>
       <c r="AD2" t="n">
-        <v>185942.4165420987</v>
+        <v>185942.4165895336</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.378009055688446e-06</v>
+        <v>5.378009054316489e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>132571.8565405451</v>
+        <v>132571.8565743956</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.543079097592368e-06</v>
+        <v>7.54307909566634e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003434455038835482</v>
+        <v>0.003434455038585148</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.816725855948447e-05</v>
+        <v>1.816725856052863e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02581791189976063</v>
+        <v>0.02581791190136892</v>
       </c>
       <c r="AK2" t="n">
-        <v>132637.8394056616</v>
+        <v>132637.8394395089</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.581790095829644</v>
+        <v>1.581790096117578</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.581790095829644</v>
+        <v>1.581790096117578</v>
       </c>
       <c r="AN2" t="n">
-        <v>334589.2834607307</v>
+        <v>334589.2834759946</v>
       </c>
       <c r="AO2" t="n">
-        <v>418442.2799836943</v>
+        <v>418442.2800050927</v>
       </c>
       <c r="AP2" t="n">
         <v>3782.917347723465</v>
       </c>
       <c r="AQ2" t="n">
-        <v>717.7090713694943</v>
+        <v>717.7090713704588</v>
       </c>
       <c r="AR2" t="n">
-        <v>1006.64320910234</v>
+        <v>1006.643209103459</v>
       </c>
       <c r="AS2" t="n">
-        <v>342.8584121104047</v>
+        <v>342.8584121229318</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9994973723754993</v>
+        <v>0.9994973723756482</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.816725855948447e-05</v>
+        <v>1.816725856052863e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02581791189976063</v>
+        <v>0.02581791190136892</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
@@ -8835,34 +8835,34 @@
         <v>1</v>
       </c>
       <c r="AY2" t="n">
-        <v>295.5999999999883</v>
+        <v>295.5999999999884</v>
       </c>
       <c r="AZ2" t="n">
-        <v>137999.9999950256</v>
+        <v>137999.9999950253</v>
       </c>
       <c r="BA2" t="n">
-        <v>1.627145819753687</v>
+        <v>1.627145819753683</v>
       </c>
       <c r="BB2" t="n">
         <v>336973.3475828228</v>
       </c>
       <c r="BC2" t="n">
-        <v>421784.431088489</v>
+        <v>421784.4310884891</v>
       </c>
       <c r="BD2" t="n">
-        <v>3782.917347723356</v>
+        <v>3782.917347723357</v>
       </c>
       <c r="BE2" t="n">
-        <v>-696445.9368984908</v>
+        <v>-696445.9368984913</v>
       </c>
       <c r="BF2" t="n">
-        <v>717.8632360362506</v>
+        <v>717.8632360362507</v>
       </c>
       <c r="BG2" t="n">
         <v>1006.821582550243</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.402525623278194</v>
+        <v>1.402525623278193</v>
       </c>
       <c r="BI2" t="n">
         <v>0.9995210660216013</v>
@@ -8871,46 +8871,46 @@
         <v>344.8092213939903</v>
       </c>
       <c r="BK2" t="n">
-        <v>193456.8974367829</v>
+        <v>193456.8974367824</v>
       </c>
       <c r="BL2" t="n">
-        <v>5.169110087309119e-06</v>
+        <v>5.169110087309132e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>137934.6617458627</v>
+        <v>137934.6617458624</v>
       </c>
       <c r="BN2" t="n">
-        <v>7.24980934699682e-06</v>
+        <v>7.249809346996836e-06</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.003395798695746387</v>
+        <v>0.003395798695746386</v>
       </c>
       <c r="BP2" t="n">
         <v>1.83299517401163e-05</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.02606863419705881</v>
+        <v>0.02606863419705882</v>
       </c>
       <c r="BR2" t="n">
-        <v>137999.9999950256</v>
+        <v>137999.9999950253</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.627145819753687</v>
+        <v>1.627145819753683</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.627145819753687</v>
+        <v>1.627145819753683</v>
       </c>
       <c r="BU2" t="n">
         <v>336973.3475828228</v>
       </c>
       <c r="BV2" t="n">
-        <v>421784.431088489</v>
+        <v>421784.4310884891</v>
       </c>
       <c r="BW2" t="n">
-        <v>3782.917347723356</v>
+        <v>3782.917347723357</v>
       </c>
       <c r="BX2" t="n">
-        <v>717.8632360362506</v>
+        <v>717.8632360362507</v>
       </c>
       <c r="BY2" t="n">
         <v>1006.821582550243</v>
@@ -8925,7 +8925,7 @@
         <v>1.83299517401163e-05</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.02606863419705881</v>
+        <v>0.02606863419705882</v>
       </c>
       <c r="CD2" t="inlineStr">
         <is>
@@ -8936,34 +8936,34 @@
         <v>1</v>
       </c>
       <c r="CF2" t="n">
-        <v>295.5999999999883</v>
+        <v>295.5999999999884</v>
       </c>
       <c r="CG2" t="n">
-        <v>137999.9999950256</v>
+        <v>137999.9999950253</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.627145819753687</v>
+        <v>1.627145819753683</v>
       </c>
       <c r="CI2" t="n">
         <v>336973.3475828228</v>
       </c>
       <c r="CJ2" t="n">
-        <v>421784.431088489</v>
+        <v>421784.4310884891</v>
       </c>
       <c r="CK2" t="n">
-        <v>3782.917347723356</v>
+        <v>3782.917347723357</v>
       </c>
       <c r="CL2" t="n">
-        <v>-696445.9368984908</v>
+        <v>-696445.9368984913</v>
       </c>
       <c r="CM2" t="n">
-        <v>717.8632360362506</v>
+        <v>717.8632360362507</v>
       </c>
       <c r="CN2" t="n">
         <v>1006.821582550243</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.402525623278194</v>
+        <v>1.402525623278193</v>
       </c>
       <c r="CP2" t="n">
         <v>0.9995210660216013</v>
@@ -8972,46 +8972,46 @@
         <v>344.8092213939903</v>
       </c>
       <c r="CR2" t="n">
-        <v>193456.8974367829</v>
+        <v>193456.8974367824</v>
       </c>
       <c r="CS2" t="n">
-        <v>5.169110087309119e-06</v>
+        <v>5.169110087309132e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>137934.6617458627</v>
+        <v>137934.6617458624</v>
       </c>
       <c r="CU2" t="n">
-        <v>7.24980934699682e-06</v>
+        <v>7.249809346996836e-06</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.003395798695746387</v>
+        <v>0.003395798695746386</v>
       </c>
       <c r="CW2" t="n">
         <v>1.83299517401163e-05</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.02606863419705881</v>
+        <v>0.02606863419705882</v>
       </c>
       <c r="CY2" t="n">
-        <v>137999.9999950256</v>
+        <v>137999.9999950253</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.627145819753687</v>
+        <v>1.627145819753683</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.627145819753687</v>
+        <v>1.627145819753683</v>
       </c>
       <c r="DB2" t="n">
         <v>336973.3475828228</v>
       </c>
       <c r="DC2" t="n">
-        <v>421784.431088489</v>
+        <v>421784.4310884891</v>
       </c>
       <c r="DD2" t="n">
-        <v>3782.917347723356</v>
+        <v>3782.917347723357</v>
       </c>
       <c r="DE2" t="n">
-        <v>717.8632360362506</v>
+        <v>717.8632360362507</v>
       </c>
       <c r="DF2" t="n">
         <v>1006.821582550243</v>
@@ -9026,7 +9026,7 @@
         <v>1.83299517401163e-05</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.02606863419705881</v>
+        <v>0.02606863419705882</v>
       </c>
       <c r="DK2" t="inlineStr">
         <is>
@@ -9037,16 +9037,16 @@
         <v>1</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.2384587313149513</v>
+        <v>0.2384587305428655</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.2384587313149513</v>
+        <v>0.2384587305428655</v>
       </c>
       <c r="DO2" t="n">
-        <v>186219.5328629724</v>
+        <v>186219.5322900262</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.776369942663647</v>
+        <v>2.776369934281094</v>
       </c>
       <c r="DQ2" t="n">
         <v>421784.4310885895</v>
@@ -9055,121 +9055,121 @@
         <v>0</v>
       </c>
       <c r="DS2" t="n">
-        <v>309.3780707285844</v>
+        <v>309.3780802466105</v>
       </c>
       <c r="DT2" t="n">
-        <v>126.4136388287537</v>
+        <v>126.4136427178733</v>
       </c>
       <c r="DU2" t="n">
-        <v>282.3727723521062</v>
+        <v>282.3727810393135</v>
       </c>
       <c r="DV2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW2" t="n">
-        <v>309.3780707285844</v>
+        <v>309.3780802466105</v>
       </c>
       <c r="DX2" t="n">
-        <v>126.4136388287537</v>
+        <v>126.4136427178733</v>
       </c>
       <c r="DY2" t="n">
-        <v>282.3727723521062</v>
+        <v>282.3727810393135</v>
       </c>
       <c r="DZ2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA2" t="n">
-        <v>247.8365068243907</v>
+        <v>247.8365038831052</v>
       </c>
       <c r="EB2" t="n">
-        <v>72726.24001762702</v>
+        <v>72726.23674120038</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.023014693291106</v>
+        <v>1.023014659351722</v>
       </c>
       <c r="ED2" t="n">
-        <v>302836.913115782</v>
+        <v>302836.911015355</v>
       </c>
       <c r="EE2" t="n">
-        <v>373927.035764619</v>
+        <v>373927.0328199503</v>
       </c>
       <c r="EF2" t="n">
-        <v>3790.093060431409</v>
+        <v>3790.093061472614</v>
       </c>
       <c r="EG2" t="n">
-        <v>-565396.3888720657</v>
+        <v>-565396.3809270371</v>
       </c>
       <c r="EH2" t="n">
-        <v>716.2529430973088</v>
+        <v>716.2529430331238</v>
       </c>
       <c r="EI2" t="n">
-        <v>1004.831581262175</v>
+        <v>1004.831581172419</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.402900457088468</v>
+        <v>1.402900457088872</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.9992812859048608</v>
+        <v>0.9992812858970577</v>
       </c>
       <c r="EL2" t="n">
-        <v>315.6911167521937</v>
+        <v>315.6911148764621</v>
       </c>
       <c r="EM2" t="n">
-        <v>101954.5458101001</v>
+        <v>101954.5412161113</v>
       </c>
       <c r="EN2" t="n">
-        <v>9.808292431242777e-06</v>
+        <v>9.808292873196469e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>72674.11261786391</v>
+        <v>72674.10934320668</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.376005793504786e-05</v>
+        <v>1.376005855506885e-05</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.00404855941438178</v>
+        <v>0.004048559462282023</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.592113126551409e-05</v>
+        <v>1.592113111178773e-05</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.02238288388502312</v>
+        <v>0.02238288365160573</v>
       </c>
       <c r="ET2" t="n">
-        <v>72726.24001762702</v>
+        <v>72726.23674120038</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.023014693291106</v>
+        <v>1.023014659351722</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.023014693291106</v>
+        <v>1.023014659351722</v>
       </c>
       <c r="EW2" t="n">
-        <v>302836.913115782</v>
+        <v>302836.911015355</v>
       </c>
       <c r="EX2" t="n">
-        <v>373927.035764619</v>
+        <v>373927.0328199503</v>
       </c>
       <c r="EY2" t="n">
-        <v>3790.093060431409</v>
+        <v>3790.093061472614</v>
       </c>
       <c r="EZ2" t="n">
-        <v>716.2529430973088</v>
+        <v>716.2529430331238</v>
       </c>
       <c r="FA2" t="n">
-        <v>1004.831581262175</v>
+        <v>1004.831581172419</v>
       </c>
       <c r="FB2" t="n">
-        <v>315.6911167521937</v>
+        <v>315.6911148764621</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.9992812859048608</v>
+        <v>0.9992812858970577</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.592113126551409e-05</v>
+        <v>1.592113111178773e-05</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.02238288388502312</v>
+        <v>0.02238288365160573</v>
       </c>
       <c r="FF2" t="inlineStr">
         <is>
@@ -9180,97 +9180,97 @@
         <v>1</v>
       </c>
       <c r="FH2" t="n">
-        <v>295.5920968660129</v>
+        <v>295.5920968648803</v>
       </c>
       <c r="FI2" t="n">
-        <v>134591.4169760419</v>
+        <v>134591.4164876136</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.586979532176021</v>
+        <v>1.586979526420359</v>
       </c>
       <c r="FK2" t="n">
-        <v>336974.6309323552</v>
+        <v>336974.630932539</v>
       </c>
       <c r="FL2" t="n">
         <v>421784.4310886899</v>
       </c>
       <c r="FM2" t="n">
-        <v>3790.093060441057</v>
+        <v>3790.093061482262</v>
       </c>
       <c r="FN2" t="n">
-        <v>-698537.1239644063</v>
+        <v>-698537.1242678855</v>
       </c>
       <c r="FO2" t="n">
-        <v>717.854358061912</v>
+        <v>717.8543580606397</v>
       </c>
       <c r="FP2" t="n">
-        <v>1006.765618727585</v>
+        <v>1006.765618719565</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.402465008982721</v>
+        <v>1.402465008974035</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.9995326648219844</v>
+        <v>0.9995326648236473</v>
       </c>
       <c r="FS2" t="n">
-        <v>344.8011163646094</v>
+        <v>344.8011163634482</v>
       </c>
       <c r="FT2" t="n">
-        <v>188672.5208512826</v>
+        <v>188672.5201657338</v>
       </c>
       <c r="FU2" t="n">
-        <v>5.30018889601963e-06</v>
+        <v>5.300188915278069e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>134529.2179432956</v>
+        <v>134529.2174553117</v>
       </c>
       <c r="FW2" t="n">
-        <v>7.43332946766629e-06</v>
+        <v>7.433329494629542e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.003395573843627269</v>
+        <v>0.003395573843595044</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.83290766525831e-05</v>
+        <v>1.832907665245771e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.02606695184440513</v>
+        <v>0.02606695184416408</v>
       </c>
       <c r="GA2" t="n">
-        <v>134591.4169760419</v>
+        <v>134591.4164876136</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.586979532176021</v>
+        <v>1.586979526420359</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.586979532176021</v>
+        <v>1.586979526420359</v>
       </c>
       <c r="GD2" t="n">
-        <v>336974.6309323552</v>
+        <v>336974.630932539</v>
       </c>
       <c r="GE2" t="n">
         <v>421784.4310886899</v>
       </c>
       <c r="GF2" t="n">
-        <v>3790.093060441057</v>
+        <v>3790.093061482262</v>
       </c>
       <c r="GG2" t="n">
-        <v>717.854358061912</v>
+        <v>717.8543580606397</v>
       </c>
       <c r="GH2" t="n">
-        <v>1006.765618727585</v>
+        <v>1006.765618719565</v>
       </c>
       <c r="GI2" t="n">
-        <v>344.8011163646094</v>
+        <v>344.8011163634482</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.9995326648219844</v>
+        <v>0.9995326648236473</v>
       </c>
       <c r="GK2" t="n">
-        <v>1.83290766525831e-05</v>
+        <v>1.832907665245771e-05</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.02606695184440513</v>
+        <v>0.02606695184416408</v>
       </c>
       <c r="GM2" t="inlineStr">
         <is>
@@ -9281,97 +9281,97 @@
         <v>1</v>
       </c>
       <c r="GO2" t="n">
-        <v>295.5920968660129</v>
+        <v>295.5920968648803</v>
       </c>
       <c r="GP2" t="n">
-        <v>134591.4169760419</v>
+        <v>134591.4164876136</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.586979532176021</v>
+        <v>1.586979526420359</v>
       </c>
       <c r="GR2" t="n">
-        <v>336974.6309323552</v>
+        <v>336974.630932539</v>
       </c>
       <c r="GS2" t="n">
         <v>421784.4310886899</v>
       </c>
       <c r="GT2" t="n">
-        <v>3790.093060441057</v>
+        <v>3790.093061482262</v>
       </c>
       <c r="GU2" t="n">
-        <v>-698537.1239644063</v>
+        <v>-698537.1242678855</v>
       </c>
       <c r="GV2" t="n">
-        <v>717.854358061912</v>
+        <v>717.8543580606397</v>
       </c>
       <c r="GW2" t="n">
-        <v>1006.765618727585</v>
+        <v>1006.765618719565</v>
       </c>
       <c r="GX2" t="n">
-        <v>1.402465008982721</v>
+        <v>1.402465008974035</v>
       </c>
       <c r="GY2" t="n">
-        <v>0.9995326648219844</v>
+        <v>0.9995326648236473</v>
       </c>
       <c r="GZ2" t="n">
-        <v>344.8011163646094</v>
+        <v>344.8011163634482</v>
       </c>
       <c r="HA2" t="n">
-        <v>188672.5208512826</v>
+        <v>188672.5201657338</v>
       </c>
       <c r="HB2" t="n">
-        <v>5.30018889601963e-06</v>
+        <v>5.300188915278069e-06</v>
       </c>
       <c r="HC2" t="n">
-        <v>134529.2179432956</v>
+        <v>134529.2174553117</v>
       </c>
       <c r="HD2" t="n">
-        <v>7.43332946766629e-06</v>
+        <v>7.433329494629542e-06</v>
       </c>
       <c r="HE2" t="n">
-        <v>0.003395573843627269</v>
+        <v>0.003395573843595044</v>
       </c>
       <c r="HF2" t="n">
-        <v>1.83290766525831e-05</v>
+        <v>1.832907665245771e-05</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.02606695184440513</v>
+        <v>0.02606695184416408</v>
       </c>
       <c r="HH2" t="n">
-        <v>134591.4169760419</v>
+        <v>134591.4164876136</v>
       </c>
       <c r="HI2" t="n">
-        <v>1.586979532176021</v>
+        <v>1.586979526420359</v>
       </c>
       <c r="HJ2" t="n">
-        <v>1.586979532176021</v>
+        <v>1.586979526420359</v>
       </c>
       <c r="HK2" t="n">
-        <v>336974.6309323552</v>
+        <v>336974.630932539</v>
       </c>
       <c r="HL2" t="n">
         <v>421784.4310886899</v>
       </c>
       <c r="HM2" t="n">
-        <v>3790.093060441057</v>
+        <v>3790.093061482262</v>
       </c>
       <c r="HN2" t="n">
-        <v>717.854358061912</v>
+        <v>717.8543580606397</v>
       </c>
       <c r="HO2" t="n">
-        <v>1006.765618727585</v>
+        <v>1006.765618719565</v>
       </c>
       <c r="HP2" t="n">
-        <v>344.8011163646094</v>
+        <v>344.8011163634482</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.9995326648219844</v>
+        <v>0.9995326648236473</v>
       </c>
       <c r="HR2" t="n">
-        <v>1.83290766525831e-05</v>
+        <v>1.832907665245771e-05</v>
       </c>
       <c r="HS2" t="n">
-        <v>0.02606695184440513</v>
+        <v>0.02606695184416408</v>
       </c>
       <c r="HT2" t="inlineStr">
         <is>
@@ -9382,37 +9382,37 @@
         <v>1</v>
       </c>
       <c r="HV2" t="n">
-        <v>0.01619337324140019</v>
+        <v>0.01619337327483101</v>
       </c>
       <c r="HW2" t="n">
-        <v>-1.972005742722223e-07</v>
+        <v>-1.972005784063831e-07</v>
       </c>
       <c r="HX2" t="n">
-        <v>0.01379727827873791</v>
+        <v>0.013797278278677</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.0251009300718024</v>
+        <v>0.02510093007326165</v>
       </c>
       <c r="HZ2" t="n">
         <v>0</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.05509138439136622</v>
+        <v>0.05509138442619126</v>
       </c>
       <c r="IB2" t="n">
-        <v>5.572960941328808e-06</v>
+        <v>5.578343440844347e-06</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.9800024590854584</v>
+        <v>0.9800024950581139</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.9800024590854584</v>
+        <v>0.9800024950581139</v>
       </c>
       <c r="IE2" t="n">
-        <v>520038.1623288471</v>
+        <v>520038.1660963524</v>
       </c>
       <c r="IF2" t="n">
-        <v>2.776362998292111</v>
+        <v>2.776362991598796</v>
       </c>
       <c r="IG2" t="n">
         <v>421784.4310885895</v>
@@ -9421,154 +9421,154 @@
         <v>0</v>
       </c>
       <c r="II2" t="n">
-        <v>372154.967088964</v>
+        <v>372154.9639091149</v>
       </c>
       <c r="IJ2" t="n">
-        <v>1480.456385282159</v>
+        <v>1480.773772891785</v>
       </c>
       <c r="IK2" t="n">
         <v>0</v>
       </c>
       <c r="IL2" t="n">
-        <v>0.02482484793390756</v>
+        <v>0.02483344438654406</v>
       </c>
       <c r="IM2" t="n">
-        <v>0.001940659976548433</v>
+        <v>0.001661229627706503</v>
       </c>
       <c r="IN2" t="n">
-        <v>0.01186833986994077</v>
+        <v>0.01186789776004529</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.03210800848406745</v>
+        <v>0.03211175761431597</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.04228603696444404</v>
+        <v>0.04229186349942306</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.1130278932289083</v>
+        <v>0.1127661928880349</v>
       </c>
       <c r="IR2" t="n">
-        <v>1.235024887913383e-09</v>
+        <v>6.449732414814946e-11</v>
       </c>
       <c r="IS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IT2" t="n">
-        <v>270.720455877855</v>
+        <v>270.7765737376996</v>
       </c>
       <c r="IU2" t="n">
-        <v>111.9362155966356</v>
+        <v>111.9580923727701</v>
       </c>
       <c r="IV2" t="n">
-        <v>246.4951295028305</v>
+        <v>246.546828082168</v>
       </c>
       <c r="IW2" t="n">
-        <v>65.57666592004824</v>
+        <v>65.57697420648411</v>
       </c>
       <c r="IX2" t="n">
-        <v>138.2817622772037</v>
+        <v>138.3298288573486</v>
       </c>
       <c r="IY2" t="n">
-        <v>111.9362155966356</v>
+        <v>111.9580923727701</v>
       </c>
       <c r="IZ2" t="n">
-        <v>81.1919295028305</v>
+        <v>81.24362808216802</v>
       </c>
       <c r="JA2" t="n">
-        <v>35.95491724770368</v>
+        <v>35.96693061752367</v>
       </c>
       <c r="JB2" t="n">
-        <v>259.0328646833414</v>
+        <v>259.0176952091061</v>
       </c>
       <c r="JC2" t="n">
-        <v>85286.54157683945</v>
+        <v>85268.66444397118</v>
       </c>
       <c r="JD2" t="n">
-        <v>1.147794173600517</v>
+        <v>1.147620860145235</v>
       </c>
       <c r="JE2" t="n">
-        <v>310834.9137581997</v>
+        <v>310824.076005997</v>
       </c>
       <c r="JF2" t="n">
-        <v>385139.6484732261</v>
+        <v>385124.4546460125</v>
       </c>
       <c r="JG2" t="n">
-        <v>3788.643752068699</v>
+        <v>3788.645228977391</v>
       </c>
       <c r="JH2" t="n">
-        <v>-596243.5958897718</v>
+        <v>-596201.7005286872</v>
       </c>
       <c r="JI2" t="n">
-        <v>716.5228834381372</v>
+        <v>716.5224785598296</v>
       </c>
       <c r="JJ2" t="n">
-        <v>1005.186348750732</v>
+        <v>1005.185830519606</v>
       </c>
       <c r="JK2" t="n">
-        <v>1.402867056984255</v>
+        <v>1.402867126429828</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.9993218641016557</v>
+        <v>0.9993218016471552</v>
       </c>
       <c r="JM2" t="n">
-        <v>322.7526049863697</v>
+        <v>322.7431420060929</v>
       </c>
       <c r="JN2" t="n">
-        <v>119564.8513608251</v>
+        <v>119539.7874011901</v>
       </c>
       <c r="JO2" t="n">
-        <v>8.363661967698023e-06</v>
+        <v>8.36541558036972e-06</v>
       </c>
       <c r="JP2" t="n">
-        <v>85228.9251255595</v>
+        <v>85211.05466731428</v>
       </c>
       <c r="JQ2" t="n">
-        <v>1.173310585023567e-05</v>
+        <v>1.173556651662458e-05</v>
       </c>
       <c r="JR2" t="n">
-        <v>0.003873976469242901</v>
+        <v>0.003874202833427864</v>
       </c>
       <c r="JS2" t="n">
-        <v>1.650118362086802e-05</v>
+        <v>1.650040445211144e-05</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.02326518827353987</v>
+        <v>0.02326400090450164</v>
       </c>
       <c r="JU2" t="n">
-        <v>85286.54157683945</v>
+        <v>85268.66444397118</v>
       </c>
       <c r="JV2" t="n">
-        <v>1.147794173600517</v>
+        <v>1.147620860145235</v>
       </c>
       <c r="JW2" t="n">
-        <v>1.147794173600517</v>
+        <v>1.147620860145235</v>
       </c>
       <c r="JX2" t="n">
-        <v>310834.9137581997</v>
+        <v>310824.076005997</v>
       </c>
       <c r="JY2" t="n">
-        <v>385139.6484732261</v>
+        <v>385124.4546460125</v>
       </c>
       <c r="JZ2" t="n">
-        <v>3788.643752068699</v>
+        <v>3788.645228977391</v>
       </c>
       <c r="KA2" t="n">
-        <v>716.5228834381372</v>
+        <v>716.5224785598296</v>
       </c>
       <c r="KB2" t="n">
-        <v>1005.186348750732</v>
+        <v>1005.185830519606</v>
       </c>
       <c r="KC2" t="n">
-        <v>322.7526049863697</v>
+        <v>322.7431420060929</v>
       </c>
       <c r="KD2" t="n">
-        <v>0.9993218641016557</v>
+        <v>0.9993218016471552</v>
       </c>
       <c r="KE2" t="n">
-        <v>1.650118362086802e-05</v>
+        <v>1.650040445211144e-05</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.02326518827353987</v>
+        <v>0.02326400090450164</v>
       </c>
       <c r="KG2" t="inlineStr">
         <is>
@@ -9579,97 +9579,97 @@
         <v>1</v>
       </c>
       <c r="KI2" t="n">
-        <v>295.5936773104853</v>
+        <v>295.5936756958031</v>
       </c>
       <c r="KJ2" t="n">
-        <v>135273.0063244502</v>
+        <v>135272.3100001409</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.595011388161208</v>
+        <v>1.595003182693832</v>
       </c>
       <c r="KL2" t="n">
-        <v>336974.3743527327</v>
+        <v>336974.3746147983</v>
       </c>
       <c r="KM2" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="KN2" t="n">
-        <v>3788.643752081158</v>
+        <v>3788.645228989852</v>
       </c>
       <c r="KO2" t="n">
-        <v>-698114.7076083742</v>
+        <v>-698115.1380558885</v>
       </c>
       <c r="KP2" t="n">
-        <v>717.8561334255705</v>
+        <v>717.8561316118473</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1006.776809793895</v>
+        <v>1006.776798360991</v>
       </c>
       <c r="KR2" t="n">
-        <v>1.402477130047787</v>
+        <v>1.402477117664806</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.9995303445652336</v>
+        <v>0.9995303469354125</v>
       </c>
       <c r="KT2" t="n">
-        <v>344.8027368043843</v>
+        <v>344.8027351487879</v>
       </c>
       <c r="KU2" t="n">
-        <v>189629.1929822006</v>
+        <v>189628.2156219579</v>
       </c>
       <c r="KV2" t="n">
-        <v>5.273449642818782e-06</v>
+        <v>5.273476822634858e-06</v>
       </c>
       <c r="KW2" t="n">
-        <v>135210.1855491501</v>
+        <v>135209.4898615517</v>
       </c>
       <c r="KX2" t="n">
-        <v>7.395892520512009e-06</v>
+        <v>7.395930574281095e-06</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.00339561881230336</v>
+        <v>0.00339561876636538</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1.832925162827854e-05</v>
+        <v>1.832925144951297e-05</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.02606728822298617</v>
+        <v>0.02606728787932072</v>
       </c>
       <c r="LB2" t="n">
-        <v>135273.0063244502</v>
+        <v>135272.3100001409</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.595011388161208</v>
+        <v>1.595003182693832</v>
       </c>
       <c r="LD2" t="n">
-        <v>1.595011388161208</v>
+        <v>1.595003182693832</v>
       </c>
       <c r="LE2" t="n">
-        <v>336974.3743527327</v>
+        <v>336974.3746147983</v>
       </c>
       <c r="LF2" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="LG2" t="n">
-        <v>3788.643752081158</v>
+        <v>3788.645228989852</v>
       </c>
       <c r="LH2" t="n">
-        <v>717.8561334255705</v>
+        <v>717.8561316118473</v>
       </c>
       <c r="LI2" t="n">
-        <v>1006.776809793895</v>
+        <v>1006.776798360991</v>
       </c>
       <c r="LJ2" t="n">
-        <v>344.8027368043843</v>
+        <v>344.8027351487879</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.9995303445652336</v>
+        <v>0.9995303469354125</v>
       </c>
       <c r="LL2" t="n">
-        <v>1.832925162827854e-05</v>
+        <v>1.832925144951297e-05</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.02606728822298617</v>
+        <v>0.02606728787932072</v>
       </c>
       <c r="LN2" t="inlineStr">
         <is>
@@ -9680,97 +9680,97 @@
         <v>1</v>
       </c>
       <c r="LP2" t="n">
-        <v>268.5763733166597</v>
+        <v>268.5678427308762</v>
       </c>
       <c r="LQ2" t="n">
-        <v>96773.378572077</v>
+        <v>96762.14669380753</v>
       </c>
       <c r="LR2" t="n">
-        <v>1.256050260243539</v>
+        <v>1.255944419958234</v>
       </c>
       <c r="LS2" t="n">
-        <v>317654.786145899</v>
+        <v>317648.6904174309</v>
       </c>
       <c r="LT2" t="n">
-        <v>394700.5713625776</v>
+        <v>394692.0254218774</v>
       </c>
       <c r="LU2" t="n">
-        <v>3788.643752082589</v>
+        <v>3788.645228991283</v>
       </c>
       <c r="LV2" t="n">
-        <v>-622839.6273605858</v>
+        <v>-622816.2506009381</v>
       </c>
       <c r="LW2" t="n">
-        <v>716.7994200934756</v>
+        <v>716.7991503794262</v>
       </c>
       <c r="LX2" t="n">
-        <v>1005.529281054863</v>
+        <v>1005.52894309706</v>
       </c>
       <c r="LY2" t="n">
-        <v>1.402804261370266</v>
+        <v>1.40280431772945</v>
       </c>
       <c r="LZ2" t="n">
-        <v>0.9993666455091753</v>
+        <v>0.999366605739565</v>
       </c>
       <c r="MA2" t="n">
-        <v>328.6518590077898</v>
+        <v>328.6466330338296</v>
       </c>
       <c r="MB2" t="n">
-        <v>135668.556514829</v>
+        <v>135652.8102889959</v>
       </c>
       <c r="MC2" t="n">
-        <v>7.370904693680419e-06</v>
+        <v>7.371760289149864e-06</v>
       </c>
       <c r="MD2" t="n">
-        <v>96712.39263438452</v>
+        <v>96701.16392895108</v>
       </c>
       <c r="ME2" t="n">
-        <v>1.033993651444899e-05</v>
+        <v>1.034113716288593e-05</v>
       </c>
       <c r="MF2" t="n">
-        <v>0.003736580933049502</v>
+        <v>0.003736699327185825</v>
       </c>
       <c r="MG2" t="n">
-        <v>1.698782618657477e-05</v>
+        <v>1.698739420985765e-05</v>
       </c>
       <c r="MH2" t="n">
-        <v>0.02400790455712941</v>
+        <v>0.02400724417488571</v>
       </c>
       <c r="MI2" t="n">
-        <v>96773.378572077</v>
+        <v>96762.14669380753</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1.256050260243539</v>
+        <v>1.255944419958234</v>
       </c>
       <c r="MK2" t="n">
-        <v>1.256050260243539</v>
+        <v>1.255944419958234</v>
       </c>
       <c r="ML2" t="n">
-        <v>317654.786145899</v>
+        <v>317648.6904174309</v>
       </c>
       <c r="MM2" t="n">
-        <v>394700.5713625776</v>
+        <v>394692.0254218774</v>
       </c>
       <c r="MN2" t="n">
-        <v>3788.643752082589</v>
+        <v>3788.645228991283</v>
       </c>
       <c r="MO2" t="n">
-        <v>716.7994200934756</v>
+        <v>716.7991503794262</v>
       </c>
       <c r="MP2" t="n">
-        <v>1005.529281054863</v>
+        <v>1005.52894309706</v>
       </c>
       <c r="MQ2" t="n">
-        <v>328.6518590077898</v>
+        <v>328.6466330338296</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.9993666455091753</v>
+        <v>0.999366605739565</v>
       </c>
       <c r="MS2" t="n">
-        <v>1.698782618657477e-05</v>
+        <v>1.698739420985765e-05</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.02400790455712941</v>
+        <v>0.02400724417488571</v>
       </c>
       <c r="MU2" t="inlineStr">
         <is>
@@ -9781,139 +9781,139 @@
         <v>1</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.8387862768428715</v>
+        <v>0.8389847482261537</v>
       </c>
       <c r="MX2" t="n">
-        <v>0.4284450695077846</v>
+        <v>0.4286065630938711</v>
       </c>
       <c r="MY2" t="n">
-        <v>250661.8472092051</v>
+        <v>250722.9535154569</v>
       </c>
       <c r="MZ2" t="n">
-        <v>2.758259225485185</v>
+        <v>2.758381728520826</v>
       </c>
       <c r="NA2" t="n">
-        <v>381037.9973974576</v>
+        <v>381029.4514566571</v>
       </c>
       <c r="NB2" t="n">
         <v>165.3032</v>
       </c>
       <c r="NC2" t="n">
-        <v>165.7214881403929</v>
+        <v>165.7562595302118</v>
       </c>
       <c r="ND2" t="n">
-        <v>139.9369876426158</v>
+        <v>139.9561231151335</v>
       </c>
       <c r="NE2" t="n">
-        <v>-88.77641083630721</v>
+        <v>-88.81115456984304</v>
       </c>
       <c r="NF2" t="n">
-        <v>-32.39115443229863</v>
+        <v>-32.39775215901537</v>
       </c>
       <c r="NG2" t="n">
-        <v>290.0669046155023</v>
+        <v>290.1065693773002</v>
       </c>
       <c r="NH2" t="n">
-        <v>139.9369876426158</v>
+        <v>139.9561231151335</v>
       </c>
       <c r="NI2" t="n">
-        <v>-254.0796108363072</v>
+        <v>-254.114354569843</v>
       </c>
       <c r="NJ2" t="n">
         <v>-61.15576777799676</v>
       </c>
       <c r="NK2" t="n">
-        <v>226.5586611332817</v>
+        <v>226.5386580935071</v>
       </c>
       <c r="NL2" t="n">
-        <v>50861.85994419014</v>
+        <v>50852.66853829676</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.7826704869469981</v>
+        <v>0.7825982500723991</v>
       </c>
       <c r="NN2" t="n">
-        <v>287646.1433405741</v>
+        <v>287631.8375381695</v>
       </c>
       <c r="NO2" t="n">
-        <v>352631.1667858678</v>
+        <v>352611.1146239441</v>
       </c>
       <c r="NP2" t="n">
-        <v>3802.821923621638</v>
+        <v>3802.785251707513</v>
       </c>
       <c r="NQ2" t="n">
-        <v>-508931.0767581415</v>
+        <v>-508866.7533156555</v>
       </c>
       <c r="NR2" t="n">
-        <v>715.8736746931526</v>
+        <v>715.8734411030108</v>
       </c>
       <c r="NS2" t="n">
-        <v>1004.249226560154</v>
+        <v>1004.249035668652</v>
       </c>
       <c r="NT2" t="n">
-        <v>1.402830222791206</v>
+        <v>1.40283041388058</v>
       </c>
       <c r="NU2" t="n">
-        <v>0.9992551158308345</v>
+        <v>0.9992549807894222</v>
       </c>
       <c r="NV2" t="n">
-        <v>301.8197101121772</v>
+        <v>301.8063655783448</v>
       </c>
       <c r="NW2" t="n">
-        <v>71297.47555690924</v>
+        <v>71284.59121500539</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.402574203629139e-05</v>
+        <v>1.402827712070123e-05</v>
       </c>
       <c r="NY2" t="n">
-        <v>50824.02303469692</v>
+        <v>50814.83157883237</v>
       </c>
       <c r="NZ2" t="n">
-        <v>1.967573482558263e-05</v>
+        <v>1.967929379926478e-05</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.004427349875097112</v>
+        <v>0.004427741730825179</v>
       </c>
       <c r="OB2" t="n">
-        <v>1.478997147963538e-05</v>
+        <v>1.478889121403392e-05</v>
       </c>
       <c r="OC2" t="n">
-        <v>0.0206714438043244</v>
+        <v>0.02066981691060201</v>
       </c>
       <c r="OD2" t="n">
-        <v>50861.85994419014</v>
+        <v>50852.66853829676</v>
       </c>
       <c r="OE2" t="n">
-        <v>0.7826704869469981</v>
+        <v>0.7825982500723991</v>
       </c>
       <c r="OF2" t="n">
-        <v>0.7826704869469981</v>
+        <v>0.7825982500723991</v>
       </c>
       <c r="OG2" t="n">
-        <v>287646.1433405741</v>
+        <v>287631.8375381695</v>
       </c>
       <c r="OH2" t="n">
-        <v>352631.1667858678</v>
+        <v>352611.1146239441</v>
       </c>
       <c r="OI2" t="n">
-        <v>3802.821923621638</v>
+        <v>3802.785251707513</v>
       </c>
       <c r="OJ2" t="n">
-        <v>715.8736746931526</v>
+        <v>715.8734411030108</v>
       </c>
       <c r="OK2" t="n">
-        <v>1004.249226560154</v>
+        <v>1004.249035668652</v>
       </c>
       <c r="OL2" t="n">
-        <v>301.8197101121772</v>
+        <v>301.8063655783448</v>
       </c>
       <c r="OM2" t="n">
-        <v>0.9992551158308345</v>
+        <v>0.9992549807894222</v>
       </c>
       <c r="ON2" t="n">
-        <v>1.478997147963538e-05</v>
+        <v>1.478889121403392e-05</v>
       </c>
       <c r="OO2" t="n">
-        <v>0.0206714438043244</v>
+        <v>0.02066981691060201</v>
       </c>
       <c r="OP2" t="inlineStr">
         <is>
@@ -9924,97 +9924,97 @@
         <v>1</v>
       </c>
       <c r="OR2" t="n">
-        <v>240.272953881096</v>
+        <v>240.2587121528649</v>
       </c>
       <c r="OS2" t="n">
-        <v>62443.90033018762</v>
+        <v>62438.93703434958</v>
       </c>
       <c r="OT2" t="n">
-        <v>0.9060203652766925</v>
+        <v>0.9060021719036655</v>
       </c>
       <c r="OU2" t="n">
-        <v>297441.894529657</v>
+        <v>297431.6995768031</v>
       </c>
       <c r="OV2" t="n">
-        <v>366362.9726018013</v>
+        <v>366348.6834104673</v>
       </c>
       <c r="OW2" t="n">
-        <v>3802.821923617294</v>
+        <v>3802.785251703164</v>
       </c>
       <c r="OX2" t="n">
-        <v>-547352.2840695176</v>
+        <v>-547303.6037576433</v>
       </c>
       <c r="OY2" t="n">
-        <v>716.0900879251519</v>
+        <v>716.0898623007851</v>
       </c>
       <c r="OZ2" t="n">
-        <v>1004.553371712684</v>
+        <v>1004.553234702679</v>
       </c>
       <c r="PA2" t="n">
-        <v>1.402830996618519</v>
+        <v>1.402831247289364</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.9992886265135574</v>
+        <v>0.9992884949854278</v>
       </c>
       <c r="PC2" t="n">
-        <v>310.831123687991</v>
+        <v>310.8218984141394</v>
       </c>
       <c r="PD2" t="n">
-        <v>87536.05224386144</v>
+        <v>87529.09862375686</v>
       </c>
       <c r="PE2" t="n">
-        <v>1.142386450344094e-05</v>
+        <v>1.142477205550228e-05</v>
       </c>
       <c r="PF2" t="n">
-        <v>62399.57090687647</v>
+        <v>62394.60290957015</v>
       </c>
       <c r="PG2" t="n">
-        <v>1.602575122659697e-05</v>
+        <v>1.602702723261693e-05</v>
       </c>
       <c r="PH2" t="n">
-        <v>0.0041751396468346</v>
+        <v>0.004175388326384893</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.552312048661453e-05</v>
+        <v>1.552236877665227e-05</v>
       </c>
       <c r="PJ2" t="n">
-        <v>0.02177897554270555</v>
+        <v>0.02177783854262234</v>
       </c>
       <c r="PK2" t="n">
-        <v>62443.90033018762</v>
+        <v>62438.93703434958</v>
       </c>
       <c r="PL2" t="n">
-        <v>0.9060203652766925</v>
+        <v>0.9060021719036655</v>
       </c>
       <c r="PM2" t="n">
-        <v>0.9060203652766925</v>
+        <v>0.9060021719036655</v>
       </c>
       <c r="PN2" t="n">
-        <v>297441.894529657</v>
+        <v>297431.6995768031</v>
       </c>
       <c r="PO2" t="n">
-        <v>366362.9726018013</v>
+        <v>366348.6834104673</v>
       </c>
       <c r="PP2" t="n">
-        <v>3802.821923617294</v>
+        <v>3802.785251703164</v>
       </c>
       <c r="PQ2" t="n">
-        <v>716.0900879251519</v>
+        <v>716.0898623007851</v>
       </c>
       <c r="PR2" t="n">
-        <v>1004.553371712684</v>
+        <v>1004.553234702679</v>
       </c>
       <c r="PS2" t="n">
-        <v>310.831123687991</v>
+        <v>310.8218984141394</v>
       </c>
       <c r="PT2" t="n">
-        <v>0.9992886265135574</v>
+        <v>0.9992884949854278</v>
       </c>
       <c r="PU2" t="n">
-        <v>1.552312048661453e-05</v>
+        <v>1.552236877665227e-05</v>
       </c>
       <c r="PV2" t="n">
-        <v>0.02177897554270555</v>
+        <v>0.02177783854262234</v>
       </c>
       <c r="PW2" t="inlineStr">
         <is>
@@ -10025,97 +10025,97 @@
         <v>1</v>
       </c>
       <c r="PY2" t="n">
-        <v>268.5632277095779</v>
+        <v>268.5547323344194</v>
       </c>
       <c r="PZ2" t="n">
-        <v>92106.7796562507</v>
+        <v>92108.33699393955</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.195503447183235</v>
+        <v>1.195561619744153</v>
       </c>
       <c r="QB2" t="n">
-        <v>317656.2266781131</v>
+        <v>317650.1268923123</v>
       </c>
       <c r="QC2" t="n">
-        <v>394700.5713625776</v>
+        <v>394692.0254216833</v>
       </c>
       <c r="QD2" t="n">
-        <v>3802.821923617982</v>
+        <v>3802.785251703855</v>
       </c>
       <c r="QE2" t="n">
-        <v>-626597.5588490135</v>
+        <v>-626563.9499749232</v>
       </c>
       <c r="QF2" t="n">
-        <v>716.7840311423968</v>
+        <v>716.783802346063</v>
       </c>
       <c r="QG2" t="n">
-        <v>1005.432909316762</v>
+        <v>1005.432828115716</v>
       </c>
       <c r="QH2" t="n">
-        <v>1.402699928616326</v>
+        <v>1.402700263070808</v>
       </c>
       <c r="QI2" t="n">
-        <v>0.9993968762460279</v>
+        <v>0.9993967590319732</v>
       </c>
       <c r="QJ2" t="n">
-        <v>328.6414866237151</v>
+        <v>328.6362893488918</v>
       </c>
       <c r="QK2" t="n">
-        <v>129120.6208698154</v>
+        <v>129122.8197083057</v>
       </c>
       <c r="QL2" t="n">
-        <v>7.744696341014658e-06</v>
+        <v>7.744564456221183e-06</v>
       </c>
       <c r="QM2" t="n">
-        <v>92051.49172366796</v>
+        <v>92053.03735070852</v>
       </c>
       <c r="QN2" t="n">
-        <v>1.086348500469638e-05</v>
+        <v>1.086330260011027e-05</v>
       </c>
       <c r="QO2" t="n">
-        <v>0.003736127288366582</v>
+        <v>0.003736246868848618</v>
       </c>
       <c r="QP2" t="n">
-        <v>1.698645345652348e-05</v>
+        <v>1.698602517997379e-05</v>
       </c>
       <c r="QQ2" t="n">
-        <v>0.02400523746991692</v>
+        <v>0.02400458426682695</v>
       </c>
       <c r="QR2" t="n">
-        <v>92106.7796562507</v>
+        <v>92108.33699393955</v>
       </c>
       <c r="QS2" t="n">
-        <v>1.195503447183235</v>
+        <v>1.195561619744153</v>
       </c>
       <c r="QT2" t="n">
-        <v>1.195503447183235</v>
+        <v>1.195561619744153</v>
       </c>
       <c r="QU2" t="n">
-        <v>317656.2266781131</v>
+        <v>317650.1268923123</v>
       </c>
       <c r="QV2" t="n">
-        <v>394700.5713625776</v>
+        <v>394692.0254216833</v>
       </c>
       <c r="QW2" t="n">
-        <v>3802.821923617982</v>
+        <v>3802.785251703855</v>
       </c>
       <c r="QX2" t="n">
-        <v>716.7840311423968</v>
+        <v>716.783802346063</v>
       </c>
       <c r="QY2" t="n">
-        <v>1005.432909316762</v>
+        <v>1005.432828115716</v>
       </c>
       <c r="QZ2" t="n">
-        <v>328.6414866237151</v>
+        <v>328.6362893488918</v>
       </c>
       <c r="RA2" t="n">
-        <v>0.9993968762460279</v>
+        <v>0.9993967590319732</v>
       </c>
       <c r="RB2" t="n">
-        <v>1.698645345652348e-05</v>
+        <v>1.698602517997379e-05</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.02400523746991692</v>
+        <v>0.02400458426682695</v>
       </c>
       <c r="RD2" t="inlineStr">
         <is>
@@ -10126,52 +10126,52 @@
         <v>1</v>
       </c>
       <c r="RF2" t="n">
-        <v>0.02437829458424569</v>
+        <v>0.02438704757905731</v>
       </c>
       <c r="RG2" t="n">
-        <v>0.002249029335690864</v>
+        <v>0.00188878146972271</v>
       </c>
       <c r="RH2" t="n">
-        <v>0.01190299095356675</v>
+        <v>0.01190244879773359</v>
       </c>
       <c r="RI2" t="n">
-        <v>0.03193424805035409</v>
+        <v>0.03193896442257196</v>
       </c>
       <c r="RJ2" t="n">
-        <v>0.04266279987015769</v>
+        <v>0.04267067767247382</v>
       </c>
       <c r="RK2" t="n">
-        <v>0.1131273627940151</v>
+        <v>0.1127879199415594</v>
       </c>
       <c r="RL2" t="n">
-        <v>1.624255130922014e-05</v>
+        <v>1.620798865034634e-05</v>
       </c>
       <c r="RM2" t="n">
-        <v>0.5490744394353813</v>
+        <v>0.549213927985173</v>
       </c>
       <c r="RN2" t="n">
-        <v>0.9610601789647645</v>
+        <v>0.9612340973039964</v>
       </c>
       <c r="RO2" t="n">
-        <v>400022.3096456592</v>
+        <v>400069.3060583168</v>
       </c>
       <c r="RP2" t="n">
-        <v>2.758240063805066</v>
+        <v>2.758362627544287</v>
       </c>
       <c r="RQ2" t="n">
-        <v>381037.9973974576</v>
+        <v>381029.4514566571</v>
       </c>
       <c r="RR2" t="n">
         <v>0</v>
       </c>
       <c r="RS2" t="n">
-        <v>349441.5478802375</v>
+        <v>349430.2985276712</v>
       </c>
       <c r="RT2" t="n">
-        <v>2666.551053056144</v>
+        <v>2660.478961014654</v>
       </c>
       <c r="RU2" t="n">
-        <v>6.174939223928035</v>
+        <v>6.1839858748545</v>
       </c>
     </row>
     <row r="3">
@@ -10179,34 +10179,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0158403132502914</v>
+        <v>0.01584079842274248</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.798815524306081e-07</v>
+        <v>-1.799058513555666e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01378750972892497</v>
+        <v>0.01378752517209607</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0252326906790447</v>
+        <v>0.02523247406339989</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05486033377670864</v>
+        <v>0.05486061775238708</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.005458299425555e-12</v>
+        <v>1.229530366408937e-12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>81.75758172350758</v>
+        <v>81.75758172397592</v>
       </c>
       <c r="K3" t="n">
-        <v>81.75758172350758</v>
+        <v>81.75758172397592</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -10215,10 +10215,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>81.75758172350758</v>
+        <v>81.75758172397592</v>
       </c>
       <c r="O3" t="n">
-        <v>81.75758172350758</v>
+        <v>81.75758172397592</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -10227,97 +10227,97 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.2676180727243</v>
+        <v>292.2676180724861</v>
       </c>
       <c r="S3" t="n">
-        <v>132637.8394378621</v>
+        <v>132637.839437484</v>
       </c>
       <c r="T3" t="n">
-        <v>1.581790096103568</v>
+        <v>1.581790096100351</v>
       </c>
       <c r="U3" t="n">
-        <v>334589.2834752522</v>
+        <v>334589.2834750817</v>
       </c>
       <c r="V3" t="n">
-        <v>418442.2800040519</v>
+        <v>418442.2800038129</v>
       </c>
       <c r="W3" t="n">
         <v>3782.917347723466</v>
       </c>
       <c r="X3" t="n">
-        <v>-687181.9625810733</v>
+        <v>-687181.9625804113</v>
       </c>
       <c r="Y3" t="n">
-        <v>717.7090713704118</v>
+        <v>717.7090713704009</v>
       </c>
       <c r="Z3" t="n">
-        <v>1006.643209103405</v>
+        <v>1006.643209103392</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402578355574209</v>
+        <v>1.402578355574213</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.999497372375641</v>
+        <v>0.9994973723756393</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.8584121223225</v>
+        <v>342.8584121221827</v>
       </c>
       <c r="AD3" t="n">
-        <v>185942.4165872257</v>
+        <v>185942.4165866959</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.37800905438324e-06</v>
+        <v>5.378009054398562e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132571.8565727486</v>
+        <v>132571.8565723705</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.543079095760051e-06</v>
+        <v>7.543079095781565e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003434455038597327</v>
+        <v>0.003434455038600122</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.816725856047784e-05</v>
+        <v>1.816725856046618e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02581791190129068</v>
+        <v>0.02581791190127272</v>
       </c>
       <c r="AK3" t="n">
-        <v>132637.8394378621</v>
+        <v>132637.839437484</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.581790096103568</v>
+        <v>1.581790096100351</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.581790096103568</v>
+        <v>1.581790096100351</v>
       </c>
       <c r="AN3" t="n">
-        <v>334589.2834752522</v>
+        <v>334589.2834750817</v>
       </c>
       <c r="AO3" t="n">
-        <v>418442.2800040519</v>
+        <v>418442.2800038129</v>
       </c>
       <c r="AP3" t="n">
         <v>3782.917347723466</v>
       </c>
       <c r="AQ3" t="n">
-        <v>717.7090713704118</v>
+        <v>717.7090713704009</v>
       </c>
       <c r="AR3" t="n">
-        <v>1006.643209103405</v>
+        <v>1006.643209103392</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.8584121223225</v>
+        <v>342.8584121221827</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.999497372375641</v>
+        <v>0.9994973723756393</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.816725856047784e-05</v>
+        <v>1.816725856046618e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02581791190129068</v>
+        <v>0.02581791190127272</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
@@ -10331,10 +10331,10 @@
         <v>295.5999999999884</v>
       </c>
       <c r="AZ3" t="n">
-        <v>137999.9999950253</v>
+        <v>137999.9999950251</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.627145819753683</v>
+        <v>1.62714581975368</v>
       </c>
       <c r="BB3" t="n">
         <v>336973.3475828228</v>
@@ -10364,19 +10364,19 @@
         <v>344.8092213939903</v>
       </c>
       <c r="BK3" t="n">
-        <v>193456.8974367824</v>
+        <v>193456.897436782</v>
       </c>
       <c r="BL3" t="n">
-        <v>5.169110087309132e-06</v>
+        <v>5.169110087309142e-06</v>
       </c>
       <c r="BM3" t="n">
-        <v>137934.6617458624</v>
+        <v>137934.6617458621</v>
       </c>
       <c r="BN3" t="n">
-        <v>7.249809346996836e-06</v>
+        <v>7.249809346996849e-06</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.003395798695746386</v>
+        <v>0.003395798695746385</v>
       </c>
       <c r="BP3" t="n">
         <v>1.83299517401163e-05</v>
@@ -10385,13 +10385,13 @@
         <v>0.02606863419705882</v>
       </c>
       <c r="BR3" t="n">
-        <v>137999.9999950253</v>
+        <v>137999.9999950251</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.627145819753683</v>
+        <v>1.62714581975368</v>
       </c>
       <c r="BT3" t="n">
-        <v>1.627145819753683</v>
+        <v>1.62714581975368</v>
       </c>
       <c r="BU3" t="n">
         <v>336973.3475828228</v>
@@ -10432,10 +10432,10 @@
         <v>295.5999999999884</v>
       </c>
       <c r="CG3" t="n">
-        <v>137999.9999950253</v>
+        <v>137999.9999950251</v>
       </c>
       <c r="CH3" t="n">
-        <v>1.627145819753683</v>
+        <v>1.62714581975368</v>
       </c>
       <c r="CI3" t="n">
         <v>336973.3475828228</v>
@@ -10465,19 +10465,19 @@
         <v>344.8092213939903</v>
       </c>
       <c r="CR3" t="n">
-        <v>193456.8974367824</v>
+        <v>193456.897436782</v>
       </c>
       <c r="CS3" t="n">
-        <v>5.169110087309132e-06</v>
+        <v>5.169110087309142e-06</v>
       </c>
       <c r="CT3" t="n">
-        <v>137934.6617458624</v>
+        <v>137934.6617458621</v>
       </c>
       <c r="CU3" t="n">
-        <v>7.249809346996836e-06</v>
+        <v>7.249809346996849e-06</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.003395798695746386</v>
+        <v>0.003395798695746385</v>
       </c>
       <c r="CW3" t="n">
         <v>1.83299517401163e-05</v>
@@ -10486,13 +10486,13 @@
         <v>0.02606863419705882</v>
       </c>
       <c r="CY3" t="n">
-        <v>137999.9999950253</v>
+        <v>137999.9999950251</v>
       </c>
       <c r="CZ3" t="n">
-        <v>1.627145819753683</v>
+        <v>1.62714581975368</v>
       </c>
       <c r="DA3" t="n">
-        <v>1.627145819753683</v>
+        <v>1.62714581975368</v>
       </c>
       <c r="DB3" t="n">
         <v>336973.3475828228</v>
@@ -10530,16 +10530,16 @@
         <v>1</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.2384587305804202</v>
+        <v>0.2384587305818834</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.2384587305804202</v>
+        <v>0.2384587305818834</v>
       </c>
       <c r="DO3" t="n">
-        <v>186219.5323178941</v>
+        <v>186219.5323187016</v>
       </c>
       <c r="DP3" t="n">
-        <v>2.776369934688817</v>
+        <v>2.776369934699074</v>
       </c>
       <c r="DQ3" t="n">
         <v>421784.4310885895</v>
@@ -10548,121 +10548,121 @@
         <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>309.3780738586299</v>
+        <v>309.3780790611776</v>
       </c>
       <c r="DT3" t="n">
-        <v>126.4136401077081</v>
+        <v>126.4136422334987</v>
       </c>
       <c r="DU3" t="n">
-        <v>282.3727752089331</v>
+        <v>282.3727799573558</v>
       </c>
       <c r="DV3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DW3" t="n">
-        <v>309.3780738586299</v>
+        <v>309.3780790611776</v>
       </c>
       <c r="DX3" t="n">
-        <v>126.4136401077081</v>
+        <v>126.4136422334987</v>
       </c>
       <c r="DY3" t="n">
-        <v>282.3727752089331</v>
+        <v>282.3727799573558</v>
       </c>
       <c r="DZ3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="EA3" t="n">
-        <v>247.8365058567585</v>
+        <v>247.8365042495697</v>
       </c>
       <c r="EB3" t="n">
-        <v>72726.23882544297</v>
+        <v>72726.23713087403</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.023014680516715</v>
+        <v>1.023014663319257</v>
       </c>
       <c r="ED3" t="n">
-        <v>302836.9124250753</v>
+        <v>302836.9112771023</v>
       </c>
       <c r="EE3" t="n">
-        <v>373927.0347962514</v>
+        <v>373927.0331868975</v>
       </c>
       <c r="EF3" t="n">
-        <v>3790.093061226273</v>
+        <v>3790.093061416287</v>
       </c>
       <c r="EG3" t="n">
-        <v>-565396.3863700138</v>
+        <v>-565396.381935065</v>
       </c>
       <c r="EH3" t="n">
-        <v>716.2529430757312</v>
+        <v>716.2529430410461</v>
       </c>
       <c r="EI3" t="n">
-        <v>1004.831581229777</v>
+        <v>1004.831581183137</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.402900457085499</v>
+        <v>1.402900457088318</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.9992812859034201</v>
+        <v>0.9992812858982126</v>
       </c>
       <c r="EL3" t="n">
-        <v>315.6911161351163</v>
+        <v>315.6911151101667</v>
       </c>
       <c r="EM3" t="n">
-        <v>101954.5441384146</v>
+        <v>101954.5417624723</v>
       </c>
       <c r="EN3" t="n">
-        <v>9.808292592063271e-06</v>
+        <v>9.808292820635113e-06</v>
       </c>
       <c r="EO3" t="n">
-        <v>72674.11142642537</v>
+        <v>72674.10973268638</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.376005816063388e-05</v>
+        <v>1.376005848132507e-05</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.004048559430118687</v>
+        <v>0.004048559456310491</v>
       </c>
       <c r="ER3" t="n">
-        <v>1.592113121492268e-05</v>
+        <v>1.592113113093807e-05</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.02238288380818862</v>
+        <v>0.0223828836806808</v>
       </c>
       <c r="ET3" t="n">
-        <v>72726.23882544297</v>
+        <v>72726.23713087403</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.023014680516715</v>
+        <v>1.023014663319257</v>
       </c>
       <c r="EV3" t="n">
-        <v>1.023014680516715</v>
+        <v>1.023014663319257</v>
       </c>
       <c r="EW3" t="n">
-        <v>302836.9124250753</v>
+        <v>302836.9112771023</v>
       </c>
       <c r="EX3" t="n">
-        <v>373927.0347962514</v>
+        <v>373927.0331868975</v>
       </c>
       <c r="EY3" t="n">
-        <v>3790.093061226273</v>
+        <v>3790.093061416287</v>
       </c>
       <c r="EZ3" t="n">
-        <v>716.2529430757312</v>
+        <v>716.2529430410461</v>
       </c>
       <c r="FA3" t="n">
-        <v>1004.831581229777</v>
+        <v>1004.831581183137</v>
       </c>
       <c r="FB3" t="n">
-        <v>315.6911161351163</v>
+        <v>315.6911151101667</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.9992812859034201</v>
+        <v>0.9992812858982126</v>
       </c>
       <c r="FD3" t="n">
-        <v>1.592113121492268e-05</v>
+        <v>1.592113113093807e-05</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.02238288380818862</v>
+        <v>0.0223828836806808</v>
       </c>
       <c r="FF3" t="inlineStr">
         <is>
@@ -10673,97 +10673,97 @@
         <v>1</v>
       </c>
       <c r="FH3" t="n">
-        <v>295.5920968651482</v>
+        <v>295.5920968647413</v>
       </c>
       <c r="FI3" t="n">
-        <v>134591.4166031719</v>
+        <v>134591.4165137183</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.586979527782103</v>
+        <v>1.586979526729053</v>
       </c>
       <c r="FK3" t="n">
-        <v>336974.6309324956</v>
+        <v>336974.6309323856</v>
       </c>
       <c r="FL3" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310884889</v>
       </c>
       <c r="FM3" t="n">
-        <v>3790.093061235922</v>
+        <v>3790.093061425934</v>
       </c>
       <c r="FN3" t="n">
-        <v>-698537.1241960848</v>
+        <v>-698537.1242509097</v>
       </c>
       <c r="FO3" t="n">
-        <v>717.8543580609407</v>
+        <v>717.854358060699</v>
       </c>
       <c r="FP3" t="n">
-        <v>1006.765618721463</v>
+        <v>1006.765618719988</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.40246500897609</v>
+        <v>1.402465008974509</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.9995326648232539</v>
+        <v>0.999532664823556</v>
       </c>
       <c r="FS3" t="n">
-        <v>344.8011163637229</v>
+        <v>344.8011163633942</v>
       </c>
       <c r="FT3" t="n">
-        <v>188672.5203279292</v>
+        <v>188672.5202023746</v>
       </c>
       <c r="FU3" t="n">
-        <v>5.300188910721673e-06</v>
+        <v>5.300188914248755e-06</v>
       </c>
       <c r="FV3" t="n">
-        <v>134529.2175707649</v>
+        <v>134529.2174813923</v>
       </c>
       <c r="FW3" t="n">
-        <v>7.433329488250247e-06</v>
+        <v>7.433329493188473e-06</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.003395573843602669</v>
+        <v>0.003395573843599084</v>
       </c>
       <c r="FY3" t="n">
-        <v>1.832907665248738e-05</v>
+        <v>1.832907665245475e-05</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.02606695184422111</v>
+        <v>0.02606695184416209</v>
       </c>
       <c r="GA3" t="n">
-        <v>134591.4166031719</v>
+        <v>134591.4165137183</v>
       </c>
       <c r="GB3" t="n">
-        <v>1.586979527782103</v>
+        <v>1.586979526729053</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.586979527782103</v>
+        <v>1.586979526729053</v>
       </c>
       <c r="GD3" t="n">
-        <v>336974.6309324956</v>
+        <v>336974.6309323856</v>
       </c>
       <c r="GE3" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310884889</v>
       </c>
       <c r="GF3" t="n">
-        <v>3790.093061235922</v>
+        <v>3790.093061425934</v>
       </c>
       <c r="GG3" t="n">
-        <v>717.8543580609407</v>
+        <v>717.854358060699</v>
       </c>
       <c r="GH3" t="n">
-        <v>1006.765618721463</v>
+        <v>1006.765618719988</v>
       </c>
       <c r="GI3" t="n">
-        <v>344.8011163637229</v>
+        <v>344.8011163633942</v>
       </c>
       <c r="GJ3" t="n">
-        <v>0.9995326648232539</v>
+        <v>0.999532664823556</v>
       </c>
       <c r="GK3" t="n">
-        <v>1.832907665248738e-05</v>
+        <v>1.832907665245475e-05</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.02606695184422111</v>
+        <v>0.02606695184416209</v>
       </c>
       <c r="GM3" t="inlineStr">
         <is>
@@ -10774,97 +10774,97 @@
         <v>1</v>
       </c>
       <c r="GO3" t="n">
-        <v>295.5920968651482</v>
+        <v>295.5920968647413</v>
       </c>
       <c r="GP3" t="n">
-        <v>134591.4166031719</v>
+        <v>134591.4165137183</v>
       </c>
       <c r="GQ3" t="n">
-        <v>1.586979527782103</v>
+        <v>1.586979526729053</v>
       </c>
       <c r="GR3" t="n">
-        <v>336974.6309324956</v>
+        <v>336974.6309323856</v>
       </c>
       <c r="GS3" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310884889</v>
       </c>
       <c r="GT3" t="n">
-        <v>3790.093061235922</v>
+        <v>3790.093061425934</v>
       </c>
       <c r="GU3" t="n">
-        <v>-698537.1241960848</v>
+        <v>-698537.1242509097</v>
       </c>
       <c r="GV3" t="n">
-        <v>717.8543580609407</v>
+        <v>717.854358060699</v>
       </c>
       <c r="GW3" t="n">
-        <v>1006.765618721463</v>
+        <v>1006.765618719988</v>
       </c>
       <c r="GX3" t="n">
-        <v>1.40246500897609</v>
+        <v>1.402465008974509</v>
       </c>
       <c r="GY3" t="n">
-        <v>0.9995326648232539</v>
+        <v>0.999532664823556</v>
       </c>
       <c r="GZ3" t="n">
-        <v>344.8011163637229</v>
+        <v>344.8011163633942</v>
       </c>
       <c r="HA3" t="n">
-        <v>188672.5203279292</v>
+        <v>188672.5202023746</v>
       </c>
       <c r="HB3" t="n">
-        <v>5.300188910721673e-06</v>
+        <v>5.300188914248755e-06</v>
       </c>
       <c r="HC3" t="n">
-        <v>134529.2175707649</v>
+        <v>134529.2174813923</v>
       </c>
       <c r="HD3" t="n">
-        <v>7.433329488250247e-06</v>
+        <v>7.433329493188473e-06</v>
       </c>
       <c r="HE3" t="n">
-        <v>0.003395573843602669</v>
+        <v>0.003395573843599084</v>
       </c>
       <c r="HF3" t="n">
-        <v>1.832907665248738e-05</v>
+        <v>1.832907665245475e-05</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.02606695184422111</v>
+        <v>0.02606695184416209</v>
       </c>
       <c r="HH3" t="n">
-        <v>134591.4166031719</v>
+        <v>134591.4165137183</v>
       </c>
       <c r="HI3" t="n">
-        <v>1.586979527782103</v>
+        <v>1.586979526729053</v>
       </c>
       <c r="HJ3" t="n">
-        <v>1.586979527782103</v>
+        <v>1.586979526729053</v>
       </c>
       <c r="HK3" t="n">
-        <v>336974.6309324956</v>
+        <v>336974.6309323856</v>
       </c>
       <c r="HL3" t="n">
-        <v>421784.43108869</v>
+        <v>421784.4310884889</v>
       </c>
       <c r="HM3" t="n">
-        <v>3790.093061235922</v>
+        <v>3790.093061425934</v>
       </c>
       <c r="HN3" t="n">
-        <v>717.8543580609407</v>
+        <v>717.854358060699</v>
       </c>
       <c r="HO3" t="n">
-        <v>1006.765618721463</v>
+        <v>1006.765618719988</v>
       </c>
       <c r="HP3" t="n">
-        <v>344.8011163637229</v>
+        <v>344.8011163633942</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.9995326648232539</v>
+        <v>0.999532664823556</v>
       </c>
       <c r="HR3" t="n">
-        <v>1.832907665248738e-05</v>
+        <v>1.832907665245475e-05</v>
       </c>
       <c r="HS3" t="n">
-        <v>0.02606695184422111</v>
+        <v>0.02606695184416209</v>
       </c>
       <c r="HT3" t="inlineStr">
         <is>
@@ -10875,37 +10875,37 @@
         <v>1</v>
       </c>
       <c r="HV3" t="n">
-        <v>0.01619337325634923</v>
+        <v>0.01619337327113726</v>
       </c>
       <c r="HW3" t="n">
-        <v>-1.972005756927644e-07</v>
+        <v>-1.972005780760652e-07</v>
       </c>
       <c r="HX3" t="n">
-        <v>0.01379727827867997</v>
+        <v>0.01379727827868005</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.02510093007319068</v>
+        <v>0.02510093007318862</v>
       </c>
       <c r="HZ3" t="n">
         <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.05509138440764418</v>
+        <v>0.05509138442242786</v>
       </c>
       <c r="IB3" t="n">
-        <v>5.57824211103175e-06</v>
+        <v>5.578249028047322e-06</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.9800024709159557</v>
+        <v>0.9800024905775824</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.9800024709159557</v>
+        <v>0.9800024905775824</v>
       </c>
       <c r="IE3" t="n">
-        <v>520038.1627489541</v>
+        <v>520038.1654950787</v>
       </c>
       <c r="IF3" t="n">
-        <v>2.776362991712721</v>
+        <v>2.776362991728214</v>
       </c>
       <c r="IG3" t="n">
         <v>421784.4310885895</v>
@@ -10914,154 +10914,154 @@
         <v>0</v>
       </c>
       <c r="II3" t="n">
-        <v>372154.9659319218</v>
+        <v>372154.9642873025</v>
       </c>
       <c r="IJ3" t="n">
-        <v>1493.4081705875</v>
+        <v>1493.87081131927</v>
       </c>
       <c r="IK3" t="n">
         <v>0</v>
       </c>
       <c r="IL3" t="n">
-        <v>0.02499269762197985</v>
+        <v>0.02500529768128579</v>
       </c>
       <c r="IM3" t="n">
-        <v>0.002208533670272645</v>
+        <v>0.001817446636768311</v>
       </c>
       <c r="IN3" t="n">
-        <v>0.01186225820080306</v>
+        <v>0.01186162603736667</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.03219276749762146</v>
+        <v>0.03219816760946665</v>
       </c>
       <c r="IP3" t="n">
-        <v>0.04259304904397022</v>
+        <v>0.04260151329431097</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.1138493060346472</v>
+        <v>0.1134840512591984</v>
       </c>
       <c r="IR3" t="n">
-        <v>5.172323680469049e-11</v>
+        <v>-5.202525910075195e-11</v>
       </c>
       <c r="IS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IT3" t="n">
-        <v>270.8635188688174</v>
+        <v>270.9236611755237</v>
       </c>
       <c r="IU3" t="n">
-        <v>111.941059322435</v>
+        <v>111.9639687553943</v>
       </c>
       <c r="IV3" t="n">
-        <v>246.6500457972171</v>
+        <v>246.7056948781099</v>
       </c>
       <c r="IW3" t="n">
-        <v>65.58928237132116</v>
+        <v>65.58973428656066</v>
       </c>
       <c r="IX3" t="n">
-        <v>138.3766963161975</v>
+        <v>138.4279468598722</v>
       </c>
       <c r="IY3" t="n">
-        <v>111.941059322435</v>
+        <v>111.9639687553943</v>
       </c>
       <c r="IZ3" t="n">
-        <v>81.34684579721713</v>
+        <v>81.40249487810991</v>
       </c>
       <c r="JA3" t="n">
-        <v>36.00566300735018</v>
+        <v>36.01872172191423</v>
       </c>
       <c r="JB3" t="n">
-        <v>258.9941355616582</v>
+        <v>258.9778689776513</v>
       </c>
       <c r="JC3" t="n">
-        <v>85224.13189885857</v>
+        <v>85204.80145903623</v>
       </c>
       <c r="JD3" t="n">
-        <v>1.147125800467873</v>
+        <v>1.146937721385035</v>
       </c>
       <c r="JE3" t="n">
-        <v>310807.285035111</v>
+        <v>310795.6638842541</v>
       </c>
       <c r="JF3" t="n">
-        <v>385100.9081617974</v>
+        <v>385084.6159959201</v>
       </c>
       <c r="JG3" t="n">
-        <v>3788.704170175148</v>
+        <v>3788.706334037486</v>
       </c>
       <c r="JH3" t="n">
-        <v>-596151.2532915645</v>
+        <v>-596106.4765752375</v>
       </c>
       <c r="JI3" t="n">
-        <v>716.5217902369502</v>
+        <v>716.5213557777469</v>
       </c>
       <c r="JJ3" t="n">
-        <v>1005.184648003896</v>
+        <v>1005.184088767419</v>
       </c>
       <c r="JK3" t="n">
-        <v>1.40286682373119</v>
+        <v>1.402866893864376</v>
       </c>
       <c r="JL3" t="n">
-        <v>0.9993218376472776</v>
+        <v>0.999321772098771</v>
       </c>
       <c r="JM3" t="n">
-        <v>322.7284401080904</v>
+        <v>322.7182919248643</v>
       </c>
       <c r="JN3" t="n">
-        <v>119477.334602032</v>
+        <v>119450.2329096206</v>
       </c>
       <c r="JO3" t="n">
-        <v>8.369788322872349e-06</v>
+        <v>8.371687318153901e-06</v>
       </c>
       <c r="JP3" t="n">
-        <v>85166.55507203414</v>
+        <v>85147.23202326037</v>
       </c>
       <c r="JQ3" t="n">
-        <v>1.174169835981034e-05</v>
+        <v>1.174436298442235e-05</v>
       </c>
       <c r="JR3" t="n">
-        <v>0.003874551802436811</v>
+        <v>0.003874794584387486</v>
       </c>
       <c r="JS3" t="n">
-        <v>1.649919169387407e-05</v>
+        <v>1.64983560970565e-05</v>
       </c>
       <c r="JT3" t="n">
-        <v>0.02326215057442812</v>
+        <v>0.02326087720902273</v>
       </c>
       <c r="JU3" t="n">
-        <v>85224.13189885857</v>
+        <v>85204.80145903623</v>
       </c>
       <c r="JV3" t="n">
-        <v>1.147125800467873</v>
+        <v>1.146937721385035</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.147125800467873</v>
+        <v>1.146937721385035</v>
       </c>
       <c r="JX3" t="n">
-        <v>310807.285035111</v>
+        <v>310795.6638842541</v>
       </c>
       <c r="JY3" t="n">
-        <v>385100.9081617974</v>
+        <v>385084.6159959201</v>
       </c>
       <c r="JZ3" t="n">
-        <v>3788.704170175148</v>
+        <v>3788.706334037486</v>
       </c>
       <c r="KA3" t="n">
-        <v>716.5217902369502</v>
+        <v>716.5213557777469</v>
       </c>
       <c r="KB3" t="n">
-        <v>1005.184648003896</v>
+        <v>1005.184088767419</v>
       </c>
       <c r="KC3" t="n">
-        <v>322.7284401080904</v>
+        <v>322.7182919248643</v>
       </c>
       <c r="KD3" t="n">
-        <v>0.9993218376472776</v>
+        <v>0.999321772098771</v>
       </c>
       <c r="KE3" t="n">
-        <v>1.649919169387407e-05</v>
+        <v>1.64983560970565e-05</v>
       </c>
       <c r="KF3" t="n">
-        <v>0.02326215057442812</v>
+        <v>0.02326087720902273</v>
       </c>
       <c r="KG3" t="inlineStr">
         <is>
@@ -11072,97 +11072,97 @@
         <v>1</v>
       </c>
       <c r="KI3" t="n">
-        <v>295.5936112671167</v>
+        <v>295.5936089016423</v>
       </c>
       <c r="KJ3" t="n">
-        <v>135244.5236879528</v>
+        <v>135243.5036984671</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.594675749456838</v>
+        <v>1.594663729925809</v>
       </c>
       <c r="KL3" t="n">
-        <v>336974.3850752489</v>
+        <v>336974.3854589449</v>
       </c>
       <c r="KM3" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.4310882886</v>
       </c>
       <c r="KN3" t="n">
-        <v>3788.704170173086</v>
+        <v>3788.706334035423</v>
       </c>
       <c r="KO3" t="n">
-        <v>-698132.3165955573</v>
+        <v>-698132.9472577532</v>
       </c>
       <c r="KP3" t="n">
-        <v>717.856059236685</v>
+        <v>717.8560565798938</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1006.776342139278</v>
+        <v>1006.776325392117</v>
       </c>
       <c r="KR3" t="n">
-        <v>1.402476623530641</v>
+        <v>1.402476605391805</v>
       </c>
       <c r="KS3" t="n">
-        <v>0.9995304415161133</v>
+        <v>0.9995304449880238</v>
       </c>
       <c r="KT3" t="n">
-        <v>344.8026690859038</v>
+        <v>344.8026666606148</v>
       </c>
       <c r="KU3" t="n">
-        <v>189589.2147868641</v>
+        <v>189587.7831312119</v>
       </c>
       <c r="KV3" t="n">
-        <v>5.274561641727345e-06</v>
+        <v>5.274601472120751e-06</v>
       </c>
       <c r="KW3" t="n">
-        <v>135181.7289543022</v>
+        <v>135180.7098972945</v>
       </c>
       <c r="KX3" t="n">
-        <v>7.397449401894001e-06</v>
+        <v>7.397505167414528e-06</v>
       </c>
       <c r="KY3" t="n">
-        <v>0.003395616933193732</v>
+        <v>0.003395616865905607</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1.832924431620492e-05</v>
+        <v>1.832924405433364e-05</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.02606727416591838</v>
+        <v>0.02606727366249255</v>
       </c>
       <c r="LB3" t="n">
-        <v>135244.5236879528</v>
+        <v>135243.5036984671</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.594675749456838</v>
+        <v>1.594663729925809</v>
       </c>
       <c r="LD3" t="n">
-        <v>1.594675749456838</v>
+        <v>1.594663729925809</v>
       </c>
       <c r="LE3" t="n">
-        <v>336974.3850752489</v>
+        <v>336974.3854589449</v>
       </c>
       <c r="LF3" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.4310882886</v>
       </c>
       <c r="LG3" t="n">
-        <v>3788.704170173086</v>
+        <v>3788.706334035423</v>
       </c>
       <c r="LH3" t="n">
-        <v>717.856059236685</v>
+        <v>717.8560565798938</v>
       </c>
       <c r="LI3" t="n">
-        <v>1006.776342139278</v>
+        <v>1006.776325392117</v>
       </c>
       <c r="LJ3" t="n">
-        <v>344.8026690859038</v>
+        <v>344.8026666606148</v>
       </c>
       <c r="LK3" t="n">
-        <v>0.9995304415161133</v>
+        <v>0.9995304449880238</v>
       </c>
       <c r="LL3" t="n">
-        <v>1.832924431620492e-05</v>
+        <v>1.832924405433364e-05</v>
       </c>
       <c r="LM3" t="n">
-        <v>0.02606727416591838</v>
+        <v>0.02606727366249255</v>
       </c>
       <c r="LN3" t="inlineStr">
         <is>
@@ -11173,97 +11173,97 @@
         <v>1</v>
       </c>
       <c r="LP3" t="n">
-        <v>268.5507579740813</v>
+        <v>268.5415749817375</v>
       </c>
       <c r="LQ3" t="n">
-        <v>96720.84440093678</v>
+        <v>96708.56621025548</v>
       </c>
       <c r="LR3" t="n">
-        <v>1.255488141331869</v>
+        <v>1.255371742997545</v>
       </c>
       <c r="LS3" t="n">
-        <v>317636.5259480495</v>
+        <v>317629.9644781403</v>
       </c>
       <c r="LT3" t="n">
-        <v>394674.9632034836</v>
+        <v>394665.7642320341</v>
       </c>
       <c r="LU3" t="n">
-        <v>3788.704170174519</v>
+        <v>3788.706334036857</v>
       </c>
       <c r="LV3" t="n">
-        <v>-622784.4134364462</v>
+        <v>-622759.4018535085</v>
       </c>
       <c r="LW3" t="n">
-        <v>716.7985497336425</v>
+        <v>716.7982588993845</v>
       </c>
       <c r="LX3" t="n">
-        <v>1005.52787849811</v>
+        <v>1005.527510863571</v>
       </c>
       <c r="LY3" t="n">
-        <v>1.402804008004421</v>
+        <v>1.402804064294908</v>
       </c>
       <c r="LZ3" t="n">
-        <v>0.999366648668024</v>
+        <v>0.999366607140912</v>
       </c>
       <c r="MA3" t="n">
-        <v>328.6361569947975</v>
+        <v>328.6305309828952</v>
       </c>
       <c r="MB3" t="n">
-        <v>135594.8833290515</v>
+        <v>135577.6700069698</v>
       </c>
       <c r="MC3" t="n">
-        <v>7.374909550040137e-06</v>
+        <v>7.37584588928687e-06</v>
       </c>
       <c r="MD3" t="n">
-        <v>96659.89158524285</v>
+        <v>96647.61705343024</v>
       </c>
       <c r="ME3" t="n">
-        <v>1.034555267546639e-05</v>
+        <v>1.034686659110451e-05</v>
       </c>
       <c r="MF3" t="n">
-        <v>0.003736933891423209</v>
+        <v>0.003737061338326532</v>
       </c>
       <c r="MG3" t="n">
-        <v>1.698652618400646e-05</v>
+        <v>1.698606112349341e-05</v>
       </c>
       <c r="MH3" t="n">
-        <v>0.02400591488881633</v>
+        <v>0.02400520391244026</v>
       </c>
       <c r="MI3" t="n">
-        <v>96720.84440093678</v>
+        <v>96708.56621025548</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1.255488141331869</v>
+        <v>1.255371742997545</v>
       </c>
       <c r="MK3" t="n">
-        <v>1.255488141331869</v>
+        <v>1.255371742997545</v>
       </c>
       <c r="ML3" t="n">
-        <v>317636.5259480495</v>
+        <v>317629.9644781403</v>
       </c>
       <c r="MM3" t="n">
-        <v>394674.9632034836</v>
+        <v>394665.7642320341</v>
       </c>
       <c r="MN3" t="n">
-        <v>3788.704170174519</v>
+        <v>3788.706334036857</v>
       </c>
       <c r="MO3" t="n">
-        <v>716.7985497336425</v>
+        <v>716.7982588993845</v>
       </c>
       <c r="MP3" t="n">
-        <v>1005.52787849811</v>
+        <v>1005.527510863571</v>
       </c>
       <c r="MQ3" t="n">
-        <v>328.6361569947975</v>
+        <v>328.6305309828952</v>
       </c>
       <c r="MR3" t="n">
-        <v>0.999366648668024</v>
+        <v>0.999366607140912</v>
       </c>
       <c r="MS3" t="n">
-        <v>1.698652618400646e-05</v>
+        <v>1.698606112349341e-05</v>
       </c>
       <c r="MT3" t="n">
-        <v>0.02400591488881633</v>
+        <v>0.02400520391244026</v>
       </c>
       <c r="MU3" t="inlineStr">
         <is>
@@ -11274,139 +11274,139 @@
         <v>1</v>
       </c>
       <c r="MW3" t="n">
-        <v>0.8392923746605597</v>
+        <v>0.839505128635846</v>
       </c>
       <c r="MX3" t="n">
-        <v>0.4287713108576716</v>
+        <v>0.4289436028996498</v>
       </c>
       <c r="MY3" t="n">
-        <v>250718.1349963231</v>
+        <v>250782.5720533007</v>
       </c>
       <c r="MZ3" t="n">
-        <v>2.756772347324415</v>
+        <v>2.756884453812164</v>
       </c>
       <c r="NA3" t="n">
-        <v>381012.3892382634</v>
+        <v>381003.1902668139</v>
       </c>
       <c r="NB3" t="n">
         <v>165.3032</v>
       </c>
       <c r="NC3" t="n">
-        <v>165.7024565442712</v>
+        <v>165.7386191338452</v>
       </c>
       <c r="ND3" t="n">
-        <v>139.9265136178639</v>
+        <v>139.9464153621214</v>
       </c>
       <c r="NE3" t="n">
-        <v>-88.75739344728325</v>
+        <v>-88.79352847863626</v>
       </c>
       <c r="NF3" t="n">
-        <v>-32.3875419168079</v>
+        <v>-32.39440536519928</v>
       </c>
       <c r="NG3" t="n">
-        <v>290.0451936440871</v>
+        <v>290.0864467641555</v>
       </c>
       <c r="NH3" t="n">
-        <v>139.9265136178639</v>
+        <v>139.9464153621214</v>
       </c>
       <c r="NI3" t="n">
-        <v>-254.0605934472833</v>
+        <v>-254.0967284786363</v>
       </c>
       <c r="NJ3" t="n">
         <v>-61.15576777799676</v>
       </c>
       <c r="NK3" t="n">
-        <v>226.539323467812</v>
+        <v>226.5182094072802</v>
       </c>
       <c r="NL3" t="n">
-        <v>50833.91478954683</v>
+        <v>50824.00882289636</v>
       </c>
       <c r="NM3" t="n">
-        <v>0.7823071192687377</v>
+        <v>0.782227686493404</v>
       </c>
       <c r="NN3" t="n">
-        <v>287632.3696607448</v>
+        <v>287617.2698947103</v>
       </c>
       <c r="NO3" t="n">
-        <v>352611.8560254654</v>
+        <v>352590.6909337072</v>
       </c>
       <c r="NP3" t="n">
-        <v>3802.894324777257</v>
+        <v>3802.856793361303</v>
       </c>
       <c r="NQ3" t="n">
-        <v>-508893.2515291563</v>
+        <v>-508825.6205308065</v>
       </c>
       <c r="NR3" t="n">
-        <v>715.8733479147162</v>
+        <v>715.8731003769777</v>
       </c>
       <c r="NS3" t="n">
-        <v>1004.248442894884</v>
+        <v>1004.24823496594</v>
       </c>
       <c r="NT3" t="n">
-        <v>1.402829768450218</v>
+        <v>1.402829963071813</v>
       </c>
       <c r="NU3" t="n">
-        <v>0.999255264146621</v>
+        <v>0.9992551247048903</v>
       </c>
       <c r="NV3" t="n">
-        <v>301.8068248468613</v>
+        <v>301.7927386800803</v>
       </c>
       <c r="NW3" t="n">
-        <v>71258.28983112895</v>
+        <v>71244.40369345907</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.4033454947766e-05</v>
+        <v>1.403619018698882e-05</v>
       </c>
       <c r="NY3" t="n">
-        <v>50796.10615181899</v>
+        <v>50786.20044403195</v>
       </c>
       <c r="NZ3" t="n">
-        <v>1.968654835493115e-05</v>
+        <v>1.969038816168248e-05</v>
       </c>
       <c r="OA3" t="n">
-        <v>0.004427723636680174</v>
+        <v>0.004428137273617089</v>
       </c>
       <c r="OB3" t="n">
-        <v>1.478892401788991e-05</v>
+        <v>1.478778368002202e-05</v>
       </c>
       <c r="OC3" t="n">
-        <v>0.02066986290978219</v>
+        <v>0.02066814552102927</v>
       </c>
       <c r="OD3" t="n">
-        <v>50833.91478954683</v>
+        <v>50824.00882289636</v>
       </c>
       <c r="OE3" t="n">
-        <v>0.7823071192687377</v>
+        <v>0.782227686493404</v>
       </c>
       <c r="OF3" t="n">
-        <v>0.7823071192687377</v>
+        <v>0.782227686493404</v>
       </c>
       <c r="OG3" t="n">
-        <v>287632.3696607448</v>
+        <v>287617.2698947103</v>
       </c>
       <c r="OH3" t="n">
-        <v>352611.8560254654</v>
+        <v>352590.6909337072</v>
       </c>
       <c r="OI3" t="n">
-        <v>3802.894324777257</v>
+        <v>3802.856793361303</v>
       </c>
       <c r="OJ3" t="n">
-        <v>715.8733479147162</v>
+        <v>715.8731003769777</v>
       </c>
       <c r="OK3" t="n">
-        <v>1004.248442894884</v>
+        <v>1004.24823496594</v>
       </c>
       <c r="OL3" t="n">
-        <v>301.8068248468613</v>
+        <v>301.7927386800803</v>
       </c>
       <c r="OM3" t="n">
-        <v>0.999255264146621</v>
+        <v>0.9992551247048903</v>
       </c>
       <c r="ON3" t="n">
-        <v>1.478892401788991e-05</v>
+        <v>1.478778368002202e-05</v>
       </c>
       <c r="OO3" t="n">
-        <v>0.02066986290978219</v>
+        <v>0.02066814552102927</v>
       </c>
       <c r="OP3" t="inlineStr">
         <is>
@@ -11417,97 +11417,97 @@
         <v>1</v>
       </c>
       <c r="OR3" t="n">
-        <v>240.250465284296</v>
+        <v>240.235342393427</v>
       </c>
       <c r="OS3" t="n">
-        <v>62407.79533940242</v>
+        <v>62402.22106114139</v>
       </c>
       <c r="OT3" t="n">
-        <v>0.9055811610389457</v>
+        <v>0.905557399226662</v>
       </c>
       <c r="OU3" t="n">
-        <v>297425.8728972914</v>
+        <v>297415.0480027287</v>
       </c>
       <c r="OV3" t="n">
-        <v>366340.5080778686</v>
+        <v>366325.3358701045</v>
       </c>
       <c r="OW3" t="n">
-        <v>3802.894324772821</v>
+        <v>3802.856793356861</v>
       </c>
       <c r="OX3" t="n">
-        <v>-547306.6228758104</v>
+        <v>-547255.2679551508</v>
       </c>
       <c r="OY3" t="n">
-        <v>716.0896065493278</v>
+        <v>716.0893657391065</v>
       </c>
       <c r="OZ3" t="n">
-        <v>1004.552388737928</v>
+        <v>1004.552235046395</v>
       </c>
       <c r="PA3" t="n">
-        <v>1.402830566943481</v>
+        <v>1.402830824068382</v>
       </c>
       <c r="PB3" t="n">
-        <v>0.9992887403177244</v>
+        <v>0.9992886041770733</v>
       </c>
       <c r="PC3" t="n">
-        <v>310.8165646088107</v>
+        <v>310.8067681752506</v>
       </c>
       <c r="PD3" t="n">
-        <v>87485.42202365735</v>
+        <v>87477.61190240001</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.14304758080676e-05</v>
+        <v>1.143149633663655e-05</v>
       </c>
       <c r="PF3" t="n">
-        <v>62363.49854727831</v>
+        <v>62357.91971600983</v>
       </c>
       <c r="PG3" t="n">
-        <v>1.603502085826521e-05</v>
+        <v>1.603645542625854e-05</v>
       </c>
       <c r="PH3" t="n">
-        <v>0.004175526357496494</v>
+        <v>0.00417579040814019</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.552192894821588e-05</v>
+        <v>1.552113065010675e-05</v>
       </c>
       <c r="PJ3" t="n">
-        <v>0.02177716883638885</v>
+        <v>0.02177596133035666</v>
       </c>
       <c r="PK3" t="n">
-        <v>62407.79533940242</v>
+        <v>62402.22106114139</v>
       </c>
       <c r="PL3" t="n">
-        <v>0.9055811610389457</v>
+        <v>0.905557399226662</v>
       </c>
       <c r="PM3" t="n">
-        <v>0.9055811610389457</v>
+        <v>0.905557399226662</v>
       </c>
       <c r="PN3" t="n">
-        <v>297425.8728972914</v>
+        <v>297415.0480027287</v>
       </c>
       <c r="PO3" t="n">
-        <v>366340.5080778686</v>
+        <v>366325.3358701045</v>
       </c>
       <c r="PP3" t="n">
-        <v>3802.894324772821</v>
+        <v>3802.856793356861</v>
       </c>
       <c r="PQ3" t="n">
-        <v>716.0896065493278</v>
+        <v>716.0893657391065</v>
       </c>
       <c r="PR3" t="n">
-        <v>1004.552388737928</v>
+        <v>1004.552235046395</v>
       </c>
       <c r="PS3" t="n">
-        <v>310.8165646088107</v>
+        <v>310.8067681752506</v>
       </c>
       <c r="PT3" t="n">
-        <v>0.9992887403177244</v>
+        <v>0.9992886041770733</v>
       </c>
       <c r="PU3" t="n">
-        <v>1.552192894821588e-05</v>
+        <v>1.552113065010675e-05</v>
       </c>
       <c r="PV3" t="n">
-        <v>0.02177716883638885</v>
+        <v>0.02177596133035666</v>
       </c>
       <c r="PW3" t="inlineStr">
         <is>
@@ -11518,97 +11518,97 @@
         <v>1</v>
       </c>
       <c r="PY3" t="n">
-        <v>268.5376061914922</v>
+        <v>268.5284598749594</v>
       </c>
       <c r="PZ3" t="n">
-        <v>92052.93359041034</v>
+        <v>92053.98448530382</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.194918514285647</v>
+        <v>1.194973002152289</v>
       </c>
       <c r="QB3" t="n">
-        <v>317637.9665462772</v>
+        <v>317631.4008450594</v>
       </c>
       <c r="QC3" t="n">
-        <v>394674.9632032767</v>
+        <v>394665.7642319339</v>
       </c>
       <c r="QD3" t="n">
-        <v>3802.894324759654</v>
+        <v>3802.856793357645</v>
       </c>
       <c r="QE3" t="n">
-        <v>-626545.1753668918</v>
+        <v>-626509.5136134214</v>
       </c>
       <c r="QF3" t="n">
-        <v>716.78315264577</v>
+        <v>716.7829044232077</v>
       </c>
       <c r="QG3" t="n">
-        <v>1005.431457461667</v>
+        <v>1005.431357229057</v>
       </c>
       <c r="QH3" t="n">
-        <v>1.402699622264344</v>
+        <v>1.402699968183705</v>
       </c>
       <c r="QI3" t="n">
-        <v>0.9993969044125515</v>
+        <v>0.9993967823155271</v>
       </c>
       <c r="QJ3" t="n">
-        <v>328.6257825815436</v>
+        <v>328.6201864881248</v>
       </c>
       <c r="QK3" t="n">
-        <v>129045.1114059332</v>
+        <v>129046.6006954507</v>
       </c>
       <c r="QL3" t="n">
-        <v>7.749228073075401e-06</v>
+        <v>7.749138641474133e-06</v>
       </c>
       <c r="QM3" t="n">
-        <v>91997.68029994819</v>
+        <v>91998.7193430592</v>
       </c>
       <c r="QN3" t="n">
-        <v>1.086983929094311e-05</v>
+        <v>1.086971652584688e-05</v>
       </c>
       <c r="QO3" t="n">
-        <v>0.003736479946305458</v>
+        <v>0.003736608628119155</v>
       </c>
       <c r="QP3" t="n">
-        <v>1.698515288433342e-05</v>
+        <v>1.698469167860434e-05</v>
       </c>
       <c r="QQ3" t="n">
-        <v>0.02400324666721737</v>
+        <v>0.02400254316973129</v>
       </c>
       <c r="QR3" t="n">
-        <v>92052.93359041034</v>
+        <v>92053.98448530382</v>
       </c>
       <c r="QS3" t="n">
-        <v>1.194918514285647</v>
+        <v>1.194973002152289</v>
       </c>
       <c r="QT3" t="n">
-        <v>1.194918514285647</v>
+        <v>1.194973002152289</v>
       </c>
       <c r="QU3" t="n">
-        <v>317637.9665462772</v>
+        <v>317631.4008450594</v>
       </c>
       <c r="QV3" t="n">
-        <v>394674.9632032767</v>
+        <v>394665.7642319339</v>
       </c>
       <c r="QW3" t="n">
-        <v>3802.894324759654</v>
+        <v>3802.856793357645</v>
       </c>
       <c r="QX3" t="n">
-        <v>716.78315264577</v>
+        <v>716.7829044232077</v>
       </c>
       <c r="QY3" t="n">
-        <v>1005.431457461667</v>
+        <v>1005.431357229057</v>
       </c>
       <c r="QZ3" t="n">
-        <v>328.6257825815436</v>
+        <v>328.6201864881248</v>
       </c>
       <c r="RA3" t="n">
-        <v>0.9993969044125515</v>
+        <v>0.9993967823155271</v>
       </c>
       <c r="RB3" t="n">
-        <v>1.698515288433342e-05</v>
+        <v>1.698469167860434e-05</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.02400324666721737</v>
+        <v>0.02400254316973129</v>
       </c>
       <c r="RD3" t="inlineStr">
         <is>
@@ -11619,52 +11619,52 @@
         <v>1</v>
       </c>
       <c r="RF3" t="n">
-        <v>0.02439632492468822</v>
+        <v>0.02440571214760308</v>
       </c>
       <c r="RG3" t="n">
-        <v>0.002282459362234917</v>
+        <v>0.001906596776691033</v>
       </c>
       <c r="RH3" t="n">
-        <v>0.0119006855831429</v>
+        <v>0.01190009480341528</v>
       </c>
       <c r="RI3" t="n">
-        <v>0.0319546583374733</v>
+        <v>0.03195980302052197</v>
       </c>
       <c r="RJ3" t="n">
-        <v>0.04269609668891981</v>
+        <v>0.04270467370964452</v>
       </c>
       <c r="RK3" t="n">
-        <v>0.1132302248964591</v>
+        <v>0.1128768804578759</v>
       </c>
       <c r="RL3" t="n">
-        <v>1.630410582238728e-05</v>
+        <v>1.626700877122023e-05</v>
       </c>
       <c r="RM3" t="n">
-        <v>0.549034822616585</v>
+        <v>0.5491802747101175</v>
       </c>
       <c r="RN3" t="n">
-        <v>0.9610292735800718</v>
+        <v>0.9612108231393393</v>
       </c>
       <c r="RO3" t="n">
-        <v>399834.9829490305</v>
+        <v>399882.0817562955</v>
       </c>
       <c r="RP3" t="n">
-        <v>2.756753152056723</v>
+        <v>2.756865293934016</v>
       </c>
       <c r="RQ3" t="n">
-        <v>381012.3892382634</v>
+        <v>381003.1902668139</v>
       </c>
       <c r="RR3" t="n">
         <v>0</v>
       </c>
       <c r="RS3" t="n">
-        <v>349419.8328239435</v>
+        <v>349407.8309607895</v>
       </c>
       <c r="RT3" t="n">
-        <v>2821.383986459288</v>
+        <v>2812.496788573626</v>
       </c>
       <c r="RU3" t="n">
-        <v>6.541049725037183</v>
+        <v>6.554012490407942</v>
       </c>
     </row>
   </sheetData>
@@ -11703,7 +11703,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4037487026122339</v>
+        <v>0.4036116489955316</v>
       </c>
     </row>
     <row r="3">
@@ -11711,7 +11711,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4233608672076697</v>
+        <v>0.4231652675603427</v>
       </c>
     </row>
   </sheetData>
@@ -12808,16 +12808,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="H2" t="n">
-        <v>5.52399998758431e-08</v>
+        <v>7.46998328882409e-08</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -12839,16 +12839,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>18</v>
       </c>
       <c r="G3" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="H3" t="n">
-        <v>4.742801604608425e-08</v>
+        <v>5.899958965215476e-08</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
